--- a/data/varcovRECORDS.xlsx
+++ b/data/varcovRECORDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32EB3DED-5425-41E3-9122-801EC8704B90}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5DCB3F-5F50-4495-B6AE-8EF563C0F4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" activeTab="10" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="7" activeTab="12" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="0414" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,8 @@
     <sheet name="Sheet8" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet9" sheetId="10" r:id="rId10"/>
     <sheet name="Sheet10" sheetId="11" r:id="rId11"/>
+    <sheet name="Sheet7" sheetId="12" r:id="rId12"/>
+    <sheet name="0418origin" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2486,7 +2488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC0065F-56DA-45B1-976B-F34012C0BF24}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:T20"/>
     </sheetView>
   </sheetViews>
@@ -3731,6 +3733,2080 @@
       <c r="T20">
         <v>5.5058899999999998E-4</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E06C9CE2-663E-4FD3-A077-2CC834B9AC19}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="U7" sqref="T1:U1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>3.5852599999999998E-2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-4.3342600000000001E-5</v>
+      </c>
+      <c r="C1">
+        <v>1.17687E-3</v>
+      </c>
+      <c r="D1">
+        <v>2.3658300000000002E-3</v>
+      </c>
+      <c r="E1">
+        <v>3.5720000000000001E-3</v>
+      </c>
+      <c r="F1">
+        <v>-2.4736900000000002E-3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2.8853600000000001E-6</v>
+      </c>
+      <c r="H1">
+        <v>-3.9387900000000002E-3</v>
+      </c>
+      <c r="I1">
+        <v>-6.1985E-3</v>
+      </c>
+      <c r="J1">
+        <v>-4.67169E-3</v>
+      </c>
+      <c r="K1">
+        <v>-5.0113199999999997E-3</v>
+      </c>
+      <c r="L1">
+        <v>-8.7414099999999998E-3</v>
+      </c>
+      <c r="M1">
+        <v>6.1501899999999996E-4</v>
+      </c>
+      <c r="N1">
+        <v>-1.39357E-3</v>
+      </c>
+      <c r="O1">
+        <v>-2.8725199999999999E-4</v>
+      </c>
+      <c r="P1">
+        <v>-2.8621100000000002E-3</v>
+      </c>
+      <c r="Q1">
+        <v>1.26329E-3</v>
+      </c>
+      <c r="R1">
+        <v>-3.3036099999999998E-3</v>
+      </c>
+      <c r="S1">
+        <v>4.7523900000000004E-3</v>
+      </c>
+      <c r="T1">
+        <v>-3.4401499999999998E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>-4.3342600000000001E-5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>4.4234999999999999E-7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.5950899999999998E-6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1.4230700000000001E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-5.9804199999999999E-5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7.9493000000000003E-6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-1.4570399999999999E-8</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.00305E-5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>2.4576700000000001E-5</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.0817899999999999E-5</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.6579200000000001E-5</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4.2885400000000001E-5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.71794E-5</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.08524E-5</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2.0967499999999999E-5</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.85267E-5</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>-1.4902999999999999E-6</v>
+      </c>
+      <c r="R2" s="1">
+        <v>1.0792600000000001E-5</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-3.3953199999999999E-5</v>
+      </c>
+      <c r="T2" s="1">
+        <v>1.1878399999999999E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1.17687E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.5950899999999998E-6</v>
+      </c>
+      <c r="C3">
+        <v>1.5525199999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>2.0178100000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>-3.7706599999999999E-3</v>
+      </c>
+      <c r="F3">
+        <v>-9.3873999999999997E-4</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1.0388999999999999E-6</v>
+      </c>
+      <c r="H3">
+        <v>-1.9768400000000001E-3</v>
+      </c>
+      <c r="I3">
+        <v>-1.9255400000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>-1.41556E-3</v>
+      </c>
+      <c r="K3">
+        <v>-1.2386000000000001E-3</v>
+      </c>
+      <c r="L3">
+        <v>-8.7079799999999999E-4</v>
+      </c>
+      <c r="M3">
+        <v>-8.0990000000000001E-4</v>
+      </c>
+      <c r="N3">
+        <v>1.0176E-3</v>
+      </c>
+      <c r="O3">
+        <v>-8.6139799999999998E-4</v>
+      </c>
+      <c r="P3">
+        <v>5.7121699999999995E-4</v>
+      </c>
+      <c r="Q3">
+        <v>-2.6812400000000001E-3</v>
+      </c>
+      <c r="R3">
+        <v>3.2411899999999999E-4</v>
+      </c>
+      <c r="S3">
+        <v>-7.3313100000000004E-4</v>
+      </c>
+      <c r="T3">
+        <v>-1.5465800000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2.3658300000000002E-3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1.4230700000000001E-5</v>
+      </c>
+      <c r="C4">
+        <v>2.0178100000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.45293E-2</v>
+      </c>
+      <c r="E4">
+        <v>-4.6961800000000003E-3</v>
+      </c>
+      <c r="F4">
+        <v>-2.0838200000000001E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.9332400000000001E-6</v>
+      </c>
+      <c r="H4">
+        <v>-2.19404E-3</v>
+      </c>
+      <c r="I4">
+        <v>-1.9915499999999999E-3</v>
+      </c>
+      <c r="J4">
+        <v>-3.90923E-4</v>
+      </c>
+      <c r="K4">
+        <v>3.3214300000000002E-4</v>
+      </c>
+      <c r="L4">
+        <v>-6.94307E-3</v>
+      </c>
+      <c r="M4">
+        <v>4.0234999999999999E-4</v>
+      </c>
+      <c r="N4">
+        <v>1.15631E-3</v>
+      </c>
+      <c r="O4">
+        <v>-5.9710199999999996E-4</v>
+      </c>
+      <c r="P4">
+        <v>-5.8890799999999997E-4</v>
+      </c>
+      <c r="Q4">
+        <v>-2.1873399999999999E-3</v>
+      </c>
+      <c r="R4">
+        <v>-5.8688999999999996E-4</v>
+      </c>
+      <c r="S4">
+        <v>-2.8841000000000001E-3</v>
+      </c>
+      <c r="T4">
+        <v>-2.5214699999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3.5720000000000001E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-5.9804199999999999E-5</v>
+      </c>
+      <c r="C5">
+        <v>-3.7706599999999999E-3</v>
+      </c>
+      <c r="D5">
+        <v>-4.6961800000000003E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.13811100000000001</v>
+      </c>
+      <c r="F5">
+        <v>-1.96781E-3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-9.4009699999999995E-5</v>
+      </c>
+      <c r="H5">
+        <v>-6.4293799999999998E-2</v>
+      </c>
+      <c r="I5">
+        <v>-6.9688899999999998E-2</v>
+      </c>
+      <c r="J5">
+        <v>-6.8598999999999993E-2</v>
+      </c>
+      <c r="K5">
+        <v>-7.0170300000000005E-2</v>
+      </c>
+      <c r="L5">
+        <v>-6.9609699999999997E-2</v>
+      </c>
+      <c r="M5">
+        <v>-1.1735799999999999E-2</v>
+      </c>
+      <c r="N5">
+        <v>-2.7203399999999999E-2</v>
+      </c>
+      <c r="O5">
+        <v>-1.8133699999999999E-2</v>
+      </c>
+      <c r="P5">
+        <v>2.26458E-3</v>
+      </c>
+      <c r="Q5">
+        <v>-1.08799E-2</v>
+      </c>
+      <c r="R5">
+        <v>-1.41689E-2</v>
+      </c>
+      <c r="S5">
+        <v>1.9204599999999999E-2</v>
+      </c>
+      <c r="T5">
+        <v>-6.96117E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>-2.4736900000000002E-3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>7.9493000000000003E-6</v>
+      </c>
+      <c r="C6">
+        <v>-9.3873999999999997E-4</v>
+      </c>
+      <c r="D6">
+        <v>-2.0838200000000001E-3</v>
+      </c>
+      <c r="E6">
+        <v>-1.96781E-3</v>
+      </c>
+      <c r="F6">
+        <v>1.1359299999999999E-2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-1.17087E-5</v>
+      </c>
+      <c r="H6">
+        <v>5.8774900000000004E-4</v>
+      </c>
+      <c r="I6">
+        <v>1.47675E-3</v>
+      </c>
+      <c r="J6">
+        <v>-3.7241999999999999E-4</v>
+      </c>
+      <c r="K6" s="1">
+        <v>-2.3847400000000001E-5</v>
+      </c>
+      <c r="L6">
+        <v>-3.3039099999999997E-4</v>
+      </c>
+      <c r="M6">
+        <v>1.31051E-3</v>
+      </c>
+      <c r="N6">
+        <v>-6.3403899999999998E-4</v>
+      </c>
+      <c r="O6">
+        <v>1.7269900000000001E-3</v>
+      </c>
+      <c r="P6">
+        <v>9.7119000000000003E-4</v>
+      </c>
+      <c r="Q6">
+        <v>1.26643E-3</v>
+      </c>
+      <c r="R6">
+        <v>-2.30336E-3</v>
+      </c>
+      <c r="S6">
+        <v>2.9630099999999999E-3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>9.3396399999999999E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>2.8853600000000001E-6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-1.4570399999999999E-8</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-1.0388999999999999E-6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.9332400000000001E-6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-9.4009699999999995E-5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-1.17087E-5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2.1397999999999999E-7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-6.4898400000000004E-6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-6.0649400000000004E-6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-6.5526499999999998E-7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4.6809899999999999E-7</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1.5824600000000001E-5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-6.9131599999999999E-6</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2.3580199999999998E-6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>2.68748E-6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-9.8324900000000005E-6</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.11769E-5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>-2.3446700000000002E-6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-1.9093000000000002E-5</v>
+      </c>
+      <c r="T7" s="1">
+        <v>6.2118799999999996E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>-3.9387900000000002E-3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.00305E-5</v>
+      </c>
+      <c r="C8">
+        <v>-1.9768400000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>-2.19404E-3</v>
+      </c>
+      <c r="E8">
+        <v>-6.4293799999999998E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.8774900000000004E-4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-6.4898400000000004E-6</v>
+      </c>
+      <c r="H8">
+        <v>7.9146999999999995E-2</v>
+      </c>
+      <c r="I8">
+        <v>6.9000699999999998E-2</v>
+      </c>
+      <c r="J8">
+        <v>6.7323800000000003E-2</v>
+      </c>
+      <c r="K8">
+        <v>6.7637799999999998E-2</v>
+      </c>
+      <c r="L8">
+        <v>7.1356699999999995E-2</v>
+      </c>
+      <c r="M8">
+        <v>-1.6429000000000001E-3</v>
+      </c>
+      <c r="N8">
+        <v>6.6810100000000002E-3</v>
+      </c>
+      <c r="O8">
+        <v>-1.7496499999999999E-3</v>
+      </c>
+      <c r="P8">
+        <v>3.6694900000000001E-3</v>
+      </c>
+      <c r="Q8">
+        <v>-7.91156E-4</v>
+      </c>
+      <c r="R8">
+        <v>1.0708199999999999E-2</v>
+      </c>
+      <c r="S8">
+        <v>-5.7788500000000003E-3</v>
+      </c>
+      <c r="T8">
+        <v>2.4619099999999999E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>-6.1985E-3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.4576700000000001E-5</v>
+      </c>
+      <c r="C9">
+        <v>-1.9255400000000001E-3</v>
+      </c>
+      <c r="D9">
+        <v>-1.9915499999999999E-3</v>
+      </c>
+      <c r="E9">
+        <v>-6.9688899999999998E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.47675E-3</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-6.0649400000000004E-6</v>
+      </c>
+      <c r="H9">
+        <v>6.9000699999999998E-2</v>
+      </c>
+      <c r="I9">
+        <v>8.2324599999999998E-2</v>
+      </c>
+      <c r="J9">
+        <v>7.1732500000000005E-2</v>
+      </c>
+      <c r="K9">
+        <v>7.11397E-2</v>
+      </c>
+      <c r="L9">
+        <v>8.3649399999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>-5.8232900000000001E-3</v>
+      </c>
+      <c r="N9">
+        <v>1.2102399999999999E-2</v>
+      </c>
+      <c r="O9">
+        <v>-2.97328E-3</v>
+      </c>
+      <c r="P9">
+        <v>7.9663599999999998E-4</v>
+      </c>
+      <c r="Q9">
+        <v>7.2772699999999997E-3</v>
+      </c>
+      <c r="R9">
+        <v>1.40296E-2</v>
+      </c>
+      <c r="S9">
+        <v>-6.0648200000000003E-3</v>
+      </c>
+      <c r="T9">
+        <v>3.6414500000000002E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>-4.67169E-3</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.0817899999999999E-5</v>
+      </c>
+      <c r="C10">
+        <v>-1.41556E-3</v>
+      </c>
+      <c r="D10">
+        <v>-3.90923E-4</v>
+      </c>
+      <c r="E10">
+        <v>-6.8598999999999993E-2</v>
+      </c>
+      <c r="F10">
+        <v>-3.7241999999999999E-4</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-6.5526499999999998E-7</v>
+      </c>
+      <c r="H10">
+        <v>6.7323800000000003E-2</v>
+      </c>
+      <c r="I10">
+        <v>7.1732500000000005E-2</v>
+      </c>
+      <c r="J10">
+        <v>8.2348400000000002E-2</v>
+      </c>
+      <c r="K10">
+        <v>6.9277400000000003E-2</v>
+      </c>
+      <c r="L10">
+        <v>7.4059100000000003E-2</v>
+      </c>
+      <c r="M10">
+        <v>-4.6007799999999996E-3</v>
+      </c>
+      <c r="N10">
+        <v>9.83997E-3</v>
+      </c>
+      <c r="O10">
+        <v>-2.1756599999999998E-3</v>
+      </c>
+      <c r="P10">
+        <v>3.1737800000000002E-3</v>
+      </c>
+      <c r="Q10">
+        <v>5.2634299999999997E-4</v>
+      </c>
+      <c r="R10">
+        <v>1.3096699999999999E-2</v>
+      </c>
+      <c r="S10">
+        <v>-6.5464800000000004E-3</v>
+      </c>
+      <c r="T10">
+        <v>3.0869399999999998E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>-5.0113199999999997E-3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.6579200000000001E-5</v>
+      </c>
+      <c r="C11">
+        <v>-1.2386000000000001E-3</v>
+      </c>
+      <c r="D11">
+        <v>3.3214300000000002E-4</v>
+      </c>
+      <c r="E11">
+        <v>-7.0170300000000005E-2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-2.3847400000000001E-5</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.6809899999999999E-7</v>
+      </c>
+      <c r="H11">
+        <v>6.7637799999999998E-2</v>
+      </c>
+      <c r="I11">
+        <v>7.11397E-2</v>
+      </c>
+      <c r="J11">
+        <v>6.9277400000000003E-2</v>
+      </c>
+      <c r="K11">
+        <v>8.8543899999999995E-2</v>
+      </c>
+      <c r="L11">
+        <v>7.3260000000000006E-2</v>
+      </c>
+      <c r="M11">
+        <v>-1.6730600000000001E-3</v>
+      </c>
+      <c r="N11">
+        <v>1.0079100000000001E-2</v>
+      </c>
+      <c r="O11">
+        <v>-1.6678800000000001E-3</v>
+      </c>
+      <c r="P11">
+        <v>4.1272699999999997E-3</v>
+      </c>
+      <c r="Q11">
+        <v>-4.2957100000000001E-4</v>
+      </c>
+      <c r="R11">
+        <v>1.33578E-2</v>
+      </c>
+      <c r="S11">
+        <v>-1.1222299999999999E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>7.9362300000000008E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>-8.7414099999999998E-3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>4.2885400000000001E-5</v>
+      </c>
+      <c r="C12">
+        <v>-8.7079799999999999E-4</v>
+      </c>
+      <c r="D12">
+        <v>-6.94307E-3</v>
+      </c>
+      <c r="E12">
+        <v>-6.9609699999999997E-2</v>
+      </c>
+      <c r="F12">
+        <v>-3.3039099999999997E-4</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1.5824600000000001E-5</v>
+      </c>
+      <c r="H12">
+        <v>7.1356699999999995E-2</v>
+      </c>
+      <c r="I12">
+        <v>8.3649399999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>7.4059100000000003E-2</v>
+      </c>
+      <c r="K12">
+        <v>7.3260000000000006E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.22058800000000001</v>
+      </c>
+      <c r="M12">
+        <v>-2.1186400000000002E-3</v>
+      </c>
+      <c r="N12">
+        <v>1.23684E-2</v>
+      </c>
+      <c r="O12">
+        <v>-1.3621099999999999E-3</v>
+      </c>
+      <c r="P12">
+        <v>-4.2657199999999998E-3</v>
+      </c>
+      <c r="Q12">
+        <v>2.00421E-2</v>
+      </c>
+      <c r="R12">
+        <v>2.4683799999999999E-2</v>
+      </c>
+      <c r="S12">
+        <v>-1.3564400000000001E-2</v>
+      </c>
+      <c r="T12">
+        <v>1.7700999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>6.1501899999999996E-4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.71794E-5</v>
+      </c>
+      <c r="C13">
+        <v>-8.0990000000000001E-4</v>
+      </c>
+      <c r="D13">
+        <v>4.0234999999999999E-4</v>
+      </c>
+      <c r="E13">
+        <v>-1.1735799999999999E-2</v>
+      </c>
+      <c r="F13">
+        <v>1.31051E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-6.9131599999999999E-6</v>
+      </c>
+      <c r="H13">
+        <v>-1.6429000000000001E-3</v>
+      </c>
+      <c r="I13">
+        <v>-5.8232900000000001E-3</v>
+      </c>
+      <c r="J13">
+        <v>-4.6007799999999996E-3</v>
+      </c>
+      <c r="K13">
+        <v>-1.6730600000000001E-3</v>
+      </c>
+      <c r="L13">
+        <v>-2.1186400000000002E-3</v>
+      </c>
+      <c r="M13">
+        <v>3.5149199999999999E-2</v>
+      </c>
+      <c r="N13">
+        <v>1.3408399999999999E-2</v>
+      </c>
+      <c r="O13">
+        <v>1.7789099999999999E-2</v>
+      </c>
+      <c r="P13">
+        <v>1.11736E-3</v>
+      </c>
+      <c r="Q13">
+        <v>4.3269700000000003E-3</v>
+      </c>
+      <c r="R13">
+        <v>1.93483E-3</v>
+      </c>
+      <c r="S13">
+        <v>-5.7489300000000002E-3</v>
+      </c>
+      <c r="T13">
+        <v>1.3070099999999999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>-1.39357E-3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.08524E-5</v>
+      </c>
+      <c r="C14">
+        <v>1.0176E-3</v>
+      </c>
+      <c r="D14">
+        <v>1.15631E-3</v>
+      </c>
+      <c r="E14">
+        <v>-2.7203399999999999E-2</v>
+      </c>
+      <c r="F14">
+        <v>-6.3403899999999998E-4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>2.3580199999999998E-6</v>
+      </c>
+      <c r="H14">
+        <v>6.6810100000000002E-3</v>
+      </c>
+      <c r="I14">
+        <v>1.2102399999999999E-2</v>
+      </c>
+      <c r="J14">
+        <v>9.83997E-3</v>
+      </c>
+      <c r="K14">
+        <v>1.0079100000000001E-2</v>
+      </c>
+      <c r="L14">
+        <v>1.23684E-2</v>
+      </c>
+      <c r="M14">
+        <v>1.3408399999999999E-2</v>
+      </c>
+      <c r="N14">
+        <v>3.9853600000000003E-2</v>
+      </c>
+      <c r="O14">
+        <v>1.4453799999999999E-2</v>
+      </c>
+      <c r="P14">
+        <v>8.8331900000000003E-4</v>
+      </c>
+      <c r="Q14">
+        <v>6.7729300000000004E-4</v>
+      </c>
+      <c r="R14">
+        <v>-3.9983100000000001E-4</v>
+      </c>
+      <c r="S14">
+        <v>2.7870199999999998E-4</v>
+      </c>
+      <c r="T14">
+        <v>1.18113E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>-2.8725199999999999E-4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.0967499999999999E-5</v>
+      </c>
+      <c r="C15">
+        <v>-8.6139799999999998E-4</v>
+      </c>
+      <c r="D15">
+        <v>-5.9710199999999996E-4</v>
+      </c>
+      <c r="E15">
+        <v>-1.8133699999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>1.7269900000000001E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2.68748E-6</v>
+      </c>
+      <c r="H15">
+        <v>-1.7496499999999999E-3</v>
+      </c>
+      <c r="I15">
+        <v>-2.97328E-3</v>
+      </c>
+      <c r="J15">
+        <v>-2.1756599999999998E-3</v>
+      </c>
+      <c r="K15">
+        <v>-1.6678800000000001E-3</v>
+      </c>
+      <c r="L15">
+        <v>-1.3621099999999999E-3</v>
+      </c>
+      <c r="M15">
+        <v>1.7789099999999999E-2</v>
+      </c>
+      <c r="N15">
+        <v>1.4453799999999999E-2</v>
+      </c>
+      <c r="O15">
+        <v>2.1895299999999999E-2</v>
+      </c>
+      <c r="P15">
+        <v>2.1457799999999999E-4</v>
+      </c>
+      <c r="Q15">
+        <v>2.3036900000000002E-3</v>
+      </c>
+      <c r="R15">
+        <v>5.2327099999999998E-3</v>
+      </c>
+      <c r="S15">
+        <v>-6.9319300000000002E-3</v>
+      </c>
+      <c r="T15">
+        <v>3.58718E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>-2.8621100000000002E-3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.85267E-5</v>
+      </c>
+      <c r="C16">
+        <v>5.7121699999999995E-4</v>
+      </c>
+      <c r="D16">
+        <v>-5.8890799999999997E-4</v>
+      </c>
+      <c r="E16">
+        <v>2.26458E-3</v>
+      </c>
+      <c r="F16">
+        <v>9.7119000000000003E-4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-9.8324900000000005E-6</v>
+      </c>
+      <c r="H16">
+        <v>3.6694900000000001E-3</v>
+      </c>
+      <c r="I16">
+        <v>7.9663599999999998E-4</v>
+      </c>
+      <c r="J16">
+        <v>3.1737800000000002E-3</v>
+      </c>
+      <c r="K16">
+        <v>4.1272699999999997E-3</v>
+      </c>
+      <c r="L16">
+        <v>-4.2657199999999998E-3</v>
+      </c>
+      <c r="M16">
+        <v>1.11736E-3</v>
+      </c>
+      <c r="N16">
+        <v>8.8331900000000003E-4</v>
+      </c>
+      <c r="O16">
+        <v>2.1457799999999999E-4</v>
+      </c>
+      <c r="P16">
+        <v>3.1065800000000001E-2</v>
+      </c>
+      <c r="Q16">
+        <v>-3.51534E-3</v>
+      </c>
+      <c r="R16">
+        <v>-1.27545E-2</v>
+      </c>
+      <c r="S16">
+        <v>-1.7018499999999999E-2</v>
+      </c>
+      <c r="T16">
+        <v>-3.8379000000000001E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1.26329E-3</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-1.4902999999999999E-6</v>
+      </c>
+      <c r="C17">
+        <v>-2.6812400000000001E-3</v>
+      </c>
+      <c r="D17">
+        <v>-2.1873399999999999E-3</v>
+      </c>
+      <c r="E17">
+        <v>-1.08799E-2</v>
+      </c>
+      <c r="F17">
+        <v>1.26643E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.11769E-5</v>
+      </c>
+      <c r="H17">
+        <v>-7.91156E-4</v>
+      </c>
+      <c r="I17">
+        <v>7.2772699999999997E-3</v>
+      </c>
+      <c r="J17">
+        <v>5.2634299999999997E-4</v>
+      </c>
+      <c r="K17">
+        <v>-4.2957100000000001E-4</v>
+      </c>
+      <c r="L17">
+        <v>2.00421E-2</v>
+      </c>
+      <c r="M17">
+        <v>4.3269700000000003E-3</v>
+      </c>
+      <c r="N17">
+        <v>6.7729300000000004E-4</v>
+      </c>
+      <c r="O17">
+        <v>2.3036900000000002E-3</v>
+      </c>
+      <c r="P17">
+        <v>-3.51534E-3</v>
+      </c>
+      <c r="Q17">
+        <v>2.767E-2</v>
+      </c>
+      <c r="R17">
+        <v>-3.1621399999999999E-3</v>
+      </c>
+      <c r="S17">
+        <v>1.7645E-3</v>
+      </c>
+      <c r="T17">
+        <v>3.8984799999999998E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>-3.3036099999999998E-3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1.0792600000000001E-5</v>
+      </c>
+      <c r="C18">
+        <v>3.2411899999999999E-4</v>
+      </c>
+      <c r="D18">
+        <v>-5.8688999999999996E-4</v>
+      </c>
+      <c r="E18">
+        <v>-1.41689E-2</v>
+      </c>
+      <c r="F18">
+        <v>-2.30336E-3</v>
+      </c>
+      <c r="G18" s="1">
+        <v>-2.3446700000000002E-6</v>
+      </c>
+      <c r="H18">
+        <v>1.0708199999999999E-2</v>
+      </c>
+      <c r="I18">
+        <v>1.40296E-2</v>
+      </c>
+      <c r="J18">
+        <v>1.3096699999999999E-2</v>
+      </c>
+      <c r="K18">
+        <v>1.33578E-2</v>
+      </c>
+      <c r="L18">
+        <v>2.4683799999999999E-2</v>
+      </c>
+      <c r="M18">
+        <v>1.93483E-3</v>
+      </c>
+      <c r="N18">
+        <v>-3.9983100000000001E-4</v>
+      </c>
+      <c r="O18">
+        <v>5.2327099999999998E-3</v>
+      </c>
+      <c r="P18">
+        <v>-1.27545E-2</v>
+      </c>
+      <c r="Q18">
+        <v>-3.1621399999999999E-3</v>
+      </c>
+      <c r="R18">
+        <v>7.9513100000000003E-2</v>
+      </c>
+      <c r="S18">
+        <v>-1.2016799999999999E-2</v>
+      </c>
+      <c r="T18" s="1">
+        <v>-8.6512099999999995E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>4.7523900000000004E-3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-3.3953199999999999E-5</v>
+      </c>
+      <c r="C19">
+        <v>-7.3313100000000004E-4</v>
+      </c>
+      <c r="D19">
+        <v>-2.8841000000000001E-3</v>
+      </c>
+      <c r="E19">
+        <v>1.9204599999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>2.9630099999999999E-3</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-1.9093000000000002E-5</v>
+      </c>
+      <c r="H19">
+        <v>-5.7788500000000003E-3</v>
+      </c>
+      <c r="I19">
+        <v>-6.0648200000000003E-3</v>
+      </c>
+      <c r="J19">
+        <v>-6.5464800000000004E-3</v>
+      </c>
+      <c r="K19">
+        <v>-1.1222299999999999E-2</v>
+      </c>
+      <c r="L19">
+        <v>-1.3564400000000001E-2</v>
+      </c>
+      <c r="M19">
+        <v>-5.7489300000000002E-3</v>
+      </c>
+      <c r="N19">
+        <v>2.7870199999999998E-4</v>
+      </c>
+      <c r="O19">
+        <v>-6.9319300000000002E-3</v>
+      </c>
+      <c r="P19">
+        <v>-1.7018499999999999E-2</v>
+      </c>
+      <c r="Q19">
+        <v>1.7645E-3</v>
+      </c>
+      <c r="R19">
+        <v>-1.2016799999999999E-2</v>
+      </c>
+      <c r="S19">
+        <v>0.13877300000000001</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1.5201199999999999E-5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>-3.4401499999999998E-4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.1878399999999999E-6</v>
+      </c>
+      <c r="C20">
+        <v>-1.5465800000000001E-3</v>
+      </c>
+      <c r="D20">
+        <v>-2.5214699999999998E-4</v>
+      </c>
+      <c r="E20">
+        <v>-6.96117E-4</v>
+      </c>
+      <c r="F20" s="1">
+        <v>9.3396399999999999E-5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>6.2118799999999996E-7</v>
+      </c>
+      <c r="H20">
+        <v>2.4619099999999999E-4</v>
+      </c>
+      <c r="I20">
+        <v>3.6414500000000002E-4</v>
+      </c>
+      <c r="J20">
+        <v>3.0869399999999998E-4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>7.9362300000000008E-6</v>
+      </c>
+      <c r="L20">
+        <v>1.7700999999999999E-4</v>
+      </c>
+      <c r="M20">
+        <v>1.3070099999999999E-4</v>
+      </c>
+      <c r="N20">
+        <v>1.18113E-4</v>
+      </c>
+      <c r="O20">
+        <v>3.58718E-4</v>
+      </c>
+      <c r="P20">
+        <v>-3.8379000000000001E-4</v>
+      </c>
+      <c r="Q20">
+        <v>3.8984799999999998E-4</v>
+      </c>
+      <c r="R20" s="1">
+        <v>-8.6512099999999995E-5</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1.5201199999999999E-5</v>
+      </c>
+      <c r="T20">
+        <v>5.3950099999999996E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE1EA4B-56A8-42B8-A842-1A3FCBC0F705}">
+  <dimension ref="A1:P17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="T20" sqref="T20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>5.0102800000000003E-2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-2.5432E-5</v>
+      </c>
+      <c r="C1">
+        <v>-5.8109399999999997E-3</v>
+      </c>
+      <c r="D1">
+        <v>-4.1449999999999999E-4</v>
+      </c>
+      <c r="E1">
+        <v>3.7996699999999998E-3</v>
+      </c>
+      <c r="F1">
+        <v>-5.79891E-3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-1.8665E-6</v>
+      </c>
+      <c r="H1">
+        <v>1.4371500000000001E-3</v>
+      </c>
+      <c r="I1">
+        <v>-1.0789700000000001E-3</v>
+      </c>
+      <c r="J1">
+        <v>-2.3840999999999999E-4</v>
+      </c>
+      <c r="K1">
+        <v>-1.07058E-3</v>
+      </c>
+      <c r="L1">
+        <v>-3.8406899999999999E-3</v>
+      </c>
+      <c r="M1">
+        <v>1.5777E-3</v>
+      </c>
+      <c r="N1">
+        <v>8.0002000000000003E-4</v>
+      </c>
+      <c r="O1">
+        <v>2.09633E-3</v>
+      </c>
+      <c r="P1">
+        <v>1.10114E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>-2.5432E-5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.6899900000000005E-8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.3250499999999999E-6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1.03803E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-2.0867900000000001E-5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.71112E-5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-8.8062300000000003E-10</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.1522399999999999E-6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.14276E-6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.49954E-6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>3.7991199999999999E-6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9.1982499999999996E-6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>8.2903500000000004E-7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>1.5432399999999999E-6</v>
+      </c>
+      <c r="O2" s="1">
+        <v>4.2189900000000001E-7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.01814E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>-5.8109399999999997E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.3250499999999999E-6</v>
+      </c>
+      <c r="C3">
+        <v>1.5633600000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>-3.1318100000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>2.6195300000000001E-3</v>
+      </c>
+      <c r="F3">
+        <v>-1.17419E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>1.13916E-6</v>
+      </c>
+      <c r="H3">
+        <v>-1.57384E-3</v>
+      </c>
+      <c r="I3">
+        <v>-1.3930800000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>-1.8692699999999999E-3</v>
+      </c>
+      <c r="K3">
+        <v>-1.66453E-3</v>
+      </c>
+      <c r="L3">
+        <v>-2.5810300000000002E-3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-6.6874900000000006E-5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>6.9795799999999993E-5</v>
+      </c>
+      <c r="O3">
+        <v>-5.44021E-4</v>
+      </c>
+      <c r="P3">
+        <v>-1.9838E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>-4.1449999999999999E-4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1.03803E-5</v>
+      </c>
+      <c r="C4">
+        <v>-3.1318100000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.7015200000000001E-2</v>
+      </c>
+      <c r="E4">
+        <v>3.8890399999999999E-3</v>
+      </c>
+      <c r="F4">
+        <v>-8.4598799999999995E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.06495E-7</v>
+      </c>
+      <c r="H4">
+        <v>-1.2838700000000001E-3</v>
+      </c>
+      <c r="I4">
+        <v>-9.2535399999999998E-4</v>
+      </c>
+      <c r="J4">
+        <v>1.3882200000000001E-4</v>
+      </c>
+      <c r="K4">
+        <v>-2.17891E-4</v>
+      </c>
+      <c r="L4">
+        <v>-2.0746900000000001E-3</v>
+      </c>
+      <c r="M4">
+        <v>-2.18688E-4</v>
+      </c>
+      <c r="N4">
+        <v>2.8410499999999999E-4</v>
+      </c>
+      <c r="O4">
+        <v>-1.0081700000000001E-3</v>
+      </c>
+      <c r="P4">
+        <v>7.2562500000000003E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3.7996699999999998E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-2.0867900000000001E-5</v>
+      </c>
+      <c r="C5">
+        <v>2.6195300000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>3.8890399999999999E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.142341</v>
+      </c>
+      <c r="F5">
+        <v>-0.184692</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1.8913700000000002E-5</v>
+      </c>
+      <c r="H5">
+        <v>-2.78909E-2</v>
+      </c>
+      <c r="I5">
+        <v>-2.9527899999999999E-2</v>
+      </c>
+      <c r="J5">
+        <v>-2.8943199999999999E-2</v>
+      </c>
+      <c r="K5">
+        <v>-3.0814299999999999E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.63649E-2</v>
+      </c>
+      <c r="M5">
+        <v>-4.5515900000000003E-3</v>
+      </c>
+      <c r="N5">
+        <v>-1.12689E-2</v>
+      </c>
+      <c r="O5">
+        <v>-7.0545499999999997E-3</v>
+      </c>
+      <c r="P5">
+        <v>-1.26019E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>-5.79891E-3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.71112E-5</v>
+      </c>
+      <c r="C6">
+        <v>-1.17419E-2</v>
+      </c>
+      <c r="D6">
+        <v>-8.4598799999999995E-3</v>
+      </c>
+      <c r="E6">
+        <v>-0.184692</v>
+      </c>
+      <c r="F6">
+        <v>0.37279499999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-4.4708900000000002E-5</v>
+      </c>
+      <c r="H6">
+        <v>1.33574E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.7600500000000002E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.36385E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.4682000000000001E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.64101E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.5102399999999999E-3</v>
+      </c>
+      <c r="N6">
+        <v>1.3786500000000001E-4</v>
+      </c>
+      <c r="O6">
+        <v>3.1037399999999998E-3</v>
+      </c>
+      <c r="P6">
+        <v>2.1443299999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>-1.8665E-6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-8.8062300000000003E-10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1.13916E-6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.06495E-7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-1.8913700000000002E-5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-4.4708900000000002E-5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>8.9564299999999997E-8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1.40011E-6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-4.4295499999999998E-6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-6.4002300000000001E-7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.5746600000000001E-6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1.1395399999999999E-5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-9.7729500000000002E-7</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.2557900000000001E-6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.2296499999999999E-6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-2.66026E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1.4371500000000001E-3</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.1522399999999999E-6</v>
+      </c>
+      <c r="C8">
+        <v>-1.57384E-3</v>
+      </c>
+      <c r="D8">
+        <v>-1.2838700000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>-2.78909E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.33574E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1.40011E-6</v>
+      </c>
+      <c r="H8">
+        <v>2.81281E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.19793E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.1592699999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.1505E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.2298999999999999E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.3207400000000001E-4</v>
+      </c>
+      <c r="N8">
+        <v>2.9723900000000001E-3</v>
+      </c>
+      <c r="O8">
+        <v>1.17545E-4</v>
+      </c>
+      <c r="P8">
+        <v>1.3260400000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>-1.0789700000000001E-3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.14276E-6</v>
+      </c>
+      <c r="C9">
+        <v>-1.3930800000000001E-3</v>
+      </c>
+      <c r="D9">
+        <v>-9.2535399999999998E-4</v>
+      </c>
+      <c r="E9">
+        <v>-2.9527899999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.7600500000000002E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-4.4295499999999998E-6</v>
+      </c>
+      <c r="H9">
+        <v>2.19793E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.7545099999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.3860300000000001E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.3240799999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.5082799999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>-3.38733E-3</v>
+      </c>
+      <c r="N9">
+        <v>5.7285499999999998E-3</v>
+      </c>
+      <c r="O9">
+        <v>-1.7032600000000001E-3</v>
+      </c>
+      <c r="P9">
+        <v>3.1881699999999999E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>-2.3840999999999999E-4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.49954E-6</v>
+      </c>
+      <c r="C10">
+        <v>-1.8692699999999999E-3</v>
+      </c>
+      <c r="D10">
+        <v>1.3882200000000001E-4</v>
+      </c>
+      <c r="E10">
+        <v>-2.8943199999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.36385E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-6.4002300000000001E-7</v>
+      </c>
+      <c r="H10">
+        <v>2.1592699999999999E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.3860300000000001E-2</v>
+      </c>
+      <c r="J10">
+        <v>2.8683199999999999E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.27084E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.3747999999999998E-2</v>
+      </c>
+      <c r="M10">
+        <v>-2.0675300000000001E-3</v>
+      </c>
+      <c r="N10">
+        <v>5.2286399999999997E-3</v>
+      </c>
+      <c r="O10">
+        <v>-9.8357200000000005E-4</v>
+      </c>
+      <c r="P10">
+        <v>4.5578399999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>-1.07058E-3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.7991199999999999E-6</v>
+      </c>
+      <c r="C11">
+        <v>-1.66453E-3</v>
+      </c>
+      <c r="D11">
+        <v>-2.17891E-4</v>
+      </c>
+      <c r="E11">
+        <v>-3.0814299999999999E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.4682000000000001E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.5746600000000001E-6</v>
+      </c>
+      <c r="H11">
+        <v>2.1505E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.3240799999999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.27084E-2</v>
+      </c>
+      <c r="K11">
+        <v>3.0991899999999999E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.31437E-2</v>
+      </c>
+      <c r="M11">
+        <v>-1.1362200000000001E-3</v>
+      </c>
+      <c r="N11">
+        <v>4.5483700000000004E-3</v>
+      </c>
+      <c r="O11">
+        <v>-8.5525599999999998E-4</v>
+      </c>
+      <c r="P11">
+        <v>3.4800199999999998E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>-3.8406899999999999E-3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.1982499999999996E-6</v>
+      </c>
+      <c r="C12">
+        <v>-2.5810300000000002E-3</v>
+      </c>
+      <c r="D12">
+        <v>-2.0746900000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>-2.63649E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.64101E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1.1395399999999999E-5</v>
+      </c>
+      <c r="H12">
+        <v>2.2298999999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.5082799999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.3747999999999998E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.31437E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.113453</v>
+      </c>
+      <c r="M12">
+        <v>-1.5044800000000001E-3</v>
+      </c>
+      <c r="N12">
+        <v>6.3344300000000003E-3</v>
+      </c>
+      <c r="O12">
+        <v>-9.3996900000000003E-4</v>
+      </c>
+      <c r="P12">
+        <v>3.9857800000000002E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1.5777E-3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>8.2903500000000004E-7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-6.6874900000000006E-5</v>
+      </c>
+      <c r="D13">
+        <v>-2.18688E-4</v>
+      </c>
+      <c r="E13">
+        <v>-4.5515900000000003E-3</v>
+      </c>
+      <c r="F13">
+        <v>1.5102399999999999E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-9.7729500000000002E-7</v>
+      </c>
+      <c r="H13">
+        <v>1.3207400000000001E-4</v>
+      </c>
+      <c r="I13">
+        <v>-3.38733E-3</v>
+      </c>
+      <c r="J13">
+        <v>-2.0675300000000001E-3</v>
+      </c>
+      <c r="K13">
+        <v>-1.1362200000000001E-3</v>
+      </c>
+      <c r="L13">
+        <v>-1.5044800000000001E-3</v>
+      </c>
+      <c r="M13">
+        <v>1.4841200000000001E-2</v>
+      </c>
+      <c r="N13">
+        <v>4.3908000000000003E-3</v>
+      </c>
+      <c r="O13">
+        <v>6.2009300000000003E-3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-4.2766299999999997E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>8.0002000000000003E-4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1.5432399999999999E-6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.9795799999999993E-5</v>
+      </c>
+      <c r="D14">
+        <v>2.8410499999999999E-4</v>
+      </c>
+      <c r="E14">
+        <v>-1.12689E-2</v>
+      </c>
+      <c r="F14">
+        <v>1.3786500000000001E-4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.2557900000000001E-6</v>
+      </c>
+      <c r="H14">
+        <v>2.9723900000000001E-3</v>
+      </c>
+      <c r="I14">
+        <v>5.7285499999999998E-3</v>
+      </c>
+      <c r="J14">
+        <v>5.2286399999999997E-3</v>
+      </c>
+      <c r="K14">
+        <v>4.5483700000000004E-3</v>
+      </c>
+      <c r="L14">
+        <v>6.3344300000000003E-3</v>
+      </c>
+      <c r="M14">
+        <v>4.3908000000000003E-3</v>
+      </c>
+      <c r="N14">
+        <v>1.7766799999999999E-2</v>
+      </c>
+      <c r="O14">
+        <v>4.9852100000000003E-3</v>
+      </c>
+      <c r="P14">
+        <v>2.2514400000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2.09633E-3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>4.2189900000000001E-7</v>
+      </c>
+      <c r="C15">
+        <v>-5.44021E-4</v>
+      </c>
+      <c r="D15">
+        <v>-1.0081700000000001E-3</v>
+      </c>
+      <c r="E15">
+        <v>-7.0545499999999997E-3</v>
+      </c>
+      <c r="F15">
+        <v>3.1037399999999998E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.2296499999999999E-6</v>
+      </c>
+      <c r="H15">
+        <v>1.17545E-4</v>
+      </c>
+      <c r="I15">
+        <v>-1.7032600000000001E-3</v>
+      </c>
+      <c r="J15">
+        <v>-9.8357200000000005E-4</v>
+      </c>
+      <c r="K15">
+        <v>-8.5525599999999998E-4</v>
+      </c>
+      <c r="L15">
+        <v>-9.3996900000000003E-4</v>
+      </c>
+      <c r="M15">
+        <v>6.2009300000000003E-3</v>
+      </c>
+      <c r="N15">
+        <v>4.9852100000000003E-3</v>
+      </c>
+      <c r="O15">
+        <v>8.0716799999999995E-3</v>
+      </c>
+      <c r="P15">
+        <v>1.24342E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1.10114E-3</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.01814E-7</v>
+      </c>
+      <c r="C16">
+        <v>-1.9838E-3</v>
+      </c>
+      <c r="D16">
+        <v>7.2562500000000003E-4</v>
+      </c>
+      <c r="E16">
+        <v>-1.26019E-3</v>
+      </c>
+      <c r="F16">
+        <v>2.1443299999999998E-3</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-2.66026E-7</v>
+      </c>
+      <c r="H16">
+        <v>1.3260400000000001E-4</v>
+      </c>
+      <c r="I16">
+        <v>3.1881699999999999E-4</v>
+      </c>
+      <c r="J16">
+        <v>4.5578399999999999E-4</v>
+      </c>
+      <c r="K16">
+        <v>3.4800199999999998E-4</v>
+      </c>
+      <c r="L16">
+        <v>3.9857800000000002E-4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-4.2766299999999997E-5</v>
+      </c>
+      <c r="N16">
+        <v>2.2514400000000001E-4</v>
+      </c>
+      <c r="O16">
+        <v>1.24342E-4</v>
+      </c>
+      <c r="P16">
+        <v>7.0892800000000005E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
+      <c r="G17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/varcovRECORDS.xlsx
+++ b/data/varcovRECORDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F5DCB3F-5F50-4495-B6AE-8EF563C0F4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99FC7D5-51C8-47DE-950E-8244B6BA697D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="7" activeTab="12" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="8" activeTab="13" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="0414" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="Sheet10" sheetId="11" r:id="rId11"/>
     <sheet name="Sheet7" sheetId="12" r:id="rId12"/>
     <sheet name="0418origin" sheetId="13" r:id="rId13"/>
+    <sheet name="0421" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -4998,7 +4999,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBE1EA4B-56A8-42B8-A842-1A3FCBC0F705}">
   <dimension ref="A1:P17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
@@ -5807,6 +5808,1396 @@
     <row r="17" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B17" s="1"/>
       <c r="G17" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB669815-4C82-4E86-A43F-7779297F2E92}">
+  <dimension ref="A1:V22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>4.8384000000000003E-2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-2.6397000000000002E-5</v>
+      </c>
+      <c r="C1">
+        <v>-4.87705E-3</v>
+      </c>
+      <c r="D1">
+        <v>6.6219200000000003E-4</v>
+      </c>
+      <c r="E1">
+        <v>3.2339999999999999E-3</v>
+      </c>
+      <c r="F1">
+        <v>-8.1296000000000007E-3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>3.57179E-6</v>
+      </c>
+      <c r="H1">
+        <v>6.4125800000000002E-4</v>
+      </c>
+      <c r="I1">
+        <v>-1.8184399999999999E-3</v>
+      </c>
+      <c r="J1">
+        <v>-1.2647400000000001E-4</v>
+      </c>
+      <c r="K1">
+        <v>-1.0505099999999999E-3</v>
+      </c>
+      <c r="L1">
+        <v>-6.0565300000000001E-3</v>
+      </c>
+      <c r="M1">
+        <v>1.1562899999999999E-3</v>
+      </c>
+      <c r="N1">
+        <v>5.7274099999999998E-4</v>
+      </c>
+      <c r="O1">
+        <v>1.7585999999999999E-3</v>
+      </c>
+      <c r="P1" s="1">
+        <v>4.4505300000000002E-5</v>
+      </c>
+      <c r="Q1">
+        <v>-2.2333699999999999E-4</v>
+      </c>
+      <c r="R1">
+        <v>-7.1697600000000003E-4</v>
+      </c>
+      <c r="S1">
+        <v>3.35411E-3</v>
+      </c>
+      <c r="T1">
+        <v>-1.1920399999999999E-3</v>
+      </c>
+      <c r="U1">
+        <v>9.8787599999999995E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>-2.6397000000000002E-5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>6.9498200000000002E-8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.4867300000000001E-6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-1.12288E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-2.2960999999999999E-5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.9894800000000001E-5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-3.9949400000000003E-9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3.6979300000000002E-6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.1624599999999999E-6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>2.41154E-6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.9148300000000003E-6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.5418599999999998E-5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.3431300000000001E-6</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2.0289600000000001E-6</v>
+      </c>
+      <c r="O2" s="1">
+        <v>9.4040899999999996E-7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2.8684200000000001E-6</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2.6327400000000001E-6</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4.4979300000000001E-6</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-1.2686199999999999E-6</v>
+      </c>
+      <c r="T2" s="1">
+        <v>3.67925E-6</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.80311E-8</v>
+      </c>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>-4.87705E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.4867300000000001E-6</v>
+      </c>
+      <c r="C3">
+        <v>1.4997399999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>-2.4451999999999998E-3</v>
+      </c>
+      <c r="E3">
+        <v>3.3018399999999999E-3</v>
+      </c>
+      <c r="F3">
+        <v>-1.1495200000000001E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5.9843199999999999E-7</v>
+      </c>
+      <c r="H3">
+        <v>-1.7156700000000001E-3</v>
+      </c>
+      <c r="I3">
+        <v>-2.0564200000000002E-3</v>
+      </c>
+      <c r="J3">
+        <v>-2.3498E-3</v>
+      </c>
+      <c r="K3">
+        <v>-1.90307E-3</v>
+      </c>
+      <c r="L3">
+        <v>-2.6818900000000001E-3</v>
+      </c>
+      <c r="M3">
+        <v>-1.66825E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-8.3538300000000006E-5</v>
+      </c>
+      <c r="O3">
+        <v>-6.8377900000000003E-4</v>
+      </c>
+      <c r="P3">
+        <v>6.9775999999999996E-4</v>
+      </c>
+      <c r="Q3">
+        <v>-1.5671299999999999E-3</v>
+      </c>
+      <c r="R3">
+        <v>-1.2174899999999999E-3</v>
+      </c>
+      <c r="S3">
+        <v>-1.97336E-3</v>
+      </c>
+      <c r="T3">
+        <v>-3.4130400000000001E-4</v>
+      </c>
+      <c r="U3">
+        <v>-1.9727799999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>6.6219200000000003E-4</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-1.12288E-5</v>
+      </c>
+      <c r="C4">
+        <v>-2.4451999999999998E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.6298099999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.1439500000000004E-3</v>
+      </c>
+      <c r="F4">
+        <v>-1.0110600000000001E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.841E-6</v>
+      </c>
+      <c r="H4">
+        <v>-1.4741000000000001E-3</v>
+      </c>
+      <c r="I4">
+        <v>-1.4067000000000001E-3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.5478800000000001E-6</v>
+      </c>
+      <c r="K4">
+        <v>-5.0504399999999996E-4</v>
+      </c>
+      <c r="L4">
+        <v>-4.1646399999999998E-3</v>
+      </c>
+      <c r="M4">
+        <v>-1.29376E-4</v>
+      </c>
+      <c r="N4">
+        <v>6.5220800000000004E-4</v>
+      </c>
+      <c r="O4">
+        <v>-9.8029200000000001E-4</v>
+      </c>
+      <c r="P4">
+        <v>-2.9224600000000002E-4</v>
+      </c>
+      <c r="Q4">
+        <v>-1.09972E-3</v>
+      </c>
+      <c r="R4">
+        <v>-1.2562999999999999E-3</v>
+      </c>
+      <c r="S4">
+        <v>-3.5994400000000001E-4</v>
+      </c>
+      <c r="T4">
+        <v>8.5664699999999999E-4</v>
+      </c>
+      <c r="U4">
+        <v>6.9375700000000003E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3.2339999999999999E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-2.2960999999999999E-5</v>
+      </c>
+      <c r="C5">
+        <v>3.3018399999999999E-3</v>
+      </c>
+      <c r="D5">
+        <v>4.1439500000000004E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.15972600000000001</v>
+      </c>
+      <c r="F5">
+        <v>-0.197853</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-3.1683100000000002E-5</v>
+      </c>
+      <c r="H5">
+        <v>-2.7406699999999999E-2</v>
+      </c>
+      <c r="I5">
+        <v>-3.3538900000000003E-2</v>
+      </c>
+      <c r="J5">
+        <v>-2.82705E-2</v>
+      </c>
+      <c r="K5">
+        <v>-3.0869500000000001E-2</v>
+      </c>
+      <c r="L5">
+        <v>-3.4211100000000001E-2</v>
+      </c>
+      <c r="M5">
+        <v>-6.1304000000000003E-3</v>
+      </c>
+      <c r="N5">
+        <v>-1.24516E-2</v>
+      </c>
+      <c r="O5">
+        <v>-9.9735199999999996E-3</v>
+      </c>
+      <c r="P5">
+        <v>2.6794900000000001E-3</v>
+      </c>
+      <c r="Q5">
+        <v>-1.20313E-2</v>
+      </c>
+      <c r="R5">
+        <v>-3.3306099999999999E-3</v>
+      </c>
+      <c r="S5">
+        <v>-7.1257899999999999E-3</v>
+      </c>
+      <c r="T5">
+        <v>-5.8623800000000004E-3</v>
+      </c>
+      <c r="U5">
+        <v>-1.4610199999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>-8.1296000000000007E-3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.9894800000000001E-5</v>
+      </c>
+      <c r="C6">
+        <v>-1.1495200000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>-1.0110600000000001E-2</v>
+      </c>
+      <c r="E6">
+        <v>-0.197853</v>
+      </c>
+      <c r="F6">
+        <v>0.40724900000000003</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-4.7633100000000003E-5</v>
+      </c>
+      <c r="H6">
+        <v>8.5043400000000009E-3</v>
+      </c>
+      <c r="I6">
+        <v>1.6031900000000002E-2</v>
+      </c>
+      <c r="J6">
+        <v>8.5680800000000005E-3</v>
+      </c>
+      <c r="K6">
+        <v>9.5289199999999998E-3</v>
+      </c>
+      <c r="L6">
+        <v>1.46599E-2</v>
+      </c>
+      <c r="M6">
+        <v>-2.1202600000000001E-4</v>
+      </c>
+      <c r="N6">
+        <v>-2.98876E-4</v>
+      </c>
+      <c r="O6">
+        <v>3.0299400000000001E-3</v>
+      </c>
+      <c r="P6">
+        <v>7.3647899999999995E-4</v>
+      </c>
+      <c r="Q6">
+        <v>7.0177099999999999E-3</v>
+      </c>
+      <c r="R6">
+        <v>-1.1438200000000001E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.6178499999999998E-2</v>
+      </c>
+      <c r="T6">
+        <v>7.5071000000000001E-3</v>
+      </c>
+      <c r="U6">
+        <v>2.1840200000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>3.57179E-6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-3.9949400000000003E-9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>5.9843199999999999E-7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.841E-6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-3.1683100000000002E-5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-4.7633100000000003E-5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.07498E-7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1.41338E-6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-2.1151400000000001E-6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-1.2609300000000001E-6</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.90474E-6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-4.6449600000000002E-6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3.2301000000000002E-6</v>
+      </c>
+      <c r="N7" s="1">
+        <v>3.3266E-6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6.3035300000000003E-6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-5.2653399999999996E-6</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.0234899999999999E-5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5.92816E-6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-5.7050499999999997E-6</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2.9928899999999999E-6</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-9.2884199999999997E-8</v>
+      </c>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>6.4125800000000002E-4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.6979300000000002E-6</v>
+      </c>
+      <c r="C8">
+        <v>-1.7156700000000001E-3</v>
+      </c>
+      <c r="D8">
+        <v>-1.4741000000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>-2.7406699999999999E-2</v>
+      </c>
+      <c r="F8">
+        <v>8.5043400000000009E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1.41338E-6</v>
+      </c>
+      <c r="H8">
+        <v>3.0169999999999999E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.4430299999999999E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.3969799999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.3896400000000002E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.5358700000000001E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.2318299999999999E-4</v>
+      </c>
+      <c r="N8">
+        <v>3.1654999999999999E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>8.6079899999999996E-5</v>
+      </c>
+      <c r="P8">
+        <v>9.2742900000000001E-4</v>
+      </c>
+      <c r="Q8">
+        <v>1.10783E-4</v>
+      </c>
+      <c r="R8">
+        <v>5.8333899999999999E-3</v>
+      </c>
+      <c r="S8">
+        <v>5.0310399999999999E-4</v>
+      </c>
+      <c r="T8">
+        <v>-1.5665E-3</v>
+      </c>
+      <c r="U8">
+        <v>1.5043000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>-1.8184399999999999E-3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.1624599999999999E-6</v>
+      </c>
+      <c r="C9">
+        <v>-2.0564200000000002E-3</v>
+      </c>
+      <c r="D9">
+        <v>-1.4067000000000001E-3</v>
+      </c>
+      <c r="E9">
+        <v>-3.3538900000000003E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.6031900000000002E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-2.1151400000000001E-6</v>
+      </c>
+      <c r="H9">
+        <v>2.4430299999999999E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.1324299999999999E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.6564399999999998E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.5835E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.1510999999999997E-2</v>
+      </c>
+      <c r="M9">
+        <v>-2.2272300000000002E-3</v>
+      </c>
+      <c r="N9">
+        <v>5.8715800000000004E-3</v>
+      </c>
+      <c r="O9">
+        <v>-1.0287E-3</v>
+      </c>
+      <c r="P9">
+        <v>-1.88111E-4</v>
+      </c>
+      <c r="Q9">
+        <v>4.5309900000000004E-3</v>
+      </c>
+      <c r="R9">
+        <v>6.5954000000000004E-3</v>
+      </c>
+      <c r="S9">
+        <v>1.712E-3</v>
+      </c>
+      <c r="T9">
+        <v>-2.7423900000000001E-4</v>
+      </c>
+      <c r="U9">
+        <v>3.9514599999999997E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>-1.2647400000000001E-4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.41154E-6</v>
+      </c>
+      <c r="C10">
+        <v>-2.3498E-3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.5478800000000001E-6</v>
+      </c>
+      <c r="E10">
+        <v>-2.82705E-2</v>
+      </c>
+      <c r="F10">
+        <v>8.5680800000000005E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-1.2609300000000001E-6</v>
+      </c>
+      <c r="H10">
+        <v>2.3969799999999999E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.6564399999999998E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.1244000000000001E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.5059000000000001E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.73639E-2</v>
+      </c>
+      <c r="M10">
+        <v>-2.36812E-3</v>
+      </c>
+      <c r="N10">
+        <v>4.8669899999999999E-3</v>
+      </c>
+      <c r="O10">
+        <v>-1.07285E-3</v>
+      </c>
+      <c r="P10">
+        <v>7.6058899999999999E-4</v>
+      </c>
+      <c r="Q10">
+        <v>1.11465E-3</v>
+      </c>
+      <c r="R10">
+        <v>6.3131699999999999E-3</v>
+      </c>
+      <c r="S10">
+        <v>2.80679E-3</v>
+      </c>
+      <c r="T10">
+        <v>-2.3993999999999999E-3</v>
+      </c>
+      <c r="U10">
+        <v>5.0250399999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>-1.0505099999999999E-3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.9148300000000003E-6</v>
+      </c>
+      <c r="C11">
+        <v>-1.90307E-3</v>
+      </c>
+      <c r="D11">
+        <v>-5.0504399999999996E-4</v>
+      </c>
+      <c r="E11">
+        <v>-3.0869500000000001E-2</v>
+      </c>
+      <c r="F11">
+        <v>9.5289199999999998E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.90474E-6</v>
+      </c>
+      <c r="H11">
+        <v>2.3896400000000002E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.5835E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.5059000000000001E-2</v>
+      </c>
+      <c r="K11">
+        <v>3.4392800000000001E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.6693000000000001E-2</v>
+      </c>
+      <c r="M11">
+        <v>-6.9446500000000001E-4</v>
+      </c>
+      <c r="N11">
+        <v>4.9717299999999997E-3</v>
+      </c>
+      <c r="O11">
+        <v>-3.0171100000000003E-4</v>
+      </c>
+      <c r="P11">
+        <v>2.1412200000000001E-3</v>
+      </c>
+      <c r="Q11">
+        <v>6.0923499999999996E-4</v>
+      </c>
+      <c r="R11">
+        <v>5.4784400000000002E-3</v>
+      </c>
+      <c r="S11">
+        <v>-2.67928E-3</v>
+      </c>
+      <c r="T11">
+        <v>-5.7079199999999998E-4</v>
+      </c>
+      <c r="U11">
+        <v>3.0117700000000002E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>-6.0565300000000001E-3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.5418599999999998E-5</v>
+      </c>
+      <c r="C12">
+        <v>-2.6818900000000001E-3</v>
+      </c>
+      <c r="D12">
+        <v>-4.1646399999999998E-3</v>
+      </c>
+      <c r="E12">
+        <v>-3.4211100000000001E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.46599E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-4.6449600000000002E-6</v>
+      </c>
+      <c r="H12">
+        <v>2.5358700000000001E-2</v>
+      </c>
+      <c r="I12">
+        <v>3.1510999999999997E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.73639E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.6693000000000001E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.14711199999999999</v>
+      </c>
+      <c r="M12">
+        <v>-3.65421E-4</v>
+      </c>
+      <c r="N12">
+        <v>5.8323799999999999E-3</v>
+      </c>
+      <c r="O12">
+        <v>-7.4814E-4</v>
+      </c>
+      <c r="P12">
+        <v>-1.56073E-3</v>
+      </c>
+      <c r="Q12">
+        <v>9.2720000000000007E-3</v>
+      </c>
+      <c r="R12">
+        <v>9.9714699999999996E-3</v>
+      </c>
+      <c r="S12">
+        <v>-3.3004300000000002E-4</v>
+      </c>
+      <c r="T12">
+        <v>1.6841E-3</v>
+      </c>
+      <c r="U12">
+        <v>3.4490900000000001E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1.1562899999999999E-3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.3431300000000001E-6</v>
+      </c>
+      <c r="C13">
+        <v>-1.66825E-4</v>
+      </c>
+      <c r="D13">
+        <v>-1.29376E-4</v>
+      </c>
+      <c r="E13">
+        <v>-6.1304000000000003E-3</v>
+      </c>
+      <c r="F13">
+        <v>-2.1202600000000001E-4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>3.2301000000000002E-6</v>
+      </c>
+      <c r="H13">
+        <v>1.2318299999999999E-4</v>
+      </c>
+      <c r="I13">
+        <v>-2.2272300000000002E-3</v>
+      </c>
+      <c r="J13">
+        <v>-2.36812E-3</v>
+      </c>
+      <c r="K13">
+        <v>-6.9446500000000001E-4</v>
+      </c>
+      <c r="L13">
+        <v>-3.65421E-4</v>
+      </c>
+      <c r="M13">
+        <v>1.4440700000000001E-2</v>
+      </c>
+      <c r="N13">
+        <v>4.4919900000000004E-3</v>
+      </c>
+      <c r="O13">
+        <v>6.1381300000000003E-3</v>
+      </c>
+      <c r="P13">
+        <v>1.3798E-4</v>
+      </c>
+      <c r="Q13">
+        <v>1.2627300000000001E-3</v>
+      </c>
+      <c r="R13">
+        <v>9.1146300000000005E-4</v>
+      </c>
+      <c r="S13">
+        <v>-1.9238599999999999E-3</v>
+      </c>
+      <c r="T13">
+        <v>3.8947500000000002E-4</v>
+      </c>
+      <c r="U13" s="1">
+        <v>-4.6978199999999997E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>5.7274099999999998E-4</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2.0289600000000001E-6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-8.3538300000000006E-5</v>
+      </c>
+      <c r="D14">
+        <v>6.5220800000000004E-4</v>
+      </c>
+      <c r="E14">
+        <v>-1.24516E-2</v>
+      </c>
+      <c r="F14">
+        <v>-2.98876E-4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.3266E-6</v>
+      </c>
+      <c r="H14">
+        <v>3.1654999999999999E-3</v>
+      </c>
+      <c r="I14">
+        <v>5.8715800000000004E-3</v>
+      </c>
+      <c r="J14">
+        <v>4.8669899999999999E-3</v>
+      </c>
+      <c r="K14">
+        <v>4.9717299999999997E-3</v>
+      </c>
+      <c r="L14">
+        <v>5.8323799999999999E-3</v>
+      </c>
+      <c r="M14">
+        <v>4.4919900000000004E-3</v>
+      </c>
+      <c r="N14">
+        <v>1.8001699999999999E-2</v>
+      </c>
+      <c r="O14">
+        <v>4.9549099999999999E-3</v>
+      </c>
+      <c r="P14">
+        <v>6.8312799999999997E-4</v>
+      </c>
+      <c r="Q14">
+        <v>5.7011500000000005E-4</v>
+      </c>
+      <c r="R14">
+        <v>-2.1975800000000002E-3</v>
+      </c>
+      <c r="S14">
+        <v>2.6507499999999999E-3</v>
+      </c>
+      <c r="T14" s="1">
+        <v>1.3687399999999999E-4</v>
+      </c>
+      <c r="U14">
+        <v>2.90554E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1.7585999999999999E-3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>9.4040899999999996E-7</v>
+      </c>
+      <c r="C15">
+        <v>-6.8377900000000003E-4</v>
+      </c>
+      <c r="D15">
+        <v>-9.8029200000000001E-4</v>
+      </c>
+      <c r="E15">
+        <v>-9.9735199999999996E-3</v>
+      </c>
+      <c r="F15">
+        <v>3.0299400000000001E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6.3035300000000003E-6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>8.6079899999999996E-5</v>
+      </c>
+      <c r="I15">
+        <v>-1.0287E-3</v>
+      </c>
+      <c r="J15">
+        <v>-1.07285E-3</v>
+      </c>
+      <c r="K15">
+        <v>-3.0171100000000003E-4</v>
+      </c>
+      <c r="L15">
+        <v>-7.4814E-4</v>
+      </c>
+      <c r="M15">
+        <v>6.1381300000000003E-3</v>
+      </c>
+      <c r="N15">
+        <v>4.9549099999999999E-3</v>
+      </c>
+      <c r="O15">
+        <v>8.4063799999999998E-3</v>
+      </c>
+      <c r="P15">
+        <v>-9.25913E-4</v>
+      </c>
+      <c r="Q15">
+        <v>7.76923E-4</v>
+      </c>
+      <c r="R15">
+        <v>2.0864E-3</v>
+      </c>
+      <c r="S15">
+        <v>-2.0398E-3</v>
+      </c>
+      <c r="T15">
+        <v>7.4534899999999997E-4</v>
+      </c>
+      <c r="U15">
+        <v>1.7846999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>4.4505300000000002E-5</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.8684200000000001E-6</v>
+      </c>
+      <c r="C16">
+        <v>6.9775999999999996E-4</v>
+      </c>
+      <c r="D16">
+        <v>-2.9224600000000002E-4</v>
+      </c>
+      <c r="E16">
+        <v>2.6794900000000001E-3</v>
+      </c>
+      <c r="F16">
+        <v>7.3647899999999995E-4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-5.2653399999999996E-6</v>
+      </c>
+      <c r="H16">
+        <v>9.2742900000000001E-4</v>
+      </c>
+      <c r="I16">
+        <v>-1.88111E-4</v>
+      </c>
+      <c r="J16">
+        <v>7.6058899999999999E-4</v>
+      </c>
+      <c r="K16">
+        <v>2.1412200000000001E-3</v>
+      </c>
+      <c r="L16">
+        <v>-1.56073E-3</v>
+      </c>
+      <c r="M16">
+        <v>1.3798E-4</v>
+      </c>
+      <c r="N16">
+        <v>6.8312799999999997E-4</v>
+      </c>
+      <c r="O16">
+        <v>-9.25913E-4</v>
+      </c>
+      <c r="P16">
+        <v>1.6602499999999999E-2</v>
+      </c>
+      <c r="Q16">
+        <v>-1.5517899999999999E-3</v>
+      </c>
+      <c r="R16">
+        <v>-7.4861099999999998E-3</v>
+      </c>
+      <c r="S16">
+        <v>-9.1003000000000004E-3</v>
+      </c>
+      <c r="T16">
+        <v>9.5489399999999997E-4</v>
+      </c>
+      <c r="U16">
+        <v>-3.0413899999999998E-4</v>
+      </c>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>-2.2333699999999999E-4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.6327400000000001E-6</v>
+      </c>
+      <c r="C17">
+        <v>-1.5671299999999999E-3</v>
+      </c>
+      <c r="D17">
+        <v>-1.09972E-3</v>
+      </c>
+      <c r="E17">
+        <v>-1.20313E-2</v>
+      </c>
+      <c r="F17">
+        <v>7.0177099999999999E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.0234899999999999E-5</v>
+      </c>
+      <c r="H17">
+        <v>1.10783E-4</v>
+      </c>
+      <c r="I17">
+        <v>4.5309900000000004E-3</v>
+      </c>
+      <c r="J17">
+        <v>1.11465E-3</v>
+      </c>
+      <c r="K17">
+        <v>6.0923499999999996E-4</v>
+      </c>
+      <c r="L17">
+        <v>9.2720000000000007E-3</v>
+      </c>
+      <c r="M17">
+        <v>1.2627300000000001E-3</v>
+      </c>
+      <c r="N17">
+        <v>5.7011500000000005E-4</v>
+      </c>
+      <c r="O17">
+        <v>7.76923E-4</v>
+      </c>
+      <c r="P17">
+        <v>-1.5517899999999999E-3</v>
+      </c>
+      <c r="Q17">
+        <v>1.39274E-2</v>
+      </c>
+      <c r="R17">
+        <v>-1.74741E-3</v>
+      </c>
+      <c r="S17">
+        <v>5.27181E-3</v>
+      </c>
+      <c r="T17">
+        <v>1.85608E-4</v>
+      </c>
+      <c r="U17">
+        <v>2.4564600000000003E-4</v>
+      </c>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>-7.1697600000000003E-4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.4979300000000001E-6</v>
+      </c>
+      <c r="C18">
+        <v>-1.2174899999999999E-3</v>
+      </c>
+      <c r="D18">
+        <v>-1.2562999999999999E-3</v>
+      </c>
+      <c r="E18">
+        <v>-3.3306099999999999E-3</v>
+      </c>
+      <c r="F18">
+        <v>-1.1438200000000001E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5.92816E-6</v>
+      </c>
+      <c r="H18">
+        <v>5.8333899999999999E-3</v>
+      </c>
+      <c r="I18">
+        <v>6.5954000000000004E-3</v>
+      </c>
+      <c r="J18">
+        <v>6.3131699999999999E-3</v>
+      </c>
+      <c r="K18">
+        <v>5.4784400000000002E-3</v>
+      </c>
+      <c r="L18">
+        <v>9.9714699999999996E-3</v>
+      </c>
+      <c r="M18">
+        <v>9.1146300000000005E-4</v>
+      </c>
+      <c r="N18">
+        <v>-2.1975800000000002E-3</v>
+      </c>
+      <c r="O18">
+        <v>2.0864E-3</v>
+      </c>
+      <c r="P18">
+        <v>-7.4861099999999998E-3</v>
+      </c>
+      <c r="Q18">
+        <v>-1.74741E-3</v>
+      </c>
+      <c r="R18">
+        <v>4.3951299999999999E-2</v>
+      </c>
+      <c r="S18">
+        <v>3.7426199999999999E-4</v>
+      </c>
+      <c r="T18">
+        <v>-5.9840500000000003E-3</v>
+      </c>
+      <c r="U18">
+        <v>1.4674100000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>3.35411E-3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-1.2686199999999999E-6</v>
+      </c>
+      <c r="C19">
+        <v>-1.97336E-3</v>
+      </c>
+      <c r="D19">
+        <v>-3.5994400000000001E-4</v>
+      </c>
+      <c r="E19">
+        <v>-7.1257899999999999E-3</v>
+      </c>
+      <c r="F19">
+        <v>1.6178499999999998E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-5.7050499999999997E-6</v>
+      </c>
+      <c r="H19">
+        <v>5.0310399999999999E-4</v>
+      </c>
+      <c r="I19">
+        <v>1.712E-3</v>
+      </c>
+      <c r="J19">
+        <v>2.80679E-3</v>
+      </c>
+      <c r="K19">
+        <v>-2.67928E-3</v>
+      </c>
+      <c r="L19">
+        <v>-3.3004300000000002E-4</v>
+      </c>
+      <c r="M19">
+        <v>-1.9238599999999999E-3</v>
+      </c>
+      <c r="N19">
+        <v>2.6507499999999999E-3</v>
+      </c>
+      <c r="O19">
+        <v>-2.0398E-3</v>
+      </c>
+      <c r="P19">
+        <v>-9.1003000000000004E-3</v>
+      </c>
+      <c r="Q19">
+        <v>5.27181E-3</v>
+      </c>
+      <c r="R19">
+        <v>3.7426199999999999E-4</v>
+      </c>
+      <c r="S19">
+        <v>7.3044899999999996E-2</v>
+      </c>
+      <c r="T19">
+        <v>-1.45793E-2</v>
+      </c>
+      <c r="U19">
+        <v>7.5103400000000003E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>-1.1920399999999999E-3</v>
+      </c>
+      <c r="B20" s="1">
+        <v>3.67925E-6</v>
+      </c>
+      <c r="C20">
+        <v>-3.4130400000000001E-4</v>
+      </c>
+      <c r="D20">
+        <v>8.5664699999999999E-4</v>
+      </c>
+      <c r="E20">
+        <v>-5.8623800000000004E-3</v>
+      </c>
+      <c r="F20">
+        <v>7.5071000000000001E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2.9928899999999999E-6</v>
+      </c>
+      <c r="H20">
+        <v>-1.5665E-3</v>
+      </c>
+      <c r="I20">
+        <v>-2.7423900000000001E-4</v>
+      </c>
+      <c r="J20">
+        <v>-2.3993999999999999E-3</v>
+      </c>
+      <c r="K20">
+        <v>-5.7079199999999998E-4</v>
+      </c>
+      <c r="L20">
+        <v>1.6841E-3</v>
+      </c>
+      <c r="M20">
+        <v>3.8947500000000002E-4</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.3687399999999999E-4</v>
+      </c>
+      <c r="O20">
+        <v>7.4534899999999997E-4</v>
+      </c>
+      <c r="P20">
+        <v>9.5489399999999997E-4</v>
+      </c>
+      <c r="Q20">
+        <v>1.85608E-4</v>
+      </c>
+      <c r="R20">
+        <v>-5.9840500000000003E-3</v>
+      </c>
+      <c r="S20">
+        <v>-1.45793E-2</v>
+      </c>
+      <c r="T20">
+        <v>3.3919499999999998E-2</v>
+      </c>
+      <c r="U20" s="1">
+        <v>1.37599E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>9.8787599999999995E-4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.80311E-8</v>
+      </c>
+      <c r="C21">
+        <v>-1.9727799999999999E-3</v>
+      </c>
+      <c r="D21">
+        <v>6.9375700000000003E-4</v>
+      </c>
+      <c r="E21">
+        <v>-1.4610199999999999E-3</v>
+      </c>
+      <c r="F21">
+        <v>2.1840200000000001E-3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-9.2884199999999997E-8</v>
+      </c>
+      <c r="H21">
+        <v>1.5043000000000001E-4</v>
+      </c>
+      <c r="I21">
+        <v>3.9514599999999997E-4</v>
+      </c>
+      <c r="J21">
+        <v>5.0250399999999997E-4</v>
+      </c>
+      <c r="K21">
+        <v>3.0117700000000002E-4</v>
+      </c>
+      <c r="L21">
+        <v>3.4490900000000001E-4</v>
+      </c>
+      <c r="M21" s="1">
+        <v>-4.6978199999999997E-5</v>
+      </c>
+      <c r="N21">
+        <v>2.90554E-4</v>
+      </c>
+      <c r="O21">
+        <v>1.7846999999999999E-4</v>
+      </c>
+      <c r="P21">
+        <v>-3.0413899999999998E-4</v>
+      </c>
+      <c r="Q21">
+        <v>2.4564600000000003E-4</v>
+      </c>
+      <c r="R21">
+        <v>1.4674100000000001E-4</v>
+      </c>
+      <c r="S21">
+        <v>7.5103400000000003E-4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1.37599E-5</v>
+      </c>
+      <c r="U21">
+        <v>7.7028700000000003E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.45">
+      <c r="B22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/varcovRECORDS.xlsx
+++ b/data/varcovRECORDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99FC7D5-51C8-47DE-950E-8244B6BA697D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D0B648-1781-4150-A84E-764098604CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="8" activeTab="13" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="8" activeTab="15" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="0414" sheetId="1" r:id="rId1"/>
@@ -27,6 +27,8 @@
     <sheet name="Sheet7" sheetId="12" r:id="rId12"/>
     <sheet name="0418origin" sheetId="13" r:id="rId13"/>
     <sheet name="0421" sheetId="14" r:id="rId14"/>
+    <sheet name="0422" sheetId="15" r:id="rId15"/>
+    <sheet name="0422origin" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -5818,7 +5820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB669815-4C82-4E86-A43F-7779297F2E92}">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+    <sheetView topLeftCell="M1" workbookViewId="0">
       <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
@@ -7198,6 +7200,2570 @@
       <c r="G22" s="1"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C990F3C2-7811-4562-A2C3-EFC7F50FC5CA}">
+  <dimension ref="A1:W23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>5.5616199999999998E-2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-4.2231499999999997E-5</v>
+      </c>
+      <c r="C1">
+        <v>-4.5317200000000004E-3</v>
+      </c>
+      <c r="D1">
+        <v>5.0530200000000001E-3</v>
+      </c>
+      <c r="E1">
+        <v>2.6741600000000001E-3</v>
+      </c>
+      <c r="F1">
+        <v>-6.7729699999999997E-3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5.2949699999999997E-6</v>
+      </c>
+      <c r="H1" s="1">
+        <v>-7.0819099999999994E-5</v>
+      </c>
+      <c r="I1">
+        <v>-2.1849700000000001E-3</v>
+      </c>
+      <c r="J1">
+        <v>-5.3434299999999995E-4</v>
+      </c>
+      <c r="K1">
+        <v>-8.3249699999999997E-4</v>
+      </c>
+      <c r="L1">
+        <v>-4.6573500000000002E-3</v>
+      </c>
+      <c r="M1">
+        <v>1.3159700000000001E-3</v>
+      </c>
+      <c r="N1">
+        <v>1.21349E-3</v>
+      </c>
+      <c r="O1">
+        <v>1.81722E-3</v>
+      </c>
+      <c r="P1">
+        <v>4.1492100000000001E-4</v>
+      </c>
+      <c r="Q1">
+        <v>-2.1285299999999999E-4</v>
+      </c>
+      <c r="R1">
+        <v>-1.09946E-3</v>
+      </c>
+      <c r="S1">
+        <v>4.3912300000000003E-3</v>
+      </c>
+      <c r="T1">
+        <v>-2.6234400000000002E-4</v>
+      </c>
+      <c r="U1">
+        <v>-6.1052899999999995E-4</v>
+      </c>
+      <c r="V1" s="1">
+        <v>4.8051E-6</v>
+      </c>
+      <c r="W1">
+        <v>6.4730699999999996E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>-4.2231499999999997E-5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.1021199999999999E-7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.13729E-6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-2.30756E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-2.4740100000000001E-5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.0353899999999998E-5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-7.1494299999999998E-9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6.1717499999999998E-6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7.21945E-6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.3544000000000002E-6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5.5052799999999999E-6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.5135499999999999E-5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.1965399999999999E-6</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8.2243300000000002E-7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2.6826499999999997E-7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>2.5409399999999999E-6</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2.8049999999999998E-6</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5.3048999999999998E-6</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-3.9583900000000002E-6</v>
+      </c>
+      <c r="T2" s="1">
+        <v>6.1301700000000004E-7</v>
+      </c>
+      <c r="U2" s="1">
+        <v>1.2926699999999999E-6</v>
+      </c>
+      <c r="V2" s="1">
+        <v>-1.25868E-8</v>
+      </c>
+      <c r="W2" s="1">
+        <v>3.9421300000000001E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>-4.5317200000000004E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.13729E-6</v>
+      </c>
+      <c r="C3">
+        <v>1.5469699999999999E-2</v>
+      </c>
+      <c r="D3">
+        <v>-2.14175E-3</v>
+      </c>
+      <c r="E3">
+        <v>2.8442300000000001E-3</v>
+      </c>
+      <c r="F3">
+        <v>-1.09817E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>4.6576699999999999E-7</v>
+      </c>
+      <c r="H3">
+        <v>-1.68118E-3</v>
+      </c>
+      <c r="I3">
+        <v>-1.94812E-3</v>
+      </c>
+      <c r="J3">
+        <v>-2.4403799999999998E-3</v>
+      </c>
+      <c r="K3">
+        <v>-2.1110899999999999E-3</v>
+      </c>
+      <c r="L3">
+        <v>-2.5128300000000002E-3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>1.7186000000000001E-5</v>
+      </c>
+      <c r="N3">
+        <v>-1.3647299999999999E-4</v>
+      </c>
+      <c r="O3">
+        <v>-5.4698699999999997E-4</v>
+      </c>
+      <c r="P3">
+        <v>4.1686099999999998E-4</v>
+      </c>
+      <c r="Q3">
+        <v>-1.65774E-3</v>
+      </c>
+      <c r="R3">
+        <v>-9.1633600000000002E-4</v>
+      </c>
+      <c r="S3">
+        <v>-2.1844299999999998E-3</v>
+      </c>
+      <c r="T3">
+        <v>-2.0514700000000001E-4</v>
+      </c>
+      <c r="U3" s="1">
+        <v>-9.5658599999999999E-5</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1.1169399999999999E-7</v>
+      </c>
+      <c r="W3">
+        <v>-2.0273000000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>5.0530200000000001E-3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-2.30756E-5</v>
+      </c>
+      <c r="C4">
+        <v>-2.14175E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.9539899999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.0671800000000001E-3</v>
+      </c>
+      <c r="F4">
+        <v>-1.16927E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.55898E-6</v>
+      </c>
+      <c r="H4">
+        <v>-2.4532500000000001E-3</v>
+      </c>
+      <c r="I4">
+        <v>-2.32986E-3</v>
+      </c>
+      <c r="J4">
+        <v>-7.2986899999999996E-4</v>
+      </c>
+      <c r="K4">
+        <v>-6.5038499999999996E-4</v>
+      </c>
+      <c r="L4">
+        <v>-4.9240600000000001E-3</v>
+      </c>
+      <c r="M4">
+        <v>1.3282100000000001E-4</v>
+      </c>
+      <c r="N4">
+        <v>1.20382E-3</v>
+      </c>
+      <c r="O4">
+        <v>-5.78072E-4</v>
+      </c>
+      <c r="P4">
+        <v>-4.8507599999999998E-4</v>
+      </c>
+      <c r="Q4">
+        <v>-1.02282E-3</v>
+      </c>
+      <c r="R4">
+        <v>-1.8180200000000001E-3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>1.5468199999999999E-5</v>
+      </c>
+      <c r="T4">
+        <v>1.2141599999999999E-3</v>
+      </c>
+      <c r="U4">
+        <v>-1.3743499999999999E-4</v>
+      </c>
+      <c r="V4" s="1">
+        <v>3.6612000000000002E-6</v>
+      </c>
+      <c r="W4">
+        <v>5.2591699999999999E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2.6741600000000001E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-2.4740100000000001E-5</v>
+      </c>
+      <c r="C5">
+        <v>2.8442300000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>5.0671800000000001E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.16414599999999999</v>
+      </c>
+      <c r="F5">
+        <v>-0.19814100000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-3.1502499999999999E-5</v>
+      </c>
+      <c r="H5">
+        <v>-2.98917E-2</v>
+      </c>
+      <c r="I5">
+        <v>-3.7548699999999997E-2</v>
+      </c>
+      <c r="J5">
+        <v>-3.0867599999999999E-2</v>
+      </c>
+      <c r="K5">
+        <v>-3.3198199999999997E-2</v>
+      </c>
+      <c r="L5">
+        <v>-3.9617100000000002E-2</v>
+      </c>
+      <c r="M5">
+        <v>-6.3384399999999999E-3</v>
+      </c>
+      <c r="N5">
+        <v>-1.3572600000000001E-2</v>
+      </c>
+      <c r="O5">
+        <v>-1.0755199999999999E-2</v>
+      </c>
+      <c r="P5">
+        <v>3.3307499999999999E-3</v>
+      </c>
+      <c r="Q5">
+        <v>-1.2878499999999999E-2</v>
+      </c>
+      <c r="R5">
+        <v>-4.4942599999999999E-3</v>
+      </c>
+      <c r="S5">
+        <v>-9.9219900000000003E-3</v>
+      </c>
+      <c r="T5">
+        <v>-9.6891400000000006E-3</v>
+      </c>
+      <c r="U5">
+        <v>2.1069000000000001E-3</v>
+      </c>
+      <c r="V5" s="1">
+        <v>7.4168400000000001E-7</v>
+      </c>
+      <c r="W5">
+        <v>-1.4536900000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>-6.7729699999999997E-3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.0353899999999998E-5</v>
+      </c>
+      <c r="C6">
+        <v>-1.09817E-2</v>
+      </c>
+      <c r="D6">
+        <v>-1.16927E-2</v>
+      </c>
+      <c r="E6">
+        <v>-0.19814100000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.41821999999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-5.0247000000000002E-5</v>
+      </c>
+      <c r="H6">
+        <v>5.1140100000000004E-3</v>
+      </c>
+      <c r="I6">
+        <v>1.29456E-2</v>
+      </c>
+      <c r="J6">
+        <v>4.7813600000000001E-3</v>
+      </c>
+      <c r="K6">
+        <v>5.10649E-3</v>
+      </c>
+      <c r="L6">
+        <v>1.4127499999999999E-2</v>
+      </c>
+      <c r="M6">
+        <v>-1.58464E-3</v>
+      </c>
+      <c r="N6">
+        <v>-1.4583700000000001E-3</v>
+      </c>
+      <c r="O6">
+        <v>2.2936300000000001E-3</v>
+      </c>
+      <c r="P6">
+        <v>-1.7668600000000001E-4</v>
+      </c>
+      <c r="Q6">
+        <v>9.2354299999999993E-3</v>
+      </c>
+      <c r="R6">
+        <v>-1.25343E-2</v>
+      </c>
+      <c r="S6">
+        <v>1.8416399999999999E-2</v>
+      </c>
+      <c r="T6">
+        <v>9.9267899999999996E-3</v>
+      </c>
+      <c r="U6">
+        <v>-1.0582300000000001E-4</v>
+      </c>
+      <c r="V6" s="1">
+        <v>-3.7143100000000001E-7</v>
+      </c>
+      <c r="W6">
+        <v>2.2406000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>5.2949699999999997E-6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-7.1494299999999998E-9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>4.6576699999999999E-7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.55898E-6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-3.1502499999999999E-5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-5.0247000000000002E-5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.06109E-7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1.55847E-6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-1.2810000000000001E-6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-6.3031399999999999E-7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2.5203400000000001E-6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-2.6813500000000002E-6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4.20302E-6</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.2437499999999998E-6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>7.1589500000000003E-6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-5.33556E-6</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>1.0105199999999999E-5</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5.4682100000000003E-6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-4.1830200000000001E-6</v>
+      </c>
+      <c r="T7" s="1">
+        <v>3.2207100000000002E-6</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-4.3398199999999997E-7</v>
+      </c>
+      <c r="V7" s="1">
+        <v>7.6958900000000002E-10</v>
+      </c>
+      <c r="W7" s="1">
+        <v>-4.7963399999999999E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
+        <v>-7.0819099999999994E-5</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.1717499999999998E-6</v>
+      </c>
+      <c r="C8">
+        <v>-1.68118E-3</v>
+      </c>
+      <c r="D8">
+        <v>-2.4532500000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>-2.98917E-2</v>
+      </c>
+      <c r="F8">
+        <v>5.1140100000000004E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1.55847E-6</v>
+      </c>
+      <c r="H8">
+        <v>3.4509900000000003E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.8864899999999999E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.79089E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.7571399999999999E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.95734E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>9.1227499999999993E-5</v>
+      </c>
+      <c r="N8">
+        <v>3.4541400000000001E-3</v>
+      </c>
+      <c r="O8">
+        <v>2.70127E-4</v>
+      </c>
+      <c r="P8">
+        <v>1.26548E-3</v>
+      </c>
+      <c r="Q8">
+        <v>-5.0076299999999999E-4</v>
+      </c>
+      <c r="R8">
+        <v>8.4637099999999993E-3</v>
+      </c>
+      <c r="S8">
+        <v>2.5066400000000001E-3</v>
+      </c>
+      <c r="T8">
+        <v>1.95262E-4</v>
+      </c>
+      <c r="U8">
+        <v>-2.0069799999999998E-3</v>
+      </c>
+      <c r="V8" s="1">
+        <v>-7.6031400000000001E-7</v>
+      </c>
+      <c r="W8">
+        <v>1.6361199999999999E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>-2.1849700000000001E-3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>7.21945E-6</v>
+      </c>
+      <c r="C9">
+        <v>-1.94812E-3</v>
+      </c>
+      <c r="D9">
+        <v>-2.32986E-3</v>
+      </c>
+      <c r="E9">
+        <v>-3.7548699999999997E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.29456E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-1.2810000000000001E-6</v>
+      </c>
+      <c r="H9">
+        <v>2.8864899999999999E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.6582400000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>3.0933599999999999E-2</v>
+      </c>
+      <c r="K9">
+        <v>3.0123299999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.6012599999999999E-2</v>
+      </c>
+      <c r="M9">
+        <v>-2.2373900000000001E-3</v>
+      </c>
+      <c r="N9">
+        <v>6.6499599999999999E-3</v>
+      </c>
+      <c r="O9">
+        <v>-5.8151199999999996E-4</v>
+      </c>
+      <c r="P9">
+        <v>4.78729E-4</v>
+      </c>
+      <c r="Q9">
+        <v>4.1180899999999996E-3</v>
+      </c>
+      <c r="R9">
+        <v>8.8714899999999992E-3</v>
+      </c>
+      <c r="S9">
+        <v>4.0275399999999996E-3</v>
+      </c>
+      <c r="T9">
+        <v>2.95999E-3</v>
+      </c>
+      <c r="U9">
+        <v>-2.5064699999999998E-3</v>
+      </c>
+      <c r="V9" s="1">
+        <v>-6.5518300000000005E-7</v>
+      </c>
+      <c r="W9">
+        <v>3.9951100000000002E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>-5.3434299999999995E-4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>4.3544000000000002E-6</v>
+      </c>
+      <c r="C10">
+        <v>-2.4403799999999998E-3</v>
+      </c>
+      <c r="D10">
+        <v>-7.2986899999999996E-4</v>
+      </c>
+      <c r="E10">
+        <v>-3.0867599999999999E-2</v>
+      </c>
+      <c r="F10">
+        <v>4.7813600000000001E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-6.3031399999999999E-7</v>
+      </c>
+      <c r="H10">
+        <v>2.79089E-2</v>
+      </c>
+      <c r="I10">
+        <v>3.0933599999999999E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.5284900000000001E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.8843799999999999E-2</v>
+      </c>
+      <c r="L10">
+        <v>3.1443600000000002E-2</v>
+      </c>
+      <c r="M10">
+        <v>-2.20594E-3</v>
+      </c>
+      <c r="N10">
+        <v>5.2608400000000001E-3</v>
+      </c>
+      <c r="O10">
+        <v>-8.1532499999999999E-4</v>
+      </c>
+      <c r="P10">
+        <v>1.5358800000000001E-3</v>
+      </c>
+      <c r="Q10">
+        <v>5.6470100000000003E-4</v>
+      </c>
+      <c r="R10">
+        <v>8.5585100000000001E-3</v>
+      </c>
+      <c r="S10">
+        <v>4.63956E-3</v>
+      </c>
+      <c r="T10">
+        <v>1.2307E-4</v>
+      </c>
+      <c r="U10">
+        <v>-1.9783499999999998E-3</v>
+      </c>
+      <c r="V10" s="1">
+        <v>-5.95843E-7</v>
+      </c>
+      <c r="W10">
+        <v>4.8923200000000003E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>-8.3249699999999997E-4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.5052799999999999E-6</v>
+      </c>
+      <c r="C11">
+        <v>-2.1110899999999999E-3</v>
+      </c>
+      <c r="D11">
+        <v>-6.5038499999999996E-4</v>
+      </c>
+      <c r="E11">
+        <v>-3.3198199999999997E-2</v>
+      </c>
+      <c r="F11">
+        <v>5.10649E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>2.5203400000000001E-6</v>
+      </c>
+      <c r="H11">
+        <v>2.7571399999999999E-2</v>
+      </c>
+      <c r="I11">
+        <v>3.0123299999999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.8843799999999999E-2</v>
+      </c>
+      <c r="K11">
+        <v>3.7984400000000001E-2</v>
+      </c>
+      <c r="L11">
+        <v>3.0664799999999999E-2</v>
+      </c>
+      <c r="M11">
+        <v>-6.3641999999999995E-4</v>
+      </c>
+      <c r="N11">
+        <v>5.9792999999999999E-3</v>
+      </c>
+      <c r="O11" s="1">
+        <v>2.8245599999999999E-5</v>
+      </c>
+      <c r="P11">
+        <v>2.45744E-3</v>
+      </c>
+      <c r="Q11">
+        <v>1.3481999999999999E-4</v>
+      </c>
+      <c r="R11">
+        <v>7.3670000000000003E-3</v>
+      </c>
+      <c r="S11">
+        <v>-1.09256E-3</v>
+      </c>
+      <c r="T11">
+        <v>1.28001E-3</v>
+      </c>
+      <c r="U11">
+        <v>-1.75154E-3</v>
+      </c>
+      <c r="V11" s="1">
+        <v>-2.8622999999999999E-7</v>
+      </c>
+      <c r="W11">
+        <v>3.3266099999999999E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>-4.6573500000000002E-3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.5135499999999999E-5</v>
+      </c>
+      <c r="C12">
+        <v>-2.5128300000000002E-3</v>
+      </c>
+      <c r="D12">
+        <v>-4.9240600000000001E-3</v>
+      </c>
+      <c r="E12">
+        <v>-3.9617100000000002E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.4127499999999999E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-2.6813500000000002E-6</v>
+      </c>
+      <c r="H12">
+        <v>2.95734E-2</v>
+      </c>
+      <c r="I12">
+        <v>3.6012599999999999E-2</v>
+      </c>
+      <c r="J12">
+        <v>3.1443600000000002E-2</v>
+      </c>
+      <c r="K12">
+        <v>3.0664799999999999E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.13400899999999999</v>
+      </c>
+      <c r="M12" s="1">
+        <v>9.1673900000000007E-6</v>
+      </c>
+      <c r="N12">
+        <v>7.1019899999999999E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-9.6034099999999993E-6</v>
+      </c>
+      <c r="P12">
+        <v>-7.0058999999999996E-4</v>
+      </c>
+      <c r="Q12">
+        <v>8.3480399999999993E-3</v>
+      </c>
+      <c r="R12">
+        <v>1.2345500000000001E-2</v>
+      </c>
+      <c r="S12">
+        <v>2.3257400000000002E-3</v>
+      </c>
+      <c r="T12">
+        <v>4.2934599999999998E-3</v>
+      </c>
+      <c r="U12">
+        <v>-1.79835E-3</v>
+      </c>
+      <c r="V12" s="1">
+        <v>-2.2047199999999999E-7</v>
+      </c>
+      <c r="W12">
+        <v>3.4214100000000002E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1.3159700000000001E-3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.1965399999999999E-6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1.7186000000000001E-5</v>
+      </c>
+      <c r="D13">
+        <v>1.3282100000000001E-4</v>
+      </c>
+      <c r="E13">
+        <v>-6.3384399999999999E-3</v>
+      </c>
+      <c r="F13">
+        <v>-1.58464E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.20302E-6</v>
+      </c>
+      <c r="H13" s="1">
+        <v>9.1227499999999993E-5</v>
+      </c>
+      <c r="I13">
+        <v>-2.2373900000000001E-3</v>
+      </c>
+      <c r="J13">
+        <v>-2.20594E-3</v>
+      </c>
+      <c r="K13">
+        <v>-6.3641999999999995E-4</v>
+      </c>
+      <c r="L13" s="1">
+        <v>9.1673900000000007E-6</v>
+      </c>
+      <c r="M13">
+        <v>1.4525400000000001E-2</v>
+      </c>
+      <c r="N13">
+        <v>5.0961799999999996E-3</v>
+      </c>
+      <c r="O13">
+        <v>6.4487700000000004E-3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>-4.4404899999999999E-5</v>
+      </c>
+      <c r="Q13">
+        <v>1.3566100000000001E-3</v>
+      </c>
+      <c r="R13">
+        <v>3.2642199999999999E-4</v>
+      </c>
+      <c r="S13">
+        <v>-3.2250600000000001E-3</v>
+      </c>
+      <c r="T13">
+        <v>2.1954599999999999E-4</v>
+      </c>
+      <c r="U13">
+        <v>4.7170799999999999E-4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>-3.8322999999999998E-8</v>
+      </c>
+      <c r="W13">
+        <v>-1.3373399999999999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1.21349E-3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>8.2243300000000002E-7</v>
+      </c>
+      <c r="C14">
+        <v>-1.3647299999999999E-4</v>
+      </c>
+      <c r="D14">
+        <v>1.20382E-3</v>
+      </c>
+      <c r="E14">
+        <v>-1.3572600000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>-1.4583700000000001E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4.2437499999999998E-6</v>
+      </c>
+      <c r="H14">
+        <v>3.4541400000000001E-3</v>
+      </c>
+      <c r="I14">
+        <v>6.6499599999999999E-3</v>
+      </c>
+      <c r="J14">
+        <v>5.2608400000000001E-3</v>
+      </c>
+      <c r="K14">
+        <v>5.9792999999999999E-3</v>
+      </c>
+      <c r="L14">
+        <v>7.1019899999999999E-3</v>
+      </c>
+      <c r="M14">
+        <v>5.0961799999999996E-3</v>
+      </c>
+      <c r="N14">
+        <v>1.91659E-2</v>
+      </c>
+      <c r="O14">
+        <v>5.5753499999999998E-3</v>
+      </c>
+      <c r="P14">
+        <v>2.30163E-4</v>
+      </c>
+      <c r="Q14">
+        <v>1.13952E-3</v>
+      </c>
+      <c r="R14">
+        <v>-3.8310499999999999E-3</v>
+      </c>
+      <c r="S14">
+        <v>6.7383600000000003E-4</v>
+      </c>
+      <c r="T14">
+        <v>7.3455799999999996E-4</v>
+      </c>
+      <c r="U14">
+        <v>7.3025100000000001E-4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>4.5989000000000002E-7</v>
+      </c>
+      <c r="W14">
+        <v>1.9856299999999999E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1.81722E-3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2.6826499999999997E-7</v>
+      </c>
+      <c r="C15">
+        <v>-5.4698699999999997E-4</v>
+      </c>
+      <c r="D15">
+        <v>-5.78072E-4</v>
+      </c>
+      <c r="E15">
+        <v>-1.0755199999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.2936300000000001E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>7.1589500000000003E-6</v>
+      </c>
+      <c r="H15">
+        <v>2.70127E-4</v>
+      </c>
+      <c r="I15">
+        <v>-5.8151199999999996E-4</v>
+      </c>
+      <c r="J15">
+        <v>-8.1532499999999999E-4</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2.8245599999999999E-5</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-9.6034099999999993E-6</v>
+      </c>
+      <c r="M15">
+        <v>6.4487700000000004E-3</v>
+      </c>
+      <c r="N15">
+        <v>5.5753499999999998E-3</v>
+      </c>
+      <c r="O15">
+        <v>8.7902299999999996E-3</v>
+      </c>
+      <c r="P15">
+        <v>-1.3687199999999999E-3</v>
+      </c>
+      <c r="Q15">
+        <v>1.0220400000000001E-3</v>
+      </c>
+      <c r="R15">
+        <v>1.7223E-3</v>
+      </c>
+      <c r="S15">
+        <v>-2.6055800000000001E-3</v>
+      </c>
+      <c r="T15">
+        <v>9.0895600000000004E-4</v>
+      </c>
+      <c r="U15">
+        <v>2.0541099999999999E-4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>2.5909599999999998E-7</v>
+      </c>
+      <c r="W15" s="1">
+        <v>8.8474500000000001E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>4.1492100000000001E-4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.5409399999999999E-6</v>
+      </c>
+      <c r="C16">
+        <v>4.1686099999999998E-4</v>
+      </c>
+      <c r="D16">
+        <v>-4.8507599999999998E-4</v>
+      </c>
+      <c r="E16">
+        <v>3.3307499999999999E-3</v>
+      </c>
+      <c r="F16">
+        <v>-1.7668600000000001E-4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-5.33556E-6</v>
+      </c>
+      <c r="H16">
+        <v>1.26548E-3</v>
+      </c>
+      <c r="I16">
+        <v>4.78729E-4</v>
+      </c>
+      <c r="J16">
+        <v>1.5358800000000001E-3</v>
+      </c>
+      <c r="K16">
+        <v>2.45744E-3</v>
+      </c>
+      <c r="L16">
+        <v>-7.0058999999999996E-4</v>
+      </c>
+      <c r="M16" s="1">
+        <v>-4.4404899999999999E-5</v>
+      </c>
+      <c r="N16">
+        <v>2.30163E-4</v>
+      </c>
+      <c r="O16">
+        <v>-1.3687199999999999E-3</v>
+      </c>
+      <c r="P16">
+        <v>1.7694000000000001E-2</v>
+      </c>
+      <c r="Q16">
+        <v>-1.89218E-3</v>
+      </c>
+      <c r="R16">
+        <v>-6.5282200000000004E-3</v>
+      </c>
+      <c r="S16">
+        <v>-7.6344500000000001E-3</v>
+      </c>
+      <c r="T16">
+        <v>1.6006E-3</v>
+      </c>
+      <c r="U16">
+        <v>-1.11611E-3</v>
+      </c>
+      <c r="V16" s="1">
+        <v>6.4874099999999995E-8</v>
+      </c>
+      <c r="W16">
+        <v>-2.0999699999999999E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>-2.1285299999999999E-4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.8049999999999998E-6</v>
+      </c>
+      <c r="C17">
+        <v>-1.65774E-3</v>
+      </c>
+      <c r="D17">
+        <v>-1.02282E-3</v>
+      </c>
+      <c r="E17">
+        <v>-1.2878499999999999E-2</v>
+      </c>
+      <c r="F17">
+        <v>9.2354299999999993E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.0105199999999999E-5</v>
+      </c>
+      <c r="H17">
+        <v>-5.0076299999999999E-4</v>
+      </c>
+      <c r="I17">
+        <v>4.1180899999999996E-3</v>
+      </c>
+      <c r="J17">
+        <v>5.6470100000000003E-4</v>
+      </c>
+      <c r="K17">
+        <v>1.3481999999999999E-4</v>
+      </c>
+      <c r="L17">
+        <v>8.3480399999999993E-3</v>
+      </c>
+      <c r="M17">
+        <v>1.3566100000000001E-3</v>
+      </c>
+      <c r="N17">
+        <v>1.13952E-3</v>
+      </c>
+      <c r="O17">
+        <v>1.0220400000000001E-3</v>
+      </c>
+      <c r="P17">
+        <v>-1.89218E-3</v>
+      </c>
+      <c r="Q17">
+        <v>1.43479E-2</v>
+      </c>
+      <c r="R17">
+        <v>-2.8776100000000001E-3</v>
+      </c>
+      <c r="S17">
+        <v>3.8164700000000002E-3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>-3.6448200000000001E-5</v>
+      </c>
+      <c r="U17">
+        <v>7.6145499999999997E-4</v>
+      </c>
+      <c r="V17" s="1">
+        <v>-1.4385699999999999E-7</v>
+      </c>
+      <c r="W17">
+        <v>3.2690600000000002E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>-1.09946E-3</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.3048999999999998E-6</v>
+      </c>
+      <c r="C18">
+        <v>-9.1633600000000002E-4</v>
+      </c>
+      <c r="D18">
+        <v>-1.8180200000000001E-3</v>
+      </c>
+      <c r="E18">
+        <v>-4.4942599999999999E-3</v>
+      </c>
+      <c r="F18">
+        <v>-1.25343E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>5.4682100000000003E-6</v>
+      </c>
+      <c r="H18">
+        <v>8.4637099999999993E-3</v>
+      </c>
+      <c r="I18">
+        <v>8.8714899999999992E-3</v>
+      </c>
+      <c r="J18">
+        <v>8.5585100000000001E-3</v>
+      </c>
+      <c r="K18">
+        <v>7.3670000000000003E-3</v>
+      </c>
+      <c r="L18">
+        <v>1.2345500000000001E-2</v>
+      </c>
+      <c r="M18">
+        <v>3.2642199999999999E-4</v>
+      </c>
+      <c r="N18">
+        <v>-3.8310499999999999E-3</v>
+      </c>
+      <c r="O18">
+        <v>1.7223E-3</v>
+      </c>
+      <c r="P18">
+        <v>-6.5282200000000004E-3</v>
+      </c>
+      <c r="Q18">
+        <v>-2.8776100000000001E-3</v>
+      </c>
+      <c r="R18">
+        <v>4.8808600000000001E-2</v>
+      </c>
+      <c r="S18">
+        <v>3.9978399999999999E-3</v>
+      </c>
+      <c r="T18">
+        <v>-4.50783E-3</v>
+      </c>
+      <c r="U18">
+        <v>-2.3289999999999999E-3</v>
+      </c>
+      <c r="V18" s="1">
+        <v>-2.79997E-8</v>
+      </c>
+      <c r="W18" s="1">
+        <v>8.3914799999999998E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>4.3912300000000003E-3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-3.9583900000000002E-6</v>
+      </c>
+      <c r="C19">
+        <v>-2.1844299999999998E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.5468199999999999E-5</v>
+      </c>
+      <c r="E19">
+        <v>-9.9219900000000003E-3</v>
+      </c>
+      <c r="F19">
+        <v>1.8416399999999999E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-4.1830200000000001E-6</v>
+      </c>
+      <c r="H19">
+        <v>2.5066400000000001E-3</v>
+      </c>
+      <c r="I19">
+        <v>4.0275399999999996E-3</v>
+      </c>
+      <c r="J19">
+        <v>4.63956E-3</v>
+      </c>
+      <c r="K19">
+        <v>-1.09256E-3</v>
+      </c>
+      <c r="L19">
+        <v>2.3257400000000002E-3</v>
+      </c>
+      <c r="M19">
+        <v>-3.2250600000000001E-3</v>
+      </c>
+      <c r="N19">
+        <v>6.7383600000000003E-4</v>
+      </c>
+      <c r="O19">
+        <v>-2.6055800000000001E-3</v>
+      </c>
+      <c r="P19">
+        <v>-7.6344500000000001E-3</v>
+      </c>
+      <c r="Q19">
+        <v>3.8164700000000002E-3</v>
+      </c>
+      <c r="R19">
+        <v>3.9978399999999999E-3</v>
+      </c>
+      <c r="S19">
+        <v>7.6398599999999997E-2</v>
+      </c>
+      <c r="T19">
+        <v>-1.0229200000000001E-2</v>
+      </c>
+      <c r="U19">
+        <v>-3.2990200000000002E-3</v>
+      </c>
+      <c r="V19" s="1">
+        <v>8.7426599999999995E-7</v>
+      </c>
+      <c r="W19">
+        <v>6.3433399999999996E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>-2.6234400000000002E-4</v>
+      </c>
+      <c r="B20" s="1">
+        <v>6.1301700000000004E-7</v>
+      </c>
+      <c r="C20">
+        <v>-2.0514700000000001E-4</v>
+      </c>
+      <c r="D20">
+        <v>1.2141599999999999E-3</v>
+      </c>
+      <c r="E20">
+        <v>-9.6891400000000006E-3</v>
+      </c>
+      <c r="F20">
+        <v>9.9267899999999996E-3</v>
+      </c>
+      <c r="G20" s="1">
+        <v>3.2207100000000002E-6</v>
+      </c>
+      <c r="H20">
+        <v>1.95262E-4</v>
+      </c>
+      <c r="I20">
+        <v>2.95999E-3</v>
+      </c>
+      <c r="J20">
+        <v>1.2307E-4</v>
+      </c>
+      <c r="K20">
+        <v>1.28001E-3</v>
+      </c>
+      <c r="L20">
+        <v>4.2934599999999998E-3</v>
+      </c>
+      <c r="M20">
+        <v>2.1954599999999999E-4</v>
+      </c>
+      <c r="N20">
+        <v>7.3455799999999996E-4</v>
+      </c>
+      <c r="O20">
+        <v>9.0895600000000004E-4</v>
+      </c>
+      <c r="P20">
+        <v>1.6006E-3</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>-3.6448200000000001E-5</v>
+      </c>
+      <c r="R20">
+        <v>-4.50783E-3</v>
+      </c>
+      <c r="S20">
+        <v>-1.0229200000000001E-2</v>
+      </c>
+      <c r="T20">
+        <v>3.77136E-2</v>
+      </c>
+      <c r="U20">
+        <v>-2.6675100000000001E-3</v>
+      </c>
+      <c r="V20" s="1">
+        <v>8.5200399999999996E-7</v>
+      </c>
+      <c r="W20" s="1">
+        <v>9.5769599999999999E-5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>-6.1052899999999995E-4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1.2926699999999999E-6</v>
+      </c>
+      <c r="C21" s="1">
+        <v>-9.5658599999999999E-5</v>
+      </c>
+      <c r="D21">
+        <v>-1.3743499999999999E-4</v>
+      </c>
+      <c r="E21">
+        <v>2.1069000000000001E-3</v>
+      </c>
+      <c r="F21">
+        <v>-1.0582300000000001E-4</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-4.3398199999999997E-7</v>
+      </c>
+      <c r="H21">
+        <v>-2.0069799999999998E-3</v>
+      </c>
+      <c r="I21">
+        <v>-2.5064699999999998E-3</v>
+      </c>
+      <c r="J21">
+        <v>-1.9783499999999998E-3</v>
+      </c>
+      <c r="K21">
+        <v>-1.75154E-3</v>
+      </c>
+      <c r="L21">
+        <v>-1.79835E-3</v>
+      </c>
+      <c r="M21">
+        <v>4.7170799999999999E-4</v>
+      </c>
+      <c r="N21">
+        <v>7.3025100000000001E-4</v>
+      </c>
+      <c r="O21">
+        <v>2.0541099999999999E-4</v>
+      </c>
+      <c r="P21">
+        <v>-1.11611E-3</v>
+      </c>
+      <c r="Q21">
+        <v>7.6145499999999997E-4</v>
+      </c>
+      <c r="R21">
+        <v>-2.3289999999999999E-3</v>
+      </c>
+      <c r="S21">
+        <v>-3.2990200000000002E-3</v>
+      </c>
+      <c r="T21">
+        <v>-2.6675100000000001E-3</v>
+      </c>
+      <c r="U21">
+        <v>2.5951099999999999E-3</v>
+      </c>
+      <c r="V21" s="1">
+        <v>-3.05401E-7</v>
+      </c>
+      <c r="W21" s="1">
+        <v>-4.6608499999999996E-6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <v>4.8051E-6</v>
+      </c>
+      <c r="B22" s="1">
+        <v>-1.25868E-8</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1.1169399999999999E-7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.6612000000000002E-6</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7.4168400000000001E-7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>-3.7143100000000001E-7</v>
+      </c>
+      <c r="G22" s="1">
+        <v>7.6958900000000002E-10</v>
+      </c>
+      <c r="H22" s="1">
+        <v>-7.6031400000000001E-7</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-6.5518300000000005E-7</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-5.95843E-7</v>
+      </c>
+      <c r="K22" s="1">
+        <v>-2.8622999999999999E-7</v>
+      </c>
+      <c r="L22" s="1">
+        <v>-2.2047199999999999E-7</v>
+      </c>
+      <c r="M22" s="1">
+        <v>-3.8322999999999998E-8</v>
+      </c>
+      <c r="N22" s="1">
+        <v>4.5989000000000002E-7</v>
+      </c>
+      <c r="O22" s="1">
+        <v>2.5909599999999998E-7</v>
+      </c>
+      <c r="P22" s="1">
+        <v>6.4874099999999995E-8</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>-1.4385699999999999E-7</v>
+      </c>
+      <c r="R22" s="1">
+        <v>-2.79997E-8</v>
+      </c>
+      <c r="S22" s="1">
+        <v>8.7426599999999995E-7</v>
+      </c>
+      <c r="T22" s="1">
+        <v>8.5200399999999996E-7</v>
+      </c>
+      <c r="U22" s="1">
+        <v>-3.05401E-7</v>
+      </c>
+      <c r="V22" s="1">
+        <v>3.9681199999999997E-9</v>
+      </c>
+      <c r="W22" s="1">
+        <v>-9.4601199999999999E-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>6.4730699999999996E-4</v>
+      </c>
+      <c r="B23" s="1">
+        <v>3.9421300000000001E-7</v>
+      </c>
+      <c r="C23">
+        <v>-2.0273000000000001E-3</v>
+      </c>
+      <c r="D23">
+        <v>5.2591699999999999E-4</v>
+      </c>
+      <c r="E23">
+        <v>-1.4536900000000001E-3</v>
+      </c>
+      <c r="F23">
+        <v>2.2406000000000001E-3</v>
+      </c>
+      <c r="G23" s="1">
+        <v>-4.7963399999999999E-8</v>
+      </c>
+      <c r="H23">
+        <v>1.6361199999999999E-4</v>
+      </c>
+      <c r="I23">
+        <v>3.9951100000000002E-4</v>
+      </c>
+      <c r="J23">
+        <v>4.8923200000000003E-4</v>
+      </c>
+      <c r="K23">
+        <v>3.3266099999999999E-4</v>
+      </c>
+      <c r="L23">
+        <v>3.4214100000000002E-4</v>
+      </c>
+      <c r="M23">
+        <v>-1.3373399999999999E-4</v>
+      </c>
+      <c r="N23">
+        <v>1.9856299999999999E-4</v>
+      </c>
+      <c r="O23" s="1">
+        <v>8.8474500000000001E-5</v>
+      </c>
+      <c r="P23">
+        <v>-2.0999699999999999E-4</v>
+      </c>
+      <c r="Q23">
+        <v>3.2690600000000002E-4</v>
+      </c>
+      <c r="R23" s="1">
+        <v>8.3914799999999998E-5</v>
+      </c>
+      <c r="S23">
+        <v>6.3433399999999996E-4</v>
+      </c>
+      <c r="T23" s="1">
+        <v>9.5769599999999999E-5</v>
+      </c>
+      <c r="U23" s="1">
+        <v>-4.6608499999999996E-6</v>
+      </c>
+      <c r="V23" s="1">
+        <v>-9.4601199999999999E-8</v>
+      </c>
+      <c r="W23">
+        <v>8.0694999999999996E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91169AB-CFEB-4A51-9AA7-AB27737F658B}">
+  <dimension ref="A1:Q17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>5.7191699999999998E-2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-4.1184199999999998E-5</v>
+      </c>
+      <c r="C1">
+        <v>-5.3806000000000001E-3</v>
+      </c>
+      <c r="D1">
+        <v>3.7746199999999998E-3</v>
+      </c>
+      <c r="E1">
+        <v>5.5466500000000002E-3</v>
+      </c>
+      <c r="F1">
+        <v>-6.2233699999999998E-3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>-3.00756E-6</v>
+      </c>
+      <c r="H1">
+        <v>1.7163500000000001E-4</v>
+      </c>
+      <c r="I1">
+        <v>-2.1787199999999999E-3</v>
+      </c>
+      <c r="J1">
+        <v>-9.7693499999999996E-4</v>
+      </c>
+      <c r="K1">
+        <v>-1.5991E-3</v>
+      </c>
+      <c r="L1">
+        <v>-3.5845199999999999E-3</v>
+      </c>
+      <c r="M1">
+        <v>2.0949200000000001E-3</v>
+      </c>
+      <c r="N1">
+        <v>1.4938E-3</v>
+      </c>
+      <c r="O1">
+        <v>2.3985299999999998E-3</v>
+      </c>
+      <c r="P1" s="1">
+        <v>4.9293100000000002E-6</v>
+      </c>
+      <c r="Q1">
+        <v>8.7107999999999999E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>-4.1184199999999998E-5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.09759E-7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.7909399999999999E-7</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-2.3485700000000001E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-2.4958200000000001E-5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.77511E-5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.6909099999999999E-9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6.2220699999999997E-6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>6.1653799999999997E-6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3.7392999999999999E-6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>5.2810799999999996E-6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>9.4290700000000005E-6</v>
+      </c>
+      <c r="M2" s="1">
+        <v>-9.3846899999999998E-7</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-3.17892E-7</v>
+      </c>
+      <c r="O2" s="1">
+        <v>-4.51673E-7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>-1.3473300000000001E-8</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>3.1074900000000003E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>-5.3806000000000001E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.7909399999999999E-7</v>
+      </c>
+      <c r="C3">
+        <v>1.6194500000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>-2.6966199999999998E-3</v>
+      </c>
+      <c r="E3">
+        <v>2.7335300000000001E-3</v>
+      </c>
+      <c r="F3">
+        <v>-1.1699899999999999E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>8.2596600000000003E-7</v>
+      </c>
+      <c r="H3">
+        <v>-1.5778599999999999E-3</v>
+      </c>
+      <c r="I3">
+        <v>-1.4921100000000001E-3</v>
+      </c>
+      <c r="J3">
+        <v>-2.1607100000000001E-3</v>
+      </c>
+      <c r="K3">
+        <v>-1.82737E-3</v>
+      </c>
+      <c r="L3">
+        <v>-2.57661E-3</v>
+      </c>
+      <c r="M3">
+        <v>1.8764399999999999E-4</v>
+      </c>
+      <c r="N3">
+        <v>1.6256800000000001E-4</v>
+      </c>
+      <c r="O3">
+        <v>-4.3275799999999999E-4</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2.5671799999999998E-7</v>
+      </c>
+      <c r="Q3">
+        <v>-2.1261100000000001E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3.7746199999999998E-3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-2.3485700000000001E-5</v>
+      </c>
+      <c r="C4">
+        <v>-2.6966199999999998E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.1596199999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>5.4512500000000004E-3</v>
+      </c>
+      <c r="F4">
+        <v>-9.3528499999999994E-3</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-5.94539E-7</v>
+      </c>
+      <c r="H4">
+        <v>-2.4044600000000002E-3</v>
+      </c>
+      <c r="I4">
+        <v>-1.9669599999999998E-3</v>
+      </c>
+      <c r="J4">
+        <v>-5.85612E-4</v>
+      </c>
+      <c r="K4">
+        <v>-7.2825799999999997E-4</v>
+      </c>
+      <c r="L4">
+        <v>-2.3968499999999998E-3</v>
+      </c>
+      <c r="M4">
+        <v>2.41699E-4</v>
+      </c>
+      <c r="N4">
+        <v>9.0763499999999995E-4</v>
+      </c>
+      <c r="O4">
+        <v>-7.7129800000000001E-4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4.1577799999999997E-6</v>
+      </c>
+      <c r="Q4">
+        <v>6.47874E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>5.5466500000000002E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-2.4958200000000001E-5</v>
+      </c>
+      <c r="C5">
+        <v>2.7335300000000001E-3</v>
+      </c>
+      <c r="D5">
+        <v>5.4512500000000004E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.145708</v>
+      </c>
+      <c r="F5">
+        <v>-0.18758900000000001</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-2.0199699999999999E-5</v>
+      </c>
+      <c r="H5">
+        <v>-2.9384E-2</v>
+      </c>
+      <c r="I5">
+        <v>-3.0917699999999999E-2</v>
+      </c>
+      <c r="J5">
+        <v>-3.0509600000000001E-2</v>
+      </c>
+      <c r="K5">
+        <v>-3.2164400000000003E-2</v>
+      </c>
+      <c r="L5">
+        <v>-2.7552699999999999E-2</v>
+      </c>
+      <c r="M5">
+        <v>-4.3620400000000002E-3</v>
+      </c>
+      <c r="N5">
+        <v>-1.1147000000000001E-2</v>
+      </c>
+      <c r="O5">
+        <v>-6.8009100000000003E-3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.1819000000000001E-6</v>
+      </c>
+      <c r="Q5">
+        <v>-1.3535800000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>-6.2233699999999998E-3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.77511E-5</v>
+      </c>
+      <c r="C6">
+        <v>-1.1699899999999999E-2</v>
+      </c>
+      <c r="D6">
+        <v>-9.3528499999999994E-3</v>
+      </c>
+      <c r="E6">
+        <v>-0.18758900000000001</v>
+      </c>
+      <c r="F6">
+        <v>0.37861299999999998</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-4.5163600000000002E-5</v>
+      </c>
+      <c r="H6">
+        <v>1.4027E-2</v>
+      </c>
+      <c r="I6">
+        <v>1.8047199999999999E-2</v>
+      </c>
+      <c r="J6">
+        <v>1.4648400000000001E-2</v>
+      </c>
+      <c r="K6">
+        <v>1.5231400000000001E-2</v>
+      </c>
+      <c r="L6">
+        <v>1.6778999999999999E-2</v>
+      </c>
+      <c r="M6">
+        <v>1.10823E-3</v>
+      </c>
+      <c r="N6">
+        <v>-3.4069999999999999E-4</v>
+      </c>
+      <c r="O6">
+        <v>2.40318E-3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>-3.4775800000000002E-8</v>
+      </c>
+      <c r="Q6">
+        <v>2.3142800000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>-3.00756E-6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.6909099999999999E-9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>8.2596600000000003E-7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-5.94539E-7</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-2.0199699999999999E-5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-4.5163600000000002E-5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>9.2726599999999999E-8</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1.3672800000000001E-6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-4.4155600000000003E-6</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-6.9985099999999998E-7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1.6317500000000001E-6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-1.13245E-5</v>
+      </c>
+      <c r="M7" s="1">
+        <v>-9.4537400000000001E-7</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1.1644E-6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1.3126599999999999E-6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-7.4711200000000004E-10</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>-2.7621899999999999E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1.7163500000000001E-4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>6.2220699999999997E-6</v>
+      </c>
+      <c r="C8">
+        <v>-1.5778599999999999E-3</v>
+      </c>
+      <c r="D8">
+        <v>-2.4044600000000002E-3</v>
+      </c>
+      <c r="E8">
+        <v>-2.9384E-2</v>
+      </c>
+      <c r="F8">
+        <v>1.4027E-2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1.3672800000000001E-6</v>
+      </c>
+      <c r="H8">
+        <v>2.9408E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.3229300000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.2803299999999999E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.2604599999999999E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.33545E-2</v>
+      </c>
+      <c r="M8" s="1">
+        <v>7.7152800000000008E-6</v>
+      </c>
+      <c r="N8">
+        <v>2.9549200000000002E-3</v>
+      </c>
+      <c r="O8" s="1">
+        <v>6.9305800000000003E-5</v>
+      </c>
+      <c r="P8" s="1">
+        <v>-1.0660099999999999E-6</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>9.4128299999999998E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>-2.1787199999999999E-3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>6.1653799999999997E-6</v>
+      </c>
+      <c r="C9">
+        <v>-1.4921100000000001E-3</v>
+      </c>
+      <c r="D9">
+        <v>-1.9669599999999998E-3</v>
+      </c>
+      <c r="E9">
+        <v>-3.0917699999999999E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.8047199999999999E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-4.4155600000000003E-6</v>
+      </c>
+      <c r="H9">
+        <v>2.3229300000000001E-2</v>
+      </c>
+      <c r="I9">
+        <v>2.8941100000000001E-2</v>
+      </c>
+      <c r="J9">
+        <v>2.5136200000000001E-2</v>
+      </c>
+      <c r="K9">
+        <v>2.4383999999999999E-2</v>
+      </c>
+      <c r="L9">
+        <v>2.6233300000000001E-2</v>
+      </c>
+      <c r="M9">
+        <v>-3.6547200000000002E-3</v>
+      </c>
+      <c r="N9">
+        <v>5.71624E-3</v>
+      </c>
+      <c r="O9">
+        <v>-1.85921E-3</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-9.6218300000000003E-7</v>
+      </c>
+      <c r="Q9">
+        <v>3.3626000000000001E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>-9.7693499999999996E-4</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.7392999999999999E-6</v>
+      </c>
+      <c r="C10">
+        <v>-2.1607100000000001E-3</v>
+      </c>
+      <c r="D10">
+        <v>-5.85612E-4</v>
+      </c>
+      <c r="E10">
+        <v>-3.0509600000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>1.4648400000000001E-2</v>
+      </c>
+      <c r="G10" s="1">
+        <v>-6.9985099999999998E-7</v>
+      </c>
+      <c r="H10">
+        <v>2.2803299999999999E-2</v>
+      </c>
+      <c r="I10">
+        <v>2.5136200000000001E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.0046799999999999E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.3834500000000002E-2</v>
+      </c>
+      <c r="L10">
+        <v>2.4916799999999999E-2</v>
+      </c>
+      <c r="M10">
+        <v>-2.2604399999999998E-3</v>
+      </c>
+      <c r="N10">
+        <v>5.20843E-3</v>
+      </c>
+      <c r="O10">
+        <v>-1.09563E-3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-7.2849700000000001E-7</v>
+      </c>
+      <c r="Q10">
+        <v>5.1318399999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>-1.5991E-3</v>
+      </c>
+      <c r="B11" s="1">
+        <v>5.2810799999999996E-6</v>
+      </c>
+      <c r="C11">
+        <v>-1.82737E-3</v>
+      </c>
+      <c r="D11">
+        <v>-7.2825799999999997E-4</v>
+      </c>
+      <c r="E11">
+        <v>-3.2164400000000003E-2</v>
+      </c>
+      <c r="F11">
+        <v>1.5231400000000001E-2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1.6317500000000001E-6</v>
+      </c>
+      <c r="H11">
+        <v>2.2604599999999999E-2</v>
+      </c>
+      <c r="I11">
+        <v>2.4383999999999999E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.3834500000000002E-2</v>
+      </c>
+      <c r="K11">
+        <v>3.22384E-2</v>
+      </c>
+      <c r="L11">
+        <v>2.4220700000000001E-2</v>
+      </c>
+      <c r="M11">
+        <v>-1.21637E-3</v>
+      </c>
+      <c r="N11">
+        <v>4.6169100000000001E-3</v>
+      </c>
+      <c r="O11">
+        <v>-9.0277E-4</v>
+      </c>
+      <c r="P11" s="1">
+        <v>-4.7997500000000001E-7</v>
+      </c>
+      <c r="Q11">
+        <v>3.6717899999999998E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>-3.5845199999999999E-3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>9.4290700000000005E-6</v>
+      </c>
+      <c r="C12">
+        <v>-2.57661E-3</v>
+      </c>
+      <c r="D12">
+        <v>-2.3968499999999998E-3</v>
+      </c>
+      <c r="E12">
+        <v>-2.7552699999999999E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.6778999999999999E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-1.13245E-5</v>
+      </c>
+      <c r="H12">
+        <v>2.33545E-2</v>
+      </c>
+      <c r="I12">
+        <v>2.6233300000000001E-2</v>
+      </c>
+      <c r="J12">
+        <v>2.4916799999999999E-2</v>
+      </c>
+      <c r="K12">
+        <v>2.4220700000000001E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.115316</v>
+      </c>
+      <c r="M12">
+        <v>-1.61925E-3</v>
+      </c>
+      <c r="N12">
+        <v>6.4622400000000002E-3</v>
+      </c>
+      <c r="O12">
+        <v>-1.1280699999999999E-3</v>
+      </c>
+      <c r="P12" s="1">
+        <v>-9.6084800000000006E-8</v>
+      </c>
+      <c r="Q12">
+        <v>3.9796999999999999E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>2.0949200000000001E-3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>-9.3846899999999998E-7</v>
+      </c>
+      <c r="C13">
+        <v>1.8764399999999999E-4</v>
+      </c>
+      <c r="D13">
+        <v>2.41699E-4</v>
+      </c>
+      <c r="E13">
+        <v>-4.3620400000000002E-3</v>
+      </c>
+      <c r="F13">
+        <v>1.10823E-3</v>
+      </c>
+      <c r="G13" s="1">
+        <v>-9.4537400000000001E-7</v>
+      </c>
+      <c r="H13" s="1">
+        <v>7.7152800000000008E-6</v>
+      </c>
+      <c r="I13">
+        <v>-3.6547200000000002E-3</v>
+      </c>
+      <c r="J13">
+        <v>-2.2604399999999998E-3</v>
+      </c>
+      <c r="K13">
+        <v>-1.21637E-3</v>
+      </c>
+      <c r="L13">
+        <v>-1.61925E-3</v>
+      </c>
+      <c r="M13">
+        <v>1.5174099999999999E-2</v>
+      </c>
+      <c r="N13">
+        <v>4.5818400000000002E-3</v>
+      </c>
+      <c r="O13">
+        <v>6.4175600000000001E-3</v>
+      </c>
+      <c r="P13" s="1">
+        <v>5.4362999999999995E-7</v>
+      </c>
+      <c r="Q13">
+        <v>-1.37558E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1.4938E-3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-3.17892E-7</v>
+      </c>
+      <c r="C14">
+        <v>1.6256800000000001E-4</v>
+      </c>
+      <c r="D14">
+        <v>9.0763499999999995E-4</v>
+      </c>
+      <c r="E14">
+        <v>-1.1147000000000001E-2</v>
+      </c>
+      <c r="F14">
+        <v>-3.4069999999999999E-4</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1.1644E-6</v>
+      </c>
+      <c r="H14">
+        <v>2.9549200000000002E-3</v>
+      </c>
+      <c r="I14">
+        <v>5.71624E-3</v>
+      </c>
+      <c r="J14">
+        <v>5.20843E-3</v>
+      </c>
+      <c r="K14">
+        <v>4.6169100000000001E-3</v>
+      </c>
+      <c r="L14">
+        <v>6.4622400000000002E-3</v>
+      </c>
+      <c r="M14">
+        <v>4.5818400000000002E-3</v>
+      </c>
+      <c r="N14">
+        <v>1.8064299999999998E-2</v>
+      </c>
+      <c r="O14">
+        <v>5.1433199999999998E-3</v>
+      </c>
+      <c r="P14" s="1">
+        <v>7.1862900000000005E-7</v>
+      </c>
+      <c r="Q14">
+        <v>2.02466E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>2.3985299999999998E-3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-4.51673E-7</v>
+      </c>
+      <c r="C15">
+        <v>-4.3275799999999999E-4</v>
+      </c>
+      <c r="D15">
+        <v>-7.7129800000000001E-4</v>
+      </c>
+      <c r="E15">
+        <v>-6.8009100000000003E-3</v>
+      </c>
+      <c r="F15">
+        <v>2.40318E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1.3126599999999999E-6</v>
+      </c>
+      <c r="H15" s="1">
+        <v>6.9305800000000003E-5</v>
+      </c>
+      <c r="I15">
+        <v>-1.85921E-3</v>
+      </c>
+      <c r="J15">
+        <v>-1.09563E-3</v>
+      </c>
+      <c r="K15">
+        <v>-9.0277E-4</v>
+      </c>
+      <c r="L15">
+        <v>-1.1280699999999999E-3</v>
+      </c>
+      <c r="M15">
+        <v>6.4175600000000001E-3</v>
+      </c>
+      <c r="N15">
+        <v>5.1433199999999998E-3</v>
+      </c>
+      <c r="O15">
+        <v>8.2889899999999996E-3</v>
+      </c>
+      <c r="P15" s="1">
+        <v>3.1045100000000001E-7</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>8.7447499999999999E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <v>4.9293100000000002E-6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>-1.3473300000000001E-8</v>
+      </c>
+      <c r="C16" s="1">
+        <v>2.5671799999999998E-7</v>
+      </c>
+      <c r="D16" s="1">
+        <v>4.1577799999999997E-6</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.1819000000000001E-6</v>
+      </c>
+      <c r="F16" s="1">
+        <v>-3.4775800000000002E-8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-7.4711200000000004E-10</v>
+      </c>
+      <c r="H16" s="1">
+        <v>-1.0660099999999999E-6</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-9.6218300000000003E-7</v>
+      </c>
+      <c r="J16" s="1">
+        <v>-7.2849700000000001E-7</v>
+      </c>
+      <c r="K16" s="1">
+        <v>-4.7997500000000001E-7</v>
+      </c>
+      <c r="L16" s="1">
+        <v>-9.6084800000000006E-8</v>
+      </c>
+      <c r="M16" s="1">
+        <v>5.4362999999999995E-7</v>
+      </c>
+      <c r="N16" s="1">
+        <v>7.1862900000000005E-7</v>
+      </c>
+      <c r="O16" s="1">
+        <v>3.1045100000000001E-7</v>
+      </c>
+      <c r="P16" s="1">
+        <v>4.30257E-9</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>-5.1174900000000001E-8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>8.7107999999999999E-4</v>
+      </c>
+      <c r="B17" s="1">
+        <v>3.1074900000000003E-7</v>
+      </c>
+      <c r="C17">
+        <v>-2.1261100000000001E-3</v>
+      </c>
+      <c r="D17">
+        <v>6.47874E-4</v>
+      </c>
+      <c r="E17">
+        <v>-1.3535800000000001E-3</v>
+      </c>
+      <c r="F17">
+        <v>2.3142800000000002E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>-2.7621899999999999E-7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>9.4128299999999998E-5</v>
+      </c>
+      <c r="I17">
+        <v>3.3626000000000001E-4</v>
+      </c>
+      <c r="J17">
+        <v>5.1318399999999997E-4</v>
+      </c>
+      <c r="K17">
+        <v>3.6717899999999998E-4</v>
+      </c>
+      <c r="L17">
+        <v>3.9796999999999999E-4</v>
+      </c>
+      <c r="M17">
+        <v>-1.37558E-4</v>
+      </c>
+      <c r="N17">
+        <v>2.02466E-4</v>
+      </c>
+      <c r="O17" s="1">
+        <v>8.7447499999999999E-5</v>
+      </c>
+      <c r="P17" s="1">
+        <v>-5.1174900000000001E-8</v>
+      </c>
+      <c r="Q17">
+        <v>8.0968900000000005E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/varcovRECORDS.xlsx
+++ b/data/varcovRECORDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7D0B648-1781-4150-A84E-764098604CC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D6549E-0E2C-47DD-9735-2B190E6EFB09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="8" activeTab="15" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="8" activeTab="16" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="0414" sheetId="1" r:id="rId1"/>
@@ -29,6 +29,7 @@
     <sheet name="0421" sheetId="14" r:id="rId14"/>
     <sheet name="0422" sheetId="15" r:id="rId15"/>
     <sheet name="0422origin" sheetId="16" r:id="rId16"/>
+    <sheet name="0.501" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -8858,7 +8859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91169AB-CFEB-4A51-9AA7-AB27737F658B}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
@@ -9763,6 +9764,1386 @@
       </c>
       <c r="Q17">
         <v>8.0968900000000005E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8921C815-D5D8-4765-9287-F0011E25BA07}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>5.6338300000000001E-2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-4.2503499999999997E-5</v>
+      </c>
+      <c r="C1">
+        <v>-4.5926700000000001E-3</v>
+      </c>
+      <c r="D1">
+        <v>5.1116900000000003E-3</v>
+      </c>
+      <c r="E1">
+        <v>1.4924999999999999E-3</v>
+      </c>
+      <c r="F1">
+        <v>-5.7729399999999998E-3</v>
+      </c>
+      <c r="G1" s="1">
+        <v>4.9913E-6</v>
+      </c>
+      <c r="H1">
+        <v>1.92394E-4</v>
+      </c>
+      <c r="I1">
+        <v>-1.5053200000000001E-3</v>
+      </c>
+      <c r="J1" s="1">
+        <v>-8.8598999999999997E-5</v>
+      </c>
+      <c r="K1">
+        <v>-6.1109200000000004E-4</v>
+      </c>
+      <c r="L1">
+        <v>-4.0090799999999999E-3</v>
+      </c>
+      <c r="M1">
+        <v>1.53268E-3</v>
+      </c>
+      <c r="N1">
+        <v>1.7125199999999999E-3</v>
+      </c>
+      <c r="O1">
+        <v>1.91354E-3</v>
+      </c>
+      <c r="P1">
+        <v>-6.6607500000000002E-4</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>-5.5900299999999997E-5</v>
+      </c>
+      <c r="R1">
+        <v>-4.1615599999999999E-4</v>
+      </c>
+      <c r="S1">
+        <v>4.4809000000000003E-3</v>
+      </c>
+      <c r="T1" s="1">
+        <v>4.9407500000000001E-6</v>
+      </c>
+      <c r="U1">
+        <v>6.98293E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>-4.2503499999999997E-5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.09824E-7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.10127E-6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-2.2978600000000001E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-2.32859E-5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.90983E-5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-6.44951E-9</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5.8812100000000004E-6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5.9201899999999998E-6</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3.4026299999999998E-6</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4.4239600000000001E-6</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1.3692100000000001E-5</v>
+      </c>
+      <c r="M2" s="1">
+        <v>1.17721E-6</v>
+      </c>
+      <c r="N2" s="1">
+        <v>3.4689099999999999E-8</v>
+      </c>
+      <c r="O2" s="1">
+        <v>5.34311E-7</v>
+      </c>
+      <c r="P2" s="1">
+        <v>1.58617E-6</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>2.5841599999999999E-6</v>
+      </c>
+      <c r="R2" s="1">
+        <v>5.6177999999999998E-6</v>
+      </c>
+      <c r="S2" s="1">
+        <v>-3.2366000000000001E-6</v>
+      </c>
+      <c r="T2" s="1">
+        <v>-1.2854499999999999E-8</v>
+      </c>
+      <c r="U2" s="1">
+        <v>3.3226300000000002E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>-4.5926700000000001E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.10127E-6</v>
+      </c>
+      <c r="C3">
+        <v>1.55236E-2</v>
+      </c>
+      <c r="D3">
+        <v>-2.37967E-3</v>
+      </c>
+      <c r="E3">
+        <v>2.6913699999999998E-3</v>
+      </c>
+      <c r="F3">
+        <v>-1.0674100000000001E-2</v>
+      </c>
+      <c r="G3" s="1">
+        <v>6.2244599999999996E-7</v>
+      </c>
+      <c r="H3">
+        <v>-1.84585E-3</v>
+      </c>
+      <c r="I3">
+        <v>-1.9927199999999999E-3</v>
+      </c>
+      <c r="J3">
+        <v>-2.5457600000000002E-3</v>
+      </c>
+      <c r="K3">
+        <v>-2.26289E-3</v>
+      </c>
+      <c r="L3">
+        <v>-2.65811E-3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-8.0042800000000006E-5</v>
+      </c>
+      <c r="N3">
+        <v>-2.2480300000000001E-4</v>
+      </c>
+      <c r="O3">
+        <v>-4.9747799999999998E-4</v>
+      </c>
+      <c r="P3" s="1">
+        <v>-7.6241400000000005E-5</v>
+      </c>
+      <c r="Q3">
+        <v>-1.63535E-3</v>
+      </c>
+      <c r="R3">
+        <v>-9.3506999999999998E-4</v>
+      </c>
+      <c r="S3">
+        <v>-2.57793E-3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>5.6791799999999999E-8</v>
+      </c>
+      <c r="U3">
+        <v>-2.0426699999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>5.1116900000000003E-3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-2.2978600000000001E-5</v>
+      </c>
+      <c r="C4">
+        <v>-2.37967E-3</v>
+      </c>
+      <c r="D4">
+        <v>1.9500799999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>4.9697099999999996E-3</v>
+      </c>
+      <c r="F4">
+        <v>-1.14375E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3.20404E-6</v>
+      </c>
+      <c r="H4">
+        <v>-2.3171300000000001E-3</v>
+      </c>
+      <c r="I4">
+        <v>-2.0883099999999999E-3</v>
+      </c>
+      <c r="J4">
+        <v>-4.8811299999999998E-4</v>
+      </c>
+      <c r="K4">
+        <v>-4.04619E-4</v>
+      </c>
+      <c r="L4">
+        <v>-4.5273300000000004E-3</v>
+      </c>
+      <c r="M4">
+        <v>1.8107299999999999E-4</v>
+      </c>
+      <c r="N4">
+        <v>1.4177199999999999E-3</v>
+      </c>
+      <c r="O4">
+        <v>-7.0015699999999997E-4</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-5.1898999999999999E-5</v>
+      </c>
+      <c r="Q4">
+        <v>-1.03378E-3</v>
+      </c>
+      <c r="R4">
+        <v>-1.5661500000000001E-3</v>
+      </c>
+      <c r="S4" s="1">
+        <v>-6.2655699999999997E-5</v>
+      </c>
+      <c r="T4" s="1">
+        <v>3.7023800000000002E-6</v>
+      </c>
+      <c r="U4">
+        <v>5.5781199999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1.4924999999999999E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-2.32859E-5</v>
+      </c>
+      <c r="C5">
+        <v>2.6913699999999998E-3</v>
+      </c>
+      <c r="D5">
+        <v>4.9697099999999996E-3</v>
+      </c>
+      <c r="E5">
+        <v>0.16042400000000001</v>
+      </c>
+      <c r="F5">
+        <v>-0.19362099999999999</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-2.9618999999999999E-5</v>
+      </c>
+      <c r="H5">
+        <v>-3.0867800000000001E-2</v>
+      </c>
+      <c r="I5">
+        <v>-3.73379E-2</v>
+      </c>
+      <c r="J5">
+        <v>-3.2280400000000001E-2</v>
+      </c>
+      <c r="K5">
+        <v>-3.35004E-2</v>
+      </c>
+      <c r="L5">
+        <v>-3.89935E-2</v>
+      </c>
+      <c r="M5">
+        <v>-7.0664999999999999E-3</v>
+      </c>
+      <c r="N5">
+        <v>-1.33226E-2</v>
+      </c>
+      <c r="O5">
+        <v>-1.0319399999999999E-2</v>
+      </c>
+      <c r="P5">
+        <v>1.9764499999999998E-3</v>
+      </c>
+      <c r="Q5">
+        <v>-1.2223400000000001E-2</v>
+      </c>
+      <c r="R5">
+        <v>-4.5808300000000001E-3</v>
+      </c>
+      <c r="S5">
+        <v>-1.3051999999999999E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>6.4517599999999995E-7</v>
+      </c>
+      <c r="U5">
+        <v>-1.4153600000000001E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>-5.7729399999999998E-3</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1.90983E-5</v>
+      </c>
+      <c r="C6">
+        <v>-1.0674100000000001E-2</v>
+      </c>
+      <c r="D6">
+        <v>-1.14375E-2</v>
+      </c>
+      <c r="E6">
+        <v>-0.19362099999999999</v>
+      </c>
+      <c r="F6">
+        <v>0.41209299999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-5.2723799999999998E-5</v>
+      </c>
+      <c r="H6">
+        <v>6.7903E-3</v>
+      </c>
+      <c r="I6">
+        <v>1.23115E-2</v>
+      </c>
+      <c r="J6">
+        <v>6.0578699999999999E-3</v>
+      </c>
+      <c r="K6">
+        <v>4.7569099999999996E-3</v>
+      </c>
+      <c r="L6">
+        <v>1.38932E-2</v>
+      </c>
+      <c r="M6">
+        <v>-4.5059800000000002E-4</v>
+      </c>
+      <c r="N6">
+        <v>-1.7899400000000001E-3</v>
+      </c>
+      <c r="O6">
+        <v>2.1280700000000001E-3</v>
+      </c>
+      <c r="P6">
+        <v>2.5732000000000001E-4</v>
+      </c>
+      <c r="Q6">
+        <v>8.3648899999999998E-3</v>
+      </c>
+      <c r="R6">
+        <v>-1.1348499999999999E-2</v>
+      </c>
+      <c r="S6">
+        <v>2.22913E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>-3.9113799999999999E-7</v>
+      </c>
+      <c r="U6">
+        <v>2.1394000000000001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A7" s="1">
+        <v>4.9913E-6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>-6.44951E-9</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.2244599999999996E-7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3.20404E-6</v>
+      </c>
+      <c r="E7" s="1">
+        <v>-2.9618999999999999E-5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-5.2723799999999998E-5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1.05481E-7</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-1.41438E-6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-8.7605700000000005E-7</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.2024299999999999E-7</v>
+      </c>
+      <c r="K7" s="1">
+        <v>3.7427600000000001E-6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>-3.1605699999999999E-6</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4.3389899999999996E-6</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4.24787E-6</v>
+      </c>
+      <c r="O7" s="1">
+        <v>6.4683700000000002E-6</v>
+      </c>
+      <c r="P7" s="1">
+        <v>-4.53424E-7</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>9.7903000000000001E-6</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3.6689199999999998E-6</v>
+      </c>
+      <c r="S7" s="1">
+        <v>-4.6436199999999996E-6</v>
+      </c>
+      <c r="T7" s="1">
+        <v>7.0776000000000005E-10</v>
+      </c>
+      <c r="U7" s="1">
+        <v>-5.9203100000000003E-8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1.92394E-4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5.8812100000000004E-6</v>
+      </c>
+      <c r="C8">
+        <v>-1.84585E-3</v>
+      </c>
+      <c r="D8">
+        <v>-2.3171300000000001E-3</v>
+      </c>
+      <c r="E8">
+        <v>-3.0867800000000001E-2</v>
+      </c>
+      <c r="F8">
+        <v>6.7903E-3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>-1.41438E-6</v>
+      </c>
+      <c r="H8">
+        <v>3.4360500000000002E-2</v>
+      </c>
+      <c r="I8">
+        <v>2.8845300000000001E-2</v>
+      </c>
+      <c r="J8">
+        <v>2.7820500000000001E-2</v>
+      </c>
+      <c r="K8">
+        <v>2.7301300000000001E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.9652399999999999E-2</v>
+      </c>
+      <c r="M8">
+        <v>2.00127E-4</v>
+      </c>
+      <c r="N8">
+        <v>3.30285E-3</v>
+      </c>
+      <c r="O8">
+        <v>4.5572000000000001E-4</v>
+      </c>
+      <c r="P8">
+        <v>-1.98131E-3</v>
+      </c>
+      <c r="Q8">
+        <v>-2.1560000000000001E-4</v>
+      </c>
+      <c r="R8">
+        <v>8.9651100000000001E-3</v>
+      </c>
+      <c r="S8">
+        <v>3.36659E-3</v>
+      </c>
+      <c r="T8" s="1">
+        <v>-7.2368700000000001E-7</v>
+      </c>
+      <c r="U8">
+        <v>1.8167300000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>-1.5053200000000001E-3</v>
+      </c>
+      <c r="B9" s="1">
+        <v>5.9201899999999998E-6</v>
+      </c>
+      <c r="C9">
+        <v>-1.9927199999999999E-3</v>
+      </c>
+      <c r="D9">
+        <v>-2.0883099999999999E-3</v>
+      </c>
+      <c r="E9">
+        <v>-3.73379E-2</v>
+      </c>
+      <c r="F9">
+        <v>1.23115E-2</v>
+      </c>
+      <c r="G9" s="1">
+        <v>-8.7605700000000005E-7</v>
+      </c>
+      <c r="H9">
+        <v>2.8845300000000001E-2</v>
+      </c>
+      <c r="I9">
+        <v>3.6596900000000002E-2</v>
+      </c>
+      <c r="J9">
+        <v>3.1125900000000001E-2</v>
+      </c>
+      <c r="K9">
+        <v>3.0021099999999998E-2</v>
+      </c>
+      <c r="L9">
+        <v>3.5952499999999998E-2</v>
+      </c>
+      <c r="M9">
+        <v>-2.2195100000000001E-3</v>
+      </c>
+      <c r="N9">
+        <v>6.6896999999999998E-3</v>
+      </c>
+      <c r="O9">
+        <v>-4.8477200000000001E-4</v>
+      </c>
+      <c r="P9">
+        <v>-2.5202900000000001E-3</v>
+      </c>
+      <c r="Q9">
+        <v>4.3146900000000004E-3</v>
+      </c>
+      <c r="R9">
+        <v>9.8267900000000002E-3</v>
+      </c>
+      <c r="S9">
+        <v>6.1094799999999996E-3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>-4.8923500000000003E-7</v>
+      </c>
+      <c r="U9">
+        <v>4.2540299999999998E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>-8.8598999999999997E-5</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.4026299999999998E-6</v>
+      </c>
+      <c r="C10">
+        <v>-2.5457600000000002E-3</v>
+      </c>
+      <c r="D10">
+        <v>-4.8811299999999998E-4</v>
+      </c>
+      <c r="E10">
+        <v>-3.2280400000000001E-2</v>
+      </c>
+      <c r="F10">
+        <v>6.0578699999999999E-3</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3.2024299999999999E-7</v>
+      </c>
+      <c r="H10">
+        <v>2.7820500000000001E-2</v>
+      </c>
+      <c r="I10">
+        <v>3.1125900000000001E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.5396299999999999E-2</v>
+      </c>
+      <c r="K10">
+        <v>2.8695399999999999E-2</v>
+      </c>
+      <c r="L10">
+        <v>3.1739099999999999E-2</v>
+      </c>
+      <c r="M10">
+        <v>-2.0055199999999998E-3</v>
+      </c>
+      <c r="N10">
+        <v>5.3660499999999998E-3</v>
+      </c>
+      <c r="O10">
+        <v>-5.13E-4</v>
+      </c>
+      <c r="P10">
+        <v>-2.0749700000000002E-3</v>
+      </c>
+      <c r="Q10">
+        <v>9.1998399999999999E-4</v>
+      </c>
+      <c r="R10">
+        <v>9.4365899999999999E-3</v>
+      </c>
+      <c r="S10">
+        <v>5.9285199999999996E-3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>-4.2556400000000001E-7</v>
+      </c>
+      <c r="U10">
+        <v>5.5197000000000004E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>-6.1109200000000004E-4</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.4239600000000001E-6</v>
+      </c>
+      <c r="C11">
+        <v>-2.26289E-3</v>
+      </c>
+      <c r="D11">
+        <v>-4.04619E-4</v>
+      </c>
+      <c r="E11">
+        <v>-3.35004E-2</v>
+      </c>
+      <c r="F11">
+        <v>4.7569099999999996E-3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>3.7427600000000001E-6</v>
+      </c>
+      <c r="H11">
+        <v>2.7301300000000001E-2</v>
+      </c>
+      <c r="I11">
+        <v>3.0021099999999998E-2</v>
+      </c>
+      <c r="J11">
+        <v>2.8695399999999999E-2</v>
+      </c>
+      <c r="K11">
+        <v>3.7820899999999998E-2</v>
+      </c>
+      <c r="L11">
+        <v>3.0654899999999999E-2</v>
+      </c>
+      <c r="M11">
+        <v>-5.5552300000000004E-4</v>
+      </c>
+      <c r="N11">
+        <v>5.8782399999999999E-3</v>
+      </c>
+      <c r="O11">
+        <v>1.8223600000000001E-4</v>
+      </c>
+      <c r="P11">
+        <v>-1.6093699999999999E-3</v>
+      </c>
+      <c r="Q11">
+        <v>6.0899499999999998E-4</v>
+      </c>
+      <c r="R11">
+        <v>8.3820200000000004E-3</v>
+      </c>
+      <c r="S11">
+        <v>9.6449299999999997E-4</v>
+      </c>
+      <c r="T11" s="1">
+        <v>-2.34039E-7</v>
+      </c>
+      <c r="U11">
+        <v>3.6235299999999999E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>-4.0090799999999999E-3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>1.3692100000000001E-5</v>
+      </c>
+      <c r="C12">
+        <v>-2.65811E-3</v>
+      </c>
+      <c r="D12">
+        <v>-4.5273300000000004E-3</v>
+      </c>
+      <c r="E12">
+        <v>-3.89935E-2</v>
+      </c>
+      <c r="F12">
+        <v>1.38932E-2</v>
+      </c>
+      <c r="G12" s="1">
+        <v>-3.1605699999999999E-6</v>
+      </c>
+      <c r="H12">
+        <v>2.9652399999999999E-2</v>
+      </c>
+      <c r="I12">
+        <v>3.5952499999999998E-2</v>
+      </c>
+      <c r="J12">
+        <v>3.1739099999999999E-2</v>
+      </c>
+      <c r="K12">
+        <v>3.0654899999999999E-2</v>
+      </c>
+      <c r="L12">
+        <v>0.12786700000000001</v>
+      </c>
+      <c r="M12">
+        <v>1.2334299999999999E-4</v>
+      </c>
+      <c r="N12">
+        <v>7.1419300000000003E-3</v>
+      </c>
+      <c r="O12" s="1">
+        <v>-2.3901200000000001E-5</v>
+      </c>
+      <c r="P12">
+        <v>-1.83734E-3</v>
+      </c>
+      <c r="Q12">
+        <v>8.4574000000000003E-3</v>
+      </c>
+      <c r="R12">
+        <v>1.30285E-2</v>
+      </c>
+      <c r="S12">
+        <v>4.9851599999999998E-3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>2.1991000000000002E-8</v>
+      </c>
+      <c r="U12">
+        <v>3.8585399999999998E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>1.53268E-3</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.17721E-6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-8.0042800000000006E-5</v>
+      </c>
+      <c r="D13">
+        <v>1.8107299999999999E-4</v>
+      </c>
+      <c r="E13">
+        <v>-7.0664999999999999E-3</v>
+      </c>
+      <c r="F13">
+        <v>-4.5059800000000002E-4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.3389899999999996E-6</v>
+      </c>
+      <c r="H13">
+        <v>2.00127E-4</v>
+      </c>
+      <c r="I13">
+        <v>-2.2195100000000001E-3</v>
+      </c>
+      <c r="J13">
+        <v>-2.0055199999999998E-3</v>
+      </c>
+      <c r="K13">
+        <v>-5.5552300000000004E-4</v>
+      </c>
+      <c r="L13">
+        <v>1.2334299999999999E-4</v>
+      </c>
+      <c r="M13">
+        <v>1.4598699999999999E-2</v>
+      </c>
+      <c r="N13">
+        <v>5.0164399999999996E-3</v>
+      </c>
+      <c r="O13">
+        <v>6.4545499999999999E-3</v>
+      </c>
+      <c r="P13">
+        <v>4.3009500000000002E-4</v>
+      </c>
+      <c r="Q13">
+        <v>1.4285000000000001E-3</v>
+      </c>
+      <c r="R13">
+        <v>4.3625499999999998E-4</v>
+      </c>
+      <c r="S13">
+        <v>-2.9235699999999999E-3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-1.94316E-8</v>
+      </c>
+      <c r="U13">
+        <v>-1.23144E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>1.7125199999999999E-3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>3.4689099999999999E-8</v>
+      </c>
+      <c r="C14">
+        <v>-2.2480300000000001E-4</v>
+      </c>
+      <c r="D14">
+        <v>1.4177199999999999E-3</v>
+      </c>
+      <c r="E14">
+        <v>-1.33226E-2</v>
+      </c>
+      <c r="F14">
+        <v>-1.7899400000000001E-3</v>
+      </c>
+      <c r="G14" s="1">
+        <v>4.24787E-6</v>
+      </c>
+      <c r="H14">
+        <v>3.30285E-3</v>
+      </c>
+      <c r="I14">
+        <v>6.6896999999999998E-3</v>
+      </c>
+      <c r="J14">
+        <v>5.3660499999999998E-3</v>
+      </c>
+      <c r="K14">
+        <v>5.8782399999999999E-3</v>
+      </c>
+      <c r="L14">
+        <v>7.1419300000000003E-3</v>
+      </c>
+      <c r="M14">
+        <v>5.0164399999999996E-3</v>
+      </c>
+      <c r="N14">
+        <v>1.9184699999999999E-2</v>
+      </c>
+      <c r="O14">
+        <v>5.5751899999999998E-3</v>
+      </c>
+      <c r="P14">
+        <v>6.1294500000000005E-4</v>
+      </c>
+      <c r="Q14">
+        <v>1.1540999999999999E-3</v>
+      </c>
+      <c r="R14">
+        <v>-3.2966200000000001E-3</v>
+      </c>
+      <c r="S14">
+        <v>1.04572E-3</v>
+      </c>
+      <c r="T14" s="1">
+        <v>5.9211900000000001E-7</v>
+      </c>
+      <c r="U14">
+        <v>2.21079E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1.91354E-3</v>
+      </c>
+      <c r="B15" s="1">
+        <v>5.34311E-7</v>
+      </c>
+      <c r="C15">
+        <v>-4.9747799999999998E-4</v>
+      </c>
+      <c r="D15">
+        <v>-7.0015699999999997E-4</v>
+      </c>
+      <c r="E15">
+        <v>-1.0319399999999999E-2</v>
+      </c>
+      <c r="F15">
+        <v>2.1280700000000001E-3</v>
+      </c>
+      <c r="G15" s="1">
+        <v>6.4683700000000002E-6</v>
+      </c>
+      <c r="H15">
+        <v>4.5572000000000001E-4</v>
+      </c>
+      <c r="I15">
+        <v>-4.8477200000000001E-4</v>
+      </c>
+      <c r="J15">
+        <v>-5.13E-4</v>
+      </c>
+      <c r="K15">
+        <v>1.8223600000000001E-4</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-2.3901200000000001E-5</v>
+      </c>
+      <c r="M15">
+        <v>6.4545499999999999E-3</v>
+      </c>
+      <c r="N15">
+        <v>5.5751899999999998E-3</v>
+      </c>
+      <c r="O15">
+        <v>8.6450399999999997E-3</v>
+      </c>
+      <c r="P15">
+        <v>1.52557E-4</v>
+      </c>
+      <c r="Q15">
+        <v>8.8100199999999998E-4</v>
+      </c>
+      <c r="R15">
+        <v>1.3750100000000001E-3</v>
+      </c>
+      <c r="S15">
+        <v>-2.5196400000000001E-3</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2.6146000000000001E-7</v>
+      </c>
+      <c r="U15" s="1">
+        <v>8.6681700000000001E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>-6.6607500000000002E-4</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1.58617E-6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>-7.6241400000000005E-5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>-5.1898999999999999E-5</v>
+      </c>
+      <c r="E16">
+        <v>1.9764499999999998E-3</v>
+      </c>
+      <c r="F16">
+        <v>2.5732000000000001E-4</v>
+      </c>
+      <c r="G16" s="1">
+        <v>-4.53424E-7</v>
+      </c>
+      <c r="H16">
+        <v>-1.98131E-3</v>
+      </c>
+      <c r="I16">
+        <v>-2.5202900000000001E-3</v>
+      </c>
+      <c r="J16">
+        <v>-2.0749700000000002E-3</v>
+      </c>
+      <c r="K16">
+        <v>-1.6093699999999999E-3</v>
+      </c>
+      <c r="L16">
+        <v>-1.83734E-3</v>
+      </c>
+      <c r="M16">
+        <v>4.3009500000000002E-4</v>
+      </c>
+      <c r="N16">
+        <v>6.1294500000000005E-4</v>
+      </c>
+      <c r="O16">
+        <v>1.52557E-4</v>
+      </c>
+      <c r="P16">
+        <v>2.4640600000000001E-3</v>
+      </c>
+      <c r="Q16">
+        <v>5.0858000000000001E-4</v>
+      </c>
+      <c r="R16">
+        <v>-3.0355600000000001E-3</v>
+      </c>
+      <c r="S16">
+        <v>-5.1531900000000002E-3</v>
+      </c>
+      <c r="T16" s="1">
+        <v>-3.1340300000000002E-7</v>
+      </c>
+      <c r="U16" s="1">
+        <v>-3.2091100000000002E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <v>-5.5900299999999997E-5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.5841599999999999E-6</v>
+      </c>
+      <c r="C17">
+        <v>-1.63535E-3</v>
+      </c>
+      <c r="D17">
+        <v>-1.03378E-3</v>
+      </c>
+      <c r="E17">
+        <v>-1.2223400000000001E-2</v>
+      </c>
+      <c r="F17">
+        <v>8.3648899999999998E-3</v>
+      </c>
+      <c r="G17" s="1">
+        <v>9.7903000000000001E-6</v>
+      </c>
+      <c r="H17">
+        <v>-2.1560000000000001E-4</v>
+      </c>
+      <c r="I17">
+        <v>4.3146900000000004E-3</v>
+      </c>
+      <c r="J17">
+        <v>9.1998399999999999E-4</v>
+      </c>
+      <c r="K17">
+        <v>6.0899499999999998E-4</v>
+      </c>
+      <c r="L17">
+        <v>8.4574000000000003E-3</v>
+      </c>
+      <c r="M17">
+        <v>1.4285000000000001E-3</v>
+      </c>
+      <c r="N17">
+        <v>1.1540999999999999E-3</v>
+      </c>
+      <c r="O17">
+        <v>8.8100199999999998E-4</v>
+      </c>
+      <c r="P17">
+        <v>5.0858000000000001E-4</v>
+      </c>
+      <c r="Q17">
+        <v>1.3928400000000001E-2</v>
+      </c>
+      <c r="R17">
+        <v>-3.1281400000000002E-3</v>
+      </c>
+      <c r="S17">
+        <v>3.9073600000000003E-3</v>
+      </c>
+      <c r="T17" s="1">
+        <v>-8.6002099999999997E-8</v>
+      </c>
+      <c r="U17">
+        <v>3.2092200000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>-4.1615599999999999E-4</v>
+      </c>
+      <c r="B18" s="1">
+        <v>5.6177999999999998E-6</v>
+      </c>
+      <c r="C18">
+        <v>-9.3506999999999998E-4</v>
+      </c>
+      <c r="D18">
+        <v>-1.5661500000000001E-3</v>
+      </c>
+      <c r="E18">
+        <v>-4.5808300000000001E-3</v>
+      </c>
+      <c r="F18">
+        <v>-1.1348499999999999E-2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3.6689199999999998E-6</v>
+      </c>
+      <c r="H18">
+        <v>8.9651100000000001E-3</v>
+      </c>
+      <c r="I18">
+        <v>9.8267900000000002E-3</v>
+      </c>
+      <c r="J18">
+        <v>9.4365899999999999E-3</v>
+      </c>
+      <c r="K18">
+        <v>8.3820200000000004E-3</v>
+      </c>
+      <c r="L18">
+        <v>1.30285E-2</v>
+      </c>
+      <c r="M18">
+        <v>4.3625499999999998E-4</v>
+      </c>
+      <c r="N18">
+        <v>-3.2966200000000001E-3</v>
+      </c>
+      <c r="O18">
+        <v>1.3750100000000001E-3</v>
+      </c>
+      <c r="P18">
+        <v>-3.0355600000000001E-3</v>
+      </c>
+      <c r="Q18">
+        <v>-3.1281400000000002E-3</v>
+      </c>
+      <c r="R18">
+        <v>4.6358299999999998E-2</v>
+      </c>
+      <c r="S18">
+        <v>1.0806100000000001E-3</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1.51824E-7</v>
+      </c>
+      <c r="U18" s="1">
+        <v>4.3273099999999997E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>4.4809000000000003E-3</v>
+      </c>
+      <c r="B19" s="1">
+        <v>-3.2366000000000001E-6</v>
+      </c>
+      <c r="C19">
+        <v>-2.57793E-3</v>
+      </c>
+      <c r="D19" s="1">
+        <v>-6.2655699999999997E-5</v>
+      </c>
+      <c r="E19">
+        <v>-1.3051999999999999E-2</v>
+      </c>
+      <c r="F19">
+        <v>2.22913E-2</v>
+      </c>
+      <c r="G19" s="1">
+        <v>-4.6436199999999996E-6</v>
+      </c>
+      <c r="H19">
+        <v>3.36659E-3</v>
+      </c>
+      <c r="I19">
+        <v>6.1094799999999996E-3</v>
+      </c>
+      <c r="J19">
+        <v>5.9285199999999996E-3</v>
+      </c>
+      <c r="K19">
+        <v>9.6449299999999997E-4</v>
+      </c>
+      <c r="L19">
+        <v>4.9851599999999998E-3</v>
+      </c>
+      <c r="M19">
+        <v>-2.9235699999999999E-3</v>
+      </c>
+      <c r="N19">
+        <v>1.04572E-3</v>
+      </c>
+      <c r="O19">
+        <v>-2.5196400000000001E-3</v>
+      </c>
+      <c r="P19">
+        <v>-5.1531900000000002E-3</v>
+      </c>
+      <c r="Q19">
+        <v>3.9073600000000003E-3</v>
+      </c>
+      <c r="R19">
+        <v>1.0806100000000001E-3</v>
+      </c>
+      <c r="S19">
+        <v>6.9617799999999994E-2</v>
+      </c>
+      <c r="T19" s="1">
+        <v>1.43064E-6</v>
+      </c>
+      <c r="U19">
+        <v>7.4832800000000004E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>4.9407500000000001E-6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>-1.2854499999999999E-8</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5.6791799999999999E-8</v>
+      </c>
+      <c r="D20" s="1">
+        <v>3.7023800000000002E-6</v>
+      </c>
+      <c r="E20" s="1">
+        <v>6.4517599999999995E-7</v>
+      </c>
+      <c r="F20" s="1">
+        <v>-3.9113799999999999E-7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>7.0776000000000005E-10</v>
+      </c>
+      <c r="H20" s="1">
+        <v>-7.2368700000000001E-7</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-4.8923500000000003E-7</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-4.2556400000000001E-7</v>
+      </c>
+      <c r="K20" s="1">
+        <v>-2.34039E-7</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2.1991000000000002E-8</v>
+      </c>
+      <c r="M20" s="1">
+        <v>-1.94316E-8</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5.9211900000000001E-7</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2.6146000000000001E-7</v>
+      </c>
+      <c r="P20" s="1">
+        <v>-3.1340300000000002E-7</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>-8.6002099999999997E-8</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1.51824E-7</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1.43064E-6</v>
+      </c>
+      <c r="T20" s="1">
+        <v>4.0614799999999999E-9</v>
+      </c>
+      <c r="U20" s="1">
+        <v>-6.5815499999999998E-8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>6.98293E-4</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.3226300000000002E-7</v>
+      </c>
+      <c r="C21">
+        <v>-2.0426699999999999E-3</v>
+      </c>
+      <c r="D21">
+        <v>5.5781199999999998E-4</v>
+      </c>
+      <c r="E21">
+        <v>-1.4153600000000001E-3</v>
+      </c>
+      <c r="F21">
+        <v>2.1394000000000001E-3</v>
+      </c>
+      <c r="G21" s="1">
+        <v>-5.9203100000000003E-8</v>
+      </c>
+      <c r="H21">
+        <v>1.8167300000000001E-4</v>
+      </c>
+      <c r="I21">
+        <v>4.2540299999999998E-4</v>
+      </c>
+      <c r="J21">
+        <v>5.5197000000000004E-4</v>
+      </c>
+      <c r="K21">
+        <v>3.6235299999999999E-4</v>
+      </c>
+      <c r="L21">
+        <v>3.8585399999999998E-4</v>
+      </c>
+      <c r="M21">
+        <v>-1.23144E-4</v>
+      </c>
+      <c r="N21">
+        <v>2.21079E-4</v>
+      </c>
+      <c r="O21" s="1">
+        <v>8.6681700000000001E-5</v>
+      </c>
+      <c r="P21" s="1">
+        <v>-3.2091100000000002E-5</v>
+      </c>
+      <c r="Q21">
+        <v>3.2092200000000001E-4</v>
+      </c>
+      <c r="R21" s="1">
+        <v>4.3273099999999997E-5</v>
+      </c>
+      <c r="S21">
+        <v>7.4832800000000004E-4</v>
+      </c>
+      <c r="T21" s="1">
+        <v>-6.5815499999999998E-8</v>
+      </c>
+      <c r="U21">
+        <v>8.1083900000000005E-4</v>
       </c>
     </row>
   </sheetData>

--- a/data/varcovRECORDS.xlsx
+++ b/data/varcovRECORDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29D6549E-0E2C-47DD-9735-2B190E6EFB09}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550448C2-422B-44B0-A648-46523F9EAB29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="8" activeTab="16" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
+    <workbookView xWindow="1702" yWindow="2130" windowWidth="13358" windowHeight="7823" firstSheet="12" activeTab="17" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="0414" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="0422" sheetId="15" r:id="rId15"/>
     <sheet name="0422origin" sheetId="16" r:id="rId16"/>
     <sheet name="0.501" sheetId="17" r:id="rId17"/>
+    <sheet name="onyatt" sheetId="18" r:id="rId18"/>
+    <sheet name="Sheet12" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -9775,7 +9777,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8921C815-D5D8-4765-9287-F0011E25BA07}">
   <dimension ref="A1:U21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -11147,6 +11149,194 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E16C6AB-562A-4168-A1EF-F74B095FA44C}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>5.5446200000000001E-2</v>
+      </c>
+      <c r="B1" s="1">
+        <v>-4.1239699999999998E-5</v>
+      </c>
+      <c r="C1">
+        <v>-5.6307299999999996E-3</v>
+      </c>
+      <c r="D1">
+        <v>3.48059E-3</v>
+      </c>
+      <c r="E1">
+        <v>1.4972799999999999E-3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5.0560399999999998E-6</v>
+      </c>
+      <c r="G1">
+        <v>9.2539300000000005E-4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>-4.1239699999999998E-5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.0926599999999999E-7</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1.2841900000000001E-6</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-2.3042200000000001E-5</v>
+      </c>
+      <c r="E2" s="1">
+        <v>-9.9210399999999998E-6</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-1.3736999999999999E-8</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1.4617199999999999E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>-5.6307299999999996E-3</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.2841900000000001E-6</v>
+      </c>
+      <c r="C3">
+        <v>1.6688000000000001E-2</v>
+      </c>
+      <c r="D3">
+        <v>-3.5547700000000001E-3</v>
+      </c>
+      <c r="E3">
+        <v>-4.88128E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.0624299999999999E-7</v>
+      </c>
+      <c r="G3">
+        <v>-2.1824399999999999E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3.48059E-3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>-2.3042200000000001E-5</v>
+      </c>
+      <c r="C4">
+        <v>-3.5547700000000001E-3</v>
+      </c>
+      <c r="D4">
+        <v>2.0985699999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>-1.15347E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>4.0716299999999997E-6</v>
+      </c>
+      <c r="G4">
+        <v>7.7072399999999998E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1.4972799999999999E-3</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-9.9210399999999998E-6</v>
+      </c>
+      <c r="C5">
+        <v>-4.88128E-3</v>
+      </c>
+      <c r="D5">
+        <v>-1.15347E-3</v>
+      </c>
+      <c r="E5">
+        <v>5.8846200000000001E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4.2801100000000001E-7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>9.2458200000000002E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A6" s="1">
+        <v>5.0560399999999998E-6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1.3736999999999999E-8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1.0624299999999999E-7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4.0716299999999997E-6</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.2801100000000001E-7</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.38268E-9</v>
+      </c>
+      <c r="G6" s="1">
+        <v>-4.2456300000000003E-8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>9.2539300000000005E-4</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1.4617199999999999E-7</v>
+      </c>
+      <c r="C7">
+        <v>-2.1824399999999999E-3</v>
+      </c>
+      <c r="D7">
+        <v>7.7072399999999998E-4</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.2458200000000002E-5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-4.2456300000000003E-8</v>
+      </c>
+      <c r="G7">
+        <v>8.1592199999999996E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BFAAC5B-3051-4A6D-936F-144FA184A49F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/data/varcovRECORDS.xlsx
+++ b/data/varcovRECORDS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\langzx\Desktop\github\DCM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550448C2-422B-44B0-A648-46523F9EAB29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5807F575-8DCA-4FA4-A591-6A40787A90E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1702" yWindow="2130" windowWidth="13358" windowHeight="7823" firstSheet="12" activeTab="17" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="18001" windowHeight="10996" firstSheet="12" activeTab="17" xr2:uid="{045447DC-94BD-4779-B40B-948717A74E2A}"/>
   </bookViews>
   <sheets>
     <sheet name="0414" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
     <sheet name="Sheet7" sheetId="12" r:id="rId12"/>
     <sheet name="0418origin" sheetId="13" r:id="rId13"/>
     <sheet name="0421" sheetId="14" r:id="rId14"/>
-    <sheet name="0422" sheetId="15" r:id="rId15"/>
+    <sheet name="0422_update0520" sheetId="15" r:id="rId15"/>
     <sheet name="0422origin" sheetId="16" r:id="rId16"/>
     <sheet name="0.501" sheetId="17" r:id="rId17"/>
     <sheet name="onyatt" sheetId="18" r:id="rId18"/>
@@ -7211,1645 +7211,1252 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C990F3C2-7811-4562-A2C3-EFC7F50FC5CA}">
-  <dimension ref="A1:W23"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>5.5616199999999998E-2</v>
+        <v>4.8962100000000001E-2</v>
       </c>
       <c r="B1" s="1">
-        <v>-4.2231499999999997E-5</v>
+        <v>-2.62481E-5</v>
       </c>
       <c r="C1">
-        <v>-4.5317200000000004E-3</v>
+        <v>-4.8688200000000003E-3</v>
       </c>
       <c r="D1">
-        <v>5.0530200000000001E-3</v>
+        <v>6.16626E-4</v>
       </c>
       <c r="E1">
-        <v>2.6741600000000001E-3</v>
+        <v>2.4732999999999999E-3</v>
       </c>
       <c r="F1">
-        <v>-6.7729699999999997E-3</v>
+        <v>-7.3362399999999999E-3</v>
       </c>
       <c r="G1" s="1">
-        <v>5.2949699999999997E-6</v>
+        <v>3.0332999999999998E-6</v>
       </c>
       <c r="H1" s="1">
-        <v>-7.0819099999999994E-5</v>
+        <v>7.8258199999999998E-4</v>
       </c>
       <c r="I1">
-        <v>-2.1849700000000001E-3</v>
-      </c>
-      <c r="J1">
-        <v>-5.3434299999999995E-4</v>
+        <v>-1.47846E-3</v>
+      </c>
+      <c r="J1" s="1">
+        <v>-5.4111699999999999E-5</v>
       </c>
       <c r="K1">
-        <v>-8.3249699999999997E-4</v>
+        <v>-1.0588500000000001E-3</v>
       </c>
       <c r="L1">
-        <v>-4.6573500000000002E-3</v>
+        <v>-6.1671699999999996E-3</v>
       </c>
       <c r="M1">
-        <v>1.3159700000000001E-3</v>
+        <v>1.41402E-3</v>
       </c>
       <c r="N1">
-        <v>1.21349E-3</v>
+        <v>1.00453E-3</v>
       </c>
       <c r="O1">
-        <v>1.81722E-3</v>
+        <v>1.9055000000000001E-3</v>
       </c>
       <c r="P1">
-        <v>4.1492100000000001E-4</v>
+        <v>-2.4879399999999999E-4</v>
       </c>
       <c r="Q1">
-        <v>-2.1285299999999999E-4</v>
+        <v>-1.15869E-4</v>
       </c>
       <c r="R1">
-        <v>-1.09946E-3</v>
+        <v>-3.5912599999999998E-4</v>
       </c>
       <c r="S1">
-        <v>4.3912300000000003E-3</v>
-      </c>
-      <c r="T1">
-        <v>-2.6234400000000002E-4</v>
-      </c>
-      <c r="U1">
-        <v>-6.1052899999999995E-4</v>
-      </c>
-      <c r="V1" s="1">
-        <v>4.8051E-6</v>
-      </c>
-      <c r="W1">
-        <v>6.4730699999999996E-4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.45">
+        <v>2.8828999999999999E-3</v>
+      </c>
+      <c r="T1" s="1">
+        <v>1.0225799999999999E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>-4.2231499999999997E-5</v>
+        <v>-2.62481E-5</v>
       </c>
       <c r="B2" s="1">
-        <v>1.1021199999999999E-7</v>
+        <v>6.8626699999999993E-8</v>
       </c>
       <c r="C2" s="1">
-        <v>1.13729E-6</v>
+        <v>1.39428E-6</v>
       </c>
       <c r="D2" s="1">
-        <v>-2.30756E-5</v>
+        <v>-1.1130399999999999E-5</v>
       </c>
       <c r="E2" s="1">
-        <v>-2.4740100000000001E-5</v>
+        <v>-2.1336500000000001E-5</v>
       </c>
       <c r="F2" s="1">
-        <v>2.0353899999999998E-5</v>
+        <v>1.8444000000000002E-5</v>
       </c>
       <c r="G2" s="1">
-        <v>-7.1494299999999998E-9</v>
+        <v>-4.0732499999999998E-9</v>
       </c>
       <c r="H2" s="1">
-        <v>6.1717499999999998E-6</v>
+        <v>3.8220799999999997E-6</v>
       </c>
       <c r="I2" s="1">
-        <v>7.21945E-6</v>
+        <v>4.4589800000000003E-6</v>
       </c>
       <c r="J2" s="1">
-        <v>4.3544000000000002E-6</v>
+        <v>2.2610500000000001E-6</v>
       </c>
       <c r="K2" s="1">
-        <v>5.5052799999999999E-6</v>
+        <v>4.4377099999999997E-6</v>
       </c>
       <c r="L2" s="1">
-        <v>1.5135499999999999E-5</v>
+        <v>1.4418300000000001E-5</v>
       </c>
       <c r="M2" s="1">
-        <v>1.1965399999999999E-6</v>
+        <v>1.39243E-6</v>
       </c>
       <c r="N2" s="1">
-        <v>8.2243300000000002E-7</v>
+        <v>1.5667E-6</v>
       </c>
       <c r="O2" s="1">
-        <v>2.6826499999999997E-7</v>
+        <v>1.03371E-6</v>
       </c>
       <c r="P2" s="1">
-        <v>2.5409399999999999E-6</v>
+        <v>2.7487E-6</v>
       </c>
       <c r="Q2" s="1">
-        <v>2.8049999999999998E-6</v>
+        <v>2.1991299999999998E-6</v>
       </c>
       <c r="R2" s="1">
-        <v>5.3048999999999998E-6</v>
+        <v>4.5154099999999999E-6</v>
       </c>
       <c r="S2" s="1">
-        <v>-3.9583900000000002E-6</v>
+        <v>6.2119500000000005E-7</v>
       </c>
       <c r="T2" s="1">
-        <v>6.1301700000000004E-7</v>
-      </c>
-      <c r="U2" s="1">
-        <v>1.2926699999999999E-6</v>
-      </c>
-      <c r="V2" s="1">
-        <v>-1.25868E-8</v>
-      </c>
-      <c r="W2" s="1">
-        <v>3.9421300000000001E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.45">
+        <v>-8.9046999999999997E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>-4.5317200000000004E-3</v>
+        <v>-4.8688200000000003E-3</v>
       </c>
       <c r="B3" s="1">
-        <v>1.13729E-6</v>
+        <v>1.39428E-6</v>
       </c>
       <c r="C3">
-        <v>1.5469699999999999E-2</v>
+        <v>1.50844E-2</v>
       </c>
       <c r="D3">
-        <v>-2.14175E-3</v>
+        <v>-2.75472E-3</v>
       </c>
       <c r="E3">
-        <v>2.8442300000000001E-3</v>
+        <v>3.1833899999999999E-3</v>
       </c>
       <c r="F3">
-        <v>-1.09817E-2</v>
+        <v>-1.10364E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>4.6576699999999999E-7</v>
+        <v>5.7736300000000001E-7</v>
       </c>
       <c r="H3">
-        <v>-1.68118E-3</v>
+        <v>-1.9212299999999999E-3</v>
       </c>
       <c r="I3">
-        <v>-1.94812E-3</v>
+        <v>-2.0761099999999999E-3</v>
       </c>
       <c r="J3">
-        <v>-2.4403799999999998E-3</v>
+        <v>-2.3747199999999999E-3</v>
       </c>
       <c r="K3">
-        <v>-2.1110899999999999E-3</v>
+        <v>-1.9630200000000002E-3</v>
       </c>
       <c r="L3">
-        <v>-2.5128300000000002E-3</v>
+        <v>-2.77736E-3</v>
       </c>
       <c r="M3" s="1">
-        <v>1.7186000000000001E-5</v>
-      </c>
-      <c r="N3">
-        <v>-1.3647299999999999E-4</v>
+        <v>-3.1450500000000003E-4</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-6.7627999999999997E-5</v>
       </c>
       <c r="O3">
-        <v>-5.4698699999999997E-4</v>
+        <v>-6.4210999999999999E-4</v>
       </c>
       <c r="P3">
-        <v>4.1686099999999998E-4</v>
+        <v>8.7656799999999999E-4</v>
       </c>
       <c r="Q3">
-        <v>-1.65774E-3</v>
+        <v>-1.5673200000000001E-3</v>
       </c>
       <c r="R3">
-        <v>-9.1633600000000002E-4</v>
+        <v>-1.6186E-3</v>
       </c>
       <c r="S3">
-        <v>-2.1844299999999998E-3</v>
-      </c>
-      <c r="T3">
-        <v>-2.0514700000000001E-4</v>
-      </c>
-      <c r="U3" s="1">
-        <v>-9.5658599999999999E-5</v>
-      </c>
-      <c r="V3" s="1">
-        <v>1.1169399999999999E-7</v>
-      </c>
-      <c r="W3">
-        <v>-2.0273000000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.45">
+        <v>-2.5910099999999999E-3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>-1.9774100000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>5.0530200000000001E-3</v>
+        <v>6.16626E-4</v>
       </c>
       <c r="B4" s="1">
-        <v>-2.30756E-5</v>
+        <v>-1.1130399999999999E-5</v>
       </c>
       <c r="C4">
-        <v>-2.14175E-3</v>
+        <v>-2.75472E-3</v>
       </c>
       <c r="D4">
-        <v>1.9539899999999999E-2</v>
+        <v>1.62928E-2</v>
       </c>
       <c r="E4">
-        <v>5.0671800000000001E-3</v>
+        <v>3.8654800000000001E-3</v>
       </c>
       <c r="F4">
-        <v>-1.16927E-2</v>
+        <v>-9.5987799999999995E-3</v>
       </c>
       <c r="G4" s="1">
-        <v>3.55898E-6</v>
+        <v>1.4783399999999999E-6</v>
       </c>
       <c r="H4">
-        <v>-2.4532500000000001E-3</v>
+        <v>-1.2779E-3</v>
       </c>
       <c r="I4">
-        <v>-2.32986E-3</v>
+        <v>-1.0792099999999999E-3</v>
       </c>
       <c r="J4">
-        <v>-7.2986899999999996E-4</v>
+        <v>2.7452599999999998E-4</v>
       </c>
       <c r="K4">
-        <v>-6.5038499999999996E-4</v>
+        <v>-2.7508099999999999E-4</v>
       </c>
       <c r="L4">
-        <v>-4.9240600000000001E-3</v>
+        <v>-3.5994600000000001E-3</v>
       </c>
       <c r="M4">
-        <v>1.3282100000000001E-4</v>
+        <v>-1.3240600000000001E-4</v>
       </c>
       <c r="N4">
-        <v>1.20382E-3</v>
+        <v>8.5716299999999998E-4</v>
       </c>
       <c r="O4">
-        <v>-5.78072E-4</v>
+        <v>-1.0772900000000001E-3</v>
       </c>
       <c r="P4">
-        <v>-4.8507599999999998E-4</v>
+        <v>-3.9929800000000002E-4</v>
       </c>
       <c r="Q4">
-        <v>-1.02282E-3</v>
+        <v>-1.10483E-3</v>
       </c>
       <c r="R4">
-        <v>-1.8180200000000001E-3</v>
+        <v>-6.9701799999999999E-4</v>
       </c>
       <c r="S4" s="1">
-        <v>1.5468199999999999E-5</v>
-      </c>
-      <c r="T4">
-        <v>1.2141599999999999E-3</v>
-      </c>
-      <c r="U4">
-        <v>-1.3743499999999999E-4</v>
-      </c>
-      <c r="V4" s="1">
-        <v>3.6612000000000002E-6</v>
-      </c>
-      <c r="W4">
-        <v>5.2591699999999999E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.45">
+        <v>-1.20184E-4</v>
+      </c>
+      <c r="T4" s="1">
+        <v>7.2583100000000002E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>2.6741600000000001E-3</v>
+        <v>2.4732999999999999E-3</v>
       </c>
       <c r="B5" s="1">
-        <v>-2.4740100000000001E-5</v>
+        <v>-2.1336500000000001E-5</v>
       </c>
       <c r="C5">
-        <v>2.8442300000000001E-3</v>
+        <v>3.1833899999999999E-3</v>
       </c>
       <c r="D5">
-        <v>5.0671800000000001E-3</v>
+        <v>3.8654800000000001E-3</v>
       </c>
       <c r="E5">
-        <v>0.16414599999999999</v>
+        <v>0.156059</v>
       </c>
       <c r="F5">
-        <v>-0.19814100000000001</v>
+        <v>-0.192552</v>
       </c>
       <c r="G5" s="1">
-        <v>-3.1502499999999999E-5</v>
+        <v>-3.1110399999999999E-5</v>
       </c>
       <c r="H5">
-        <v>-2.98917E-2</v>
+        <v>-2.7548099999999999E-2</v>
       </c>
       <c r="I5">
-        <v>-3.7548699999999997E-2</v>
+        <v>-3.29133E-2</v>
       </c>
       <c r="J5">
-        <v>-3.0867599999999999E-2</v>
+        <v>-2.8760899999999999E-2</v>
       </c>
       <c r="K5">
-        <v>-3.3198199999999997E-2</v>
+        <v>-3.0261E-2</v>
       </c>
       <c r="L5">
-        <v>-3.9617100000000002E-2</v>
+        <v>-3.3223900000000001E-2</v>
       </c>
       <c r="M5">
-        <v>-6.3384399999999999E-3</v>
+        <v>-6.9995300000000003E-3</v>
       </c>
       <c r="N5">
-        <v>-1.3572600000000001E-2</v>
+        <v>-1.21557E-2</v>
       </c>
       <c r="O5">
-        <v>-1.0755199999999999E-2</v>
+        <v>-9.7762400000000003E-3</v>
       </c>
       <c r="P5">
-        <v>3.3307499999999999E-3</v>
+        <v>3.2486199999999998E-3</v>
       </c>
       <c r="Q5">
-        <v>-1.2878499999999999E-2</v>
+        <v>-1.16066E-2</v>
       </c>
       <c r="R5">
-        <v>-4.4942599999999999E-3</v>
+        <v>-4.6362199999999999E-3</v>
       </c>
       <c r="S5">
-        <v>-9.9219900000000003E-3</v>
-      </c>
-      <c r="T5">
-        <v>-9.6891400000000006E-3</v>
-      </c>
-      <c r="U5">
-        <v>2.1069000000000001E-3</v>
-      </c>
-      <c r="V5" s="1">
-        <v>7.4168400000000001E-7</v>
-      </c>
-      <c r="W5">
-        <v>-1.4536900000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.45">
+        <v>-1.0531799999999999E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>-1.4972799999999999E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>-6.7729699999999997E-3</v>
+        <v>-7.3362399999999999E-3</v>
       </c>
       <c r="B6" s="1">
-        <v>2.0353899999999998E-5</v>
+        <v>1.8444000000000002E-5</v>
       </c>
       <c r="C6">
-        <v>-1.09817E-2</v>
+        <v>-1.10364E-2</v>
       </c>
       <c r="D6">
-        <v>-1.16927E-2</v>
+        <v>-9.5987799999999995E-3</v>
       </c>
       <c r="E6">
-        <v>-0.19814100000000001</v>
+        <v>-0.192552</v>
       </c>
       <c r="F6">
-        <v>0.41821999999999998</v>
+        <v>0.39926699999999998</v>
       </c>
       <c r="G6" s="1">
-        <v>-5.0247000000000002E-5</v>
+        <v>-5.0005900000000002E-5</v>
       </c>
       <c r="H6">
-        <v>5.1140100000000004E-3</v>
+        <v>1.02142E-2</v>
       </c>
       <c r="I6">
-        <v>1.29456E-2</v>
+        <v>1.53718E-2</v>
       </c>
       <c r="J6">
-        <v>4.7813600000000001E-3</v>
+        <v>9.4198000000000007E-3</v>
       </c>
       <c r="K6">
-        <v>5.10649E-3</v>
+        <v>9.0692600000000009E-3</v>
       </c>
       <c r="L6">
-        <v>1.4127499999999999E-2</v>
+        <v>1.47758E-2</v>
       </c>
       <c r="M6">
-        <v>-1.58464E-3</v>
+        <v>1.06291E-3</v>
       </c>
       <c r="N6">
-        <v>-1.4583700000000001E-3</v>
+        <v>-7.6385699999999995E-4</v>
       </c>
       <c r="O6">
-        <v>2.2936300000000001E-3</v>
+        <v>2.7166600000000001E-3</v>
       </c>
       <c r="P6">
-        <v>-1.7668600000000001E-4</v>
+        <v>-3.7755299999999998E-4</v>
       </c>
       <c r="Q6">
-        <v>9.2354299999999993E-3</v>
+        <v>6.1092500000000001E-3</v>
       </c>
       <c r="R6">
-        <v>-1.25343E-2</v>
+        <v>-9.8442800000000004E-3</v>
       </c>
       <c r="S6">
-        <v>1.8416399999999999E-2</v>
-      </c>
-      <c r="T6">
-        <v>9.9267899999999996E-3</v>
-      </c>
-      <c r="U6">
-        <v>-1.0582300000000001E-4</v>
-      </c>
-      <c r="V6" s="1">
-        <v>-3.7143100000000001E-7</v>
-      </c>
-      <c r="W6">
-        <v>2.2406000000000001E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.45">
+        <v>2.0129399999999999E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>2.09925E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>5.2949699999999997E-6</v>
+        <v>3.0332999999999998E-6</v>
       </c>
       <c r="B7" s="1">
-        <v>-7.1494299999999998E-9</v>
+        <v>-4.0732499999999998E-9</v>
       </c>
       <c r="C7" s="1">
-        <v>4.6576699999999999E-7</v>
+        <v>5.7736300000000001E-7</v>
       </c>
       <c r="D7" s="1">
-        <v>3.55898E-6</v>
+        <v>1.4783399999999999E-6</v>
       </c>
       <c r="E7" s="1">
-        <v>-3.1502499999999999E-5</v>
+        <v>-3.1110399999999999E-5</v>
       </c>
       <c r="F7" s="1">
-        <v>-5.0247000000000002E-5</v>
+        <v>-5.0005900000000002E-5</v>
       </c>
       <c r="G7" s="1">
-        <v>1.06109E-7</v>
+        <v>1.0858899999999999E-7</v>
       </c>
       <c r="H7" s="1">
-        <v>-1.55847E-6</v>
+        <v>-1.43259E-6</v>
       </c>
       <c r="I7" s="1">
-        <v>-1.2810000000000001E-6</v>
+        <v>-1.2727600000000001E-6</v>
       </c>
       <c r="J7" s="1">
-        <v>-6.3031399999999999E-7</v>
+        <v>-1.6890499999999999E-7</v>
       </c>
       <c r="K7" s="1">
-        <v>2.5203400000000001E-6</v>
+        <v>2.8055200000000002E-6</v>
       </c>
       <c r="L7" s="1">
-        <v>-2.6813500000000002E-6</v>
+        <v>-5.0931600000000004E-6</v>
       </c>
       <c r="M7" s="1">
-        <v>4.20302E-6</v>
+        <v>3.3249600000000001E-6</v>
       </c>
       <c r="N7" s="1">
-        <v>4.2437499999999998E-6</v>
+        <v>3.1932300000000002E-6</v>
       </c>
       <c r="O7" s="1">
-        <v>7.1589500000000003E-6</v>
+        <v>5.9182499999999996E-6</v>
       </c>
       <c r="P7" s="1">
-        <v>-5.33556E-6</v>
+        <v>-5.00956E-6</v>
       </c>
       <c r="Q7" s="1">
-        <v>1.0105199999999999E-5</v>
+        <v>1.04517E-5</v>
       </c>
       <c r="R7" s="1">
-        <v>5.4682100000000003E-6</v>
+        <v>6.25852E-6</v>
       </c>
       <c r="S7" s="1">
-        <v>-4.1830200000000001E-6</v>
+        <v>-3.23864E-6</v>
       </c>
       <c r="T7" s="1">
-        <v>3.2207100000000002E-6</v>
-      </c>
-      <c r="U7" s="1">
-        <v>-4.3398199999999997E-7</v>
-      </c>
-      <c r="V7" s="1">
-        <v>7.6958900000000002E-10</v>
-      </c>
-      <c r="W7" s="1">
-        <v>-4.7963399999999999E-8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.45">
+        <v>-6.6985599999999997E-9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>-7.0819099999999994E-5</v>
+        <v>7.8258199999999998E-4</v>
       </c>
       <c r="B8" s="1">
-        <v>6.1717499999999998E-6</v>
+        <v>3.8220799999999997E-6</v>
       </c>
       <c r="C8">
-        <v>-1.68118E-3</v>
+        <v>-1.9212299999999999E-3</v>
       </c>
       <c r="D8">
-        <v>-2.4532500000000001E-3</v>
+        <v>-1.2779E-3</v>
       </c>
       <c r="E8">
-        <v>-2.98917E-2</v>
+        <v>-2.7548099999999999E-2</v>
       </c>
       <c r="F8">
-        <v>5.1140100000000004E-3</v>
+        <v>1.02142E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>-1.55847E-6</v>
+        <v>-1.43259E-6</v>
       </c>
       <c r="H8">
-        <v>3.4509900000000003E-2</v>
+        <v>2.9283900000000002E-2</v>
       </c>
       <c r="I8">
-        <v>2.8864899999999999E-2</v>
+        <v>2.3673300000000001E-2</v>
       </c>
       <c r="J8">
-        <v>2.79089E-2</v>
+        <v>2.3118900000000001E-2</v>
       </c>
       <c r="K8">
-        <v>2.7571399999999999E-2</v>
+        <v>2.3069200000000002E-2</v>
       </c>
       <c r="L8">
-        <v>2.95734E-2</v>
+        <v>2.46977E-2</v>
       </c>
       <c r="M8" s="1">
-        <v>9.1227499999999993E-5</v>
+        <v>2.1484400000000001E-4</v>
       </c>
       <c r="N8">
-        <v>3.4541400000000001E-3</v>
+        <v>2.9191299999999998E-3</v>
       </c>
       <c r="O8">
-        <v>2.70127E-4</v>
+        <v>1.75639E-4</v>
       </c>
       <c r="P8">
-        <v>1.26548E-3</v>
+        <v>6.9420300000000001E-4</v>
       </c>
       <c r="Q8">
-        <v>-5.0076299999999999E-4</v>
+        <v>1.62736E-4</v>
       </c>
       <c r="R8">
-        <v>8.4637099999999993E-3</v>
+        <v>5.7528800000000001E-3</v>
       </c>
       <c r="S8">
-        <v>2.5066400000000001E-3</v>
-      </c>
-      <c r="T8">
-        <v>1.95262E-4</v>
-      </c>
-      <c r="U8">
-        <v>-2.0069799999999998E-3</v>
-      </c>
-      <c r="V8" s="1">
-        <v>-7.6031400000000001E-7</v>
-      </c>
-      <c r="W8">
-        <v>1.6361199999999999E-4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.45">
+        <v>-2.4381199999999999E-4</v>
+      </c>
+      <c r="T8" s="1">
+        <v>1.46926E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>-2.1849700000000001E-3</v>
+        <v>-1.47846E-3</v>
       </c>
       <c r="B9" s="1">
-        <v>7.21945E-6</v>
+        <v>4.4589800000000003E-6</v>
       </c>
       <c r="C9">
-        <v>-1.94812E-3</v>
+        <v>-2.0761099999999999E-3</v>
       </c>
       <c r="D9">
-        <v>-2.32986E-3</v>
+        <v>-1.0792099999999999E-3</v>
       </c>
       <c r="E9">
-        <v>-3.7548699999999997E-2</v>
+        <v>-3.29133E-2</v>
       </c>
       <c r="F9">
-        <v>1.29456E-2</v>
+        <v>1.53718E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>-1.2810000000000001E-6</v>
+        <v>-1.2727600000000001E-6</v>
       </c>
       <c r="H9">
-        <v>2.8864899999999999E-2</v>
+        <v>2.3673300000000001E-2</v>
       </c>
       <c r="I9">
-        <v>3.6582400000000001E-2</v>
+        <v>3.0667400000000001E-2</v>
       </c>
       <c r="J9">
-        <v>3.0933599999999999E-2</v>
+        <v>2.5917599999999999E-2</v>
       </c>
       <c r="K9">
-        <v>3.0123299999999999E-2</v>
+        <v>2.5125100000000001E-2</v>
       </c>
       <c r="L9">
-        <v>3.6012599999999999E-2</v>
+        <v>3.0841E-2</v>
       </c>
       <c r="M9">
-        <v>-2.2373900000000001E-3</v>
+        <v>-2.1944899999999999E-3</v>
       </c>
       <c r="N9">
-        <v>6.6499599999999999E-3</v>
+        <v>5.8920400000000003E-3</v>
       </c>
       <c r="O9">
-        <v>-5.8151199999999996E-4</v>
+        <v>-9.0609999999999996E-4</v>
       </c>
       <c r="P9">
-        <v>4.78729E-4</v>
+        <v>-3.2584200000000002E-4</v>
       </c>
       <c r="Q9">
-        <v>4.1180899999999996E-3</v>
+        <v>4.5784900000000002E-3</v>
       </c>
       <c r="R9">
-        <v>8.8714899999999992E-3</v>
+        <v>7.0664300000000003E-3</v>
       </c>
       <c r="S9">
-        <v>4.0275399999999996E-3</v>
-      </c>
-      <c r="T9">
-        <v>2.95999E-3</v>
-      </c>
-      <c r="U9">
-        <v>-2.5064699999999998E-3</v>
-      </c>
-      <c r="V9" s="1">
-        <v>-6.5518300000000005E-7</v>
-      </c>
-      <c r="W9">
-        <v>3.9951100000000002E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>-5.3434299999999995E-4</v>
+        <v>1.63762E-3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>4.0435599999999998E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <v>-5.4111699999999999E-5</v>
       </c>
       <c r="B10" s="1">
-        <v>4.3544000000000002E-6</v>
+        <v>2.2610500000000001E-6</v>
       </c>
       <c r="C10">
-        <v>-2.4403799999999998E-3</v>
+        <v>-2.3747199999999999E-3</v>
       </c>
       <c r="D10">
-        <v>-7.2986899999999996E-4</v>
+        <v>2.7452599999999998E-4</v>
       </c>
       <c r="E10">
-        <v>-3.0867599999999999E-2</v>
+        <v>-2.8760899999999999E-2</v>
       </c>
       <c r="F10">
-        <v>4.7813600000000001E-3</v>
+        <v>9.4198000000000007E-3</v>
       </c>
       <c r="G10" s="1">
-        <v>-6.3031399999999999E-7</v>
+        <v>-1.6890499999999999E-7</v>
       </c>
       <c r="H10">
-        <v>2.79089E-2</v>
+        <v>2.3118900000000001E-2</v>
       </c>
       <c r="I10">
-        <v>3.0933599999999999E-2</v>
+        <v>2.5917599999999999E-2</v>
       </c>
       <c r="J10">
-        <v>3.5284900000000001E-2</v>
+        <v>3.0511300000000002E-2</v>
       </c>
       <c r="K10">
-        <v>2.8843799999999999E-2</v>
+        <v>2.43197E-2</v>
       </c>
       <c r="L10">
-        <v>3.1443600000000002E-2</v>
+        <v>2.6845999999999998E-2</v>
       </c>
       <c r="M10">
-        <v>-2.20594E-3</v>
+        <v>-2.0805799999999998E-3</v>
       </c>
       <c r="N10">
-        <v>5.2608400000000001E-3</v>
+        <v>4.9945199999999997E-3</v>
       </c>
       <c r="O10">
-        <v>-8.1532499999999999E-4</v>
+        <v>-7.9839899999999998E-4</v>
       </c>
       <c r="P10">
-        <v>1.5358800000000001E-3</v>
+        <v>4.2361500000000002E-4</v>
       </c>
       <c r="Q10">
-        <v>5.6470100000000003E-4</v>
+        <v>1.2129899999999999E-3</v>
       </c>
       <c r="R10">
-        <v>8.5585100000000001E-3</v>
+        <v>6.49265E-3</v>
       </c>
       <c r="S10">
-        <v>4.63956E-3</v>
-      </c>
-      <c r="T10">
-        <v>1.2307E-4</v>
-      </c>
-      <c r="U10">
-        <v>-1.9783499999999998E-3</v>
-      </c>
-      <c r="V10" s="1">
-        <v>-5.95843E-7</v>
-      </c>
-      <c r="W10">
-        <v>4.8923200000000003E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.45">
+        <v>1.5822799999999999E-3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>5.1580500000000004E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>-8.3249699999999997E-4</v>
+        <v>-1.0588500000000001E-3</v>
       </c>
       <c r="B11" s="1">
-        <v>5.5052799999999999E-6</v>
+        <v>4.4377099999999997E-6</v>
       </c>
       <c r="C11">
-        <v>-2.1110899999999999E-3</v>
+        <v>-1.9630200000000002E-3</v>
       </c>
       <c r="D11">
-        <v>-6.5038499999999996E-4</v>
+        <v>-2.7508099999999999E-4</v>
       </c>
       <c r="E11">
-        <v>-3.3198199999999997E-2</v>
+        <v>-3.0261E-2</v>
       </c>
       <c r="F11">
-        <v>5.10649E-3</v>
+        <v>9.0692600000000009E-3</v>
       </c>
       <c r="G11" s="1">
-        <v>2.5203400000000001E-6</v>
+        <v>2.8055200000000002E-6</v>
       </c>
       <c r="H11">
-        <v>2.7571399999999999E-2</v>
+        <v>2.3069200000000002E-2</v>
       </c>
       <c r="I11">
-        <v>3.0123299999999999E-2</v>
+        <v>2.5125100000000001E-2</v>
       </c>
       <c r="J11">
-        <v>2.8843799999999999E-2</v>
+        <v>2.43197E-2</v>
       </c>
       <c r="K11">
-        <v>3.7984400000000001E-2</v>
+        <v>3.3927400000000003E-2</v>
       </c>
       <c r="L11">
-        <v>3.0664799999999999E-2</v>
+        <v>2.5904699999999999E-2</v>
       </c>
       <c r="M11">
-        <v>-6.3641999999999995E-4</v>
+        <v>-6.1140700000000001E-4</v>
       </c>
       <c r="N11">
-        <v>5.9792999999999999E-3</v>
+        <v>4.9019099999999998E-3</v>
       </c>
       <c r="O11" s="1">
-        <v>2.8245599999999999E-5</v>
+        <v>-2.8464799999999998E-4</v>
       </c>
       <c r="P11">
-        <v>2.45744E-3</v>
+        <v>1.8564899999999999E-3</v>
       </c>
       <c r="Q11">
-        <v>1.3481999999999999E-4</v>
+        <v>7.34313E-4</v>
       </c>
       <c r="R11">
-        <v>7.3670000000000003E-3</v>
+        <v>5.5057700000000001E-3</v>
       </c>
       <c r="S11">
-        <v>-1.09256E-3</v>
-      </c>
-      <c r="T11">
-        <v>1.28001E-3</v>
-      </c>
-      <c r="U11">
-        <v>-1.75154E-3</v>
-      </c>
-      <c r="V11" s="1">
-        <v>-2.8622999999999999E-7</v>
-      </c>
-      <c r="W11">
-        <v>3.3266099999999999E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.45">
+        <v>-2.5676900000000001E-3</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3.06853E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>-4.6573500000000002E-3</v>
+        <v>-6.1671699999999996E-3</v>
       </c>
       <c r="B12" s="1">
-        <v>1.5135499999999999E-5</v>
+        <v>1.4418300000000001E-5</v>
       </c>
       <c r="C12">
-        <v>-2.5128300000000002E-3</v>
+        <v>-2.77736E-3</v>
       </c>
       <c r="D12">
-        <v>-4.9240600000000001E-3</v>
+        <v>-3.5994600000000001E-3</v>
       </c>
       <c r="E12">
-        <v>-3.9617100000000002E-2</v>
+        <v>-3.3223900000000001E-2</v>
       </c>
       <c r="F12">
-        <v>1.4127499999999999E-2</v>
+        <v>1.47758E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>-2.6813500000000002E-6</v>
+        <v>-5.0931600000000004E-6</v>
       </c>
       <c r="H12">
-        <v>2.95734E-2</v>
+        <v>2.46977E-2</v>
       </c>
       <c r="I12">
-        <v>3.6012599999999999E-2</v>
+        <v>3.0841E-2</v>
       </c>
       <c r="J12">
-        <v>3.1443600000000002E-2</v>
+        <v>2.6845999999999998E-2</v>
       </c>
       <c r="K12">
-        <v>3.0664799999999999E-2</v>
+        <v>2.5904699999999999E-2</v>
       </c>
       <c r="L12">
-        <v>0.13400899999999999</v>
+        <v>0.137299</v>
       </c>
       <c r="M12" s="1">
-        <v>9.1673900000000007E-6</v>
+        <v>-2.4580899999999999E-4</v>
       </c>
       <c r="N12">
-        <v>7.1019899999999999E-3</v>
+        <v>5.7494399999999998E-3</v>
       </c>
       <c r="O12" s="1">
-        <v>-9.6034099999999993E-6</v>
+        <v>-7.5265399999999995E-4</v>
       </c>
       <c r="P12">
-        <v>-7.0058999999999996E-4</v>
+        <v>-2.23003E-3</v>
       </c>
       <c r="Q12">
-        <v>8.3480399999999993E-3</v>
+        <v>9.3680099999999995E-3</v>
       </c>
       <c r="R12">
-        <v>1.2345500000000001E-2</v>
+        <v>1.0985E-2</v>
       </c>
       <c r="S12">
-        <v>2.3257400000000002E-3</v>
-      </c>
-      <c r="T12">
-        <v>4.2934599999999998E-3</v>
-      </c>
-      <c r="U12">
-        <v>-1.79835E-3</v>
-      </c>
-      <c r="V12" s="1">
-        <v>-2.2047199999999999E-7</v>
-      </c>
-      <c r="W12">
-        <v>3.4214100000000002E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.45">
+        <v>1.37356E-3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>3.7801700000000002E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>1.3159700000000001E-3</v>
+        <v>1.41402E-3</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1965399999999999E-6</v>
+        <v>1.39243E-6</v>
       </c>
       <c r="C13" s="1">
-        <v>1.7186000000000001E-5</v>
+        <v>-3.1450500000000003E-4</v>
       </c>
       <c r="D13">
-        <v>1.3282100000000001E-4</v>
+        <v>-1.3240600000000001E-4</v>
       </c>
       <c r="E13">
-        <v>-6.3384399999999999E-3</v>
+        <v>-6.9995300000000003E-3</v>
       </c>
       <c r="F13">
-        <v>-1.58464E-3</v>
+        <v>1.06291E-3</v>
       </c>
       <c r="G13" s="1">
-        <v>4.20302E-6</v>
+        <v>3.3249600000000001E-6</v>
       </c>
       <c r="H13" s="1">
-        <v>9.1227499999999993E-5</v>
+        <v>2.1484400000000001E-4</v>
       </c>
       <c r="I13">
-        <v>-2.2373900000000001E-3</v>
+        <v>-2.1944899999999999E-3</v>
       </c>
       <c r="J13">
-        <v>-2.20594E-3</v>
+        <v>-2.0805799999999998E-3</v>
       </c>
       <c r="K13">
-        <v>-6.3641999999999995E-4</v>
+        <v>-6.1140700000000001E-4</v>
       </c>
       <c r="L13" s="1">
-        <v>9.1673900000000007E-6</v>
+        <v>-2.4580899999999999E-4</v>
       </c>
       <c r="M13">
-        <v>1.4525400000000001E-2</v>
+        <v>1.45693E-2</v>
       </c>
       <c r="N13">
-        <v>5.0961799999999996E-3</v>
+        <v>4.4626600000000002E-3</v>
       </c>
       <c r="O13">
-        <v>6.4487700000000004E-3</v>
+        <v>6.1996999999999998E-3</v>
       </c>
       <c r="P13" s="1">
-        <v>-4.4404899999999999E-5</v>
+        <v>7.7873600000000006E-5</v>
       </c>
       <c r="Q13">
-        <v>1.3566100000000001E-3</v>
+        <v>1.49979E-3</v>
       </c>
       <c r="R13">
-        <v>3.2642199999999999E-4</v>
+        <v>9.9235699999999992E-4</v>
       </c>
       <c r="S13">
-        <v>-3.2250600000000001E-3</v>
-      </c>
-      <c r="T13">
-        <v>2.1954599999999999E-4</v>
-      </c>
-      <c r="U13">
-        <v>4.7170799999999999E-4</v>
-      </c>
-      <c r="V13" s="1">
-        <v>-3.8322999999999998E-8</v>
-      </c>
-      <c r="W13">
-        <v>-1.3373399999999999E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.45">
+        <v>-1.51155E-3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>-4.8963900000000004E-6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>1.21349E-3</v>
+        <v>1.00453E-3</v>
       </c>
       <c r="B14" s="1">
-        <v>8.2243300000000002E-7</v>
-      </c>
-      <c r="C14">
-        <v>-1.3647299999999999E-4</v>
+        <v>1.5667E-6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-6.7627999999999997E-5</v>
       </c>
       <c r="D14">
-        <v>1.20382E-3</v>
+        <v>8.5716299999999998E-4</v>
       </c>
       <c r="E14">
-        <v>-1.3572600000000001E-2</v>
+        <v>-1.21557E-2</v>
       </c>
       <c r="F14">
-        <v>-1.4583700000000001E-3</v>
+        <v>-7.6385699999999995E-4</v>
       </c>
       <c r="G14" s="1">
-        <v>4.2437499999999998E-6</v>
+        <v>3.1932300000000002E-6</v>
       </c>
       <c r="H14">
-        <v>3.4541400000000001E-3</v>
+        <v>2.9191299999999998E-3</v>
       </c>
       <c r="I14">
-        <v>6.6499599999999999E-3</v>
+        <v>5.8920400000000003E-3</v>
       </c>
       <c r="J14">
-        <v>5.2608400000000001E-3</v>
+        <v>4.9945199999999997E-3</v>
       </c>
       <c r="K14">
-        <v>5.9792999999999999E-3</v>
+        <v>4.9019099999999998E-3</v>
       </c>
       <c r="L14">
-        <v>7.1019899999999999E-3</v>
+        <v>5.7494399999999998E-3</v>
       </c>
       <c r="M14">
-        <v>5.0961799999999996E-3</v>
+        <v>4.4626600000000002E-3</v>
       </c>
       <c r="N14">
-        <v>1.91659E-2</v>
+        <v>1.8039699999999999E-2</v>
       </c>
       <c r="O14">
-        <v>5.5753499999999998E-3</v>
+        <v>5.0046300000000004E-3</v>
       </c>
       <c r="P14">
-        <v>2.30163E-4</v>
+        <v>7.7572199999999996E-4</v>
       </c>
       <c r="Q14">
-        <v>1.13952E-3</v>
+        <v>5.5756499999999999E-4</v>
       </c>
       <c r="R14">
-        <v>-3.8310499999999999E-3</v>
+        <v>-2.0286499999999999E-3</v>
       </c>
       <c r="S14">
-        <v>6.7383600000000003E-4</v>
-      </c>
-      <c r="T14">
-        <v>7.3455799999999996E-4</v>
-      </c>
-      <c r="U14">
-        <v>7.3025100000000001E-4</v>
-      </c>
-      <c r="V14" s="1">
-        <v>4.5989000000000002E-7</v>
-      </c>
-      <c r="W14">
-        <v>1.9856299999999999E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.45">
+        <v>2.1396900000000001E-3</v>
+      </c>
+      <c r="T14" s="1">
+        <v>3.1909800000000003E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>1.81722E-3</v>
+        <v>1.9055000000000001E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>2.6826499999999997E-7</v>
+        <v>1.03371E-6</v>
       </c>
       <c r="C15">
-        <v>-5.4698699999999997E-4</v>
+        <v>-6.4210999999999999E-4</v>
       </c>
       <c r="D15">
-        <v>-5.78072E-4</v>
+        <v>-1.0772900000000001E-3</v>
       </c>
       <c r="E15">
-        <v>-1.0755199999999999E-2</v>
+        <v>-9.7762400000000003E-3</v>
       </c>
       <c r="F15">
-        <v>2.2936300000000001E-3</v>
+        <v>2.7166600000000001E-3</v>
       </c>
       <c r="G15" s="1">
-        <v>7.1589500000000003E-6</v>
+        <v>5.9182499999999996E-6</v>
       </c>
       <c r="H15">
-        <v>2.70127E-4</v>
+        <v>1.75639E-4</v>
       </c>
       <c r="I15">
-        <v>-5.8151199999999996E-4</v>
+        <v>-9.0609999999999996E-4</v>
       </c>
       <c r="J15">
-        <v>-8.1532499999999999E-4</v>
+        <v>-7.9839899999999998E-4</v>
       </c>
       <c r="K15" s="1">
-        <v>2.8245599999999999E-5</v>
+        <v>-2.8464799999999998E-4</v>
       </c>
       <c r="L15" s="1">
-        <v>-9.6034099999999993E-6</v>
+        <v>-7.5265399999999995E-4</v>
       </c>
       <c r="M15">
-        <v>6.4487700000000004E-3</v>
+        <v>6.1996999999999998E-3</v>
       </c>
       <c r="N15">
-        <v>5.5753499999999998E-3</v>
+        <v>5.0046300000000004E-3</v>
       </c>
       <c r="O15">
-        <v>8.7902299999999996E-3</v>
+        <v>8.4041199999999993E-3</v>
       </c>
       <c r="P15">
-        <v>-1.3687199999999999E-3</v>
+        <v>-7.5520899999999996E-4</v>
       </c>
       <c r="Q15">
-        <v>1.0220400000000001E-3</v>
+        <v>7.7731100000000004E-4</v>
       </c>
       <c r="R15">
-        <v>1.7223E-3</v>
+        <v>2.1421600000000002E-3</v>
       </c>
       <c r="S15">
-        <v>-2.6055800000000001E-3</v>
-      </c>
-      <c r="T15">
-        <v>9.0895600000000004E-4</v>
-      </c>
-      <c r="U15">
-        <v>2.0541099999999999E-4</v>
-      </c>
-      <c r="V15" s="1">
-        <v>2.5909599999999998E-7</v>
-      </c>
-      <c r="W15" s="1">
-        <v>8.8474500000000001E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.45">
+        <v>-1.54268E-3</v>
+      </c>
+      <c r="T15" s="1">
+        <v>2.0872299999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16">
-        <v>4.1492100000000001E-4</v>
+        <v>-2.4879399999999999E-4</v>
       </c>
       <c r="B16" s="1">
-        <v>2.5409399999999999E-6</v>
+        <v>2.7487E-6</v>
       </c>
       <c r="C16">
-        <v>4.1686099999999998E-4</v>
+        <v>8.7656799999999999E-4</v>
       </c>
       <c r="D16">
-        <v>-4.8507599999999998E-4</v>
+        <v>-3.9929800000000002E-4</v>
       </c>
       <c r="E16">
-        <v>3.3307499999999999E-3</v>
+        <v>3.2486199999999998E-3</v>
       </c>
       <c r="F16">
-        <v>-1.7668600000000001E-4</v>
+        <v>-3.7755299999999998E-4</v>
       </c>
       <c r="G16" s="1">
-        <v>-5.33556E-6</v>
+        <v>-5.00956E-6</v>
       </c>
       <c r="H16">
-        <v>1.26548E-3</v>
+        <v>6.9420300000000001E-4</v>
       </c>
       <c r="I16">
-        <v>4.78729E-4</v>
+        <v>-3.2584200000000002E-4</v>
       </c>
       <c r="J16">
-        <v>1.5358800000000001E-3</v>
+        <v>4.2361500000000002E-4</v>
       </c>
       <c r="K16">
-        <v>2.45744E-3</v>
+        <v>1.8564899999999999E-3</v>
       </c>
       <c r="L16">
-        <v>-7.0058999999999996E-4</v>
+        <v>-2.23003E-3</v>
       </c>
       <c r="M16" s="1">
-        <v>-4.4404899999999999E-5</v>
+        <v>7.7873600000000006E-5</v>
       </c>
       <c r="N16">
-        <v>2.30163E-4</v>
+        <v>7.7572199999999996E-4</v>
       </c>
       <c r="O16">
-        <v>-1.3687199999999999E-3</v>
+        <v>-7.5520899999999996E-4</v>
       </c>
       <c r="P16">
-        <v>1.7694000000000001E-2</v>
+        <v>1.6338800000000001E-2</v>
       </c>
       <c r="Q16">
-        <v>-1.89218E-3</v>
+        <v>-1.8088799999999999E-3</v>
       </c>
       <c r="R16">
-        <v>-6.5282200000000004E-3</v>
+        <v>-7.5239499999999997E-3</v>
       </c>
       <c r="S16">
-        <v>-7.6344500000000001E-3</v>
-      </c>
-      <c r="T16">
-        <v>1.6006E-3</v>
-      </c>
-      <c r="U16">
-        <v>-1.11611E-3</v>
-      </c>
-      <c r="V16" s="1">
-        <v>6.4874099999999995E-8</v>
-      </c>
-      <c r="W16">
-        <v>-2.0999699999999999E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.45">
+        <v>-8.1546499999999994E-3</v>
+      </c>
+      <c r="T16" s="1">
+        <v>-3.3092799999999997E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A17">
-        <v>-2.1285299999999999E-4</v>
+        <v>-1.15869E-4</v>
       </c>
       <c r="B17" s="1">
-        <v>2.8049999999999998E-6</v>
+        <v>2.1991299999999998E-6</v>
       </c>
       <c r="C17">
-        <v>-1.65774E-3</v>
+        <v>-1.5673200000000001E-3</v>
       </c>
       <c r="D17">
-        <v>-1.02282E-3</v>
+        <v>-1.10483E-3</v>
       </c>
       <c r="E17">
-        <v>-1.2878499999999999E-2</v>
+        <v>-1.16066E-2</v>
       </c>
       <c r="F17">
-        <v>9.2354299999999993E-3</v>
+        <v>6.1092500000000001E-3</v>
       </c>
       <c r="G17" s="1">
-        <v>1.0105199999999999E-5</v>
+        <v>1.04517E-5</v>
       </c>
       <c r="H17">
-        <v>-5.0076299999999999E-4</v>
+        <v>1.62736E-4</v>
       </c>
       <c r="I17">
-        <v>4.1180899999999996E-3</v>
+        <v>4.5784900000000002E-3</v>
       </c>
       <c r="J17">
-        <v>5.6470100000000003E-4</v>
+        <v>1.2129899999999999E-3</v>
       </c>
       <c r="K17">
-        <v>1.3481999999999999E-4</v>
+        <v>7.34313E-4</v>
       </c>
       <c r="L17">
-        <v>8.3480399999999993E-3</v>
+        <v>9.3680099999999995E-3</v>
       </c>
       <c r="M17">
-        <v>1.3566100000000001E-3</v>
+        <v>1.49979E-3</v>
       </c>
       <c r="N17">
-        <v>1.13952E-3</v>
+        <v>5.5756499999999999E-4</v>
       </c>
       <c r="O17">
-        <v>1.0220400000000001E-3</v>
+        <v>7.7731100000000004E-4</v>
       </c>
       <c r="P17">
-        <v>-1.89218E-3</v>
+        <v>-1.8088799999999999E-3</v>
       </c>
       <c r="Q17">
-        <v>1.43479E-2</v>
+        <v>1.3825799999999999E-2</v>
       </c>
       <c r="R17">
-        <v>-2.8776100000000001E-3</v>
+        <v>-1.23751E-3</v>
       </c>
       <c r="S17">
-        <v>3.8164700000000002E-3</v>
+        <v>6.1293600000000004E-3</v>
       </c>
       <c r="T17" s="1">
-        <v>-3.6448200000000001E-5</v>
-      </c>
-      <c r="U17">
-        <v>7.6145499999999997E-4</v>
-      </c>
-      <c r="V17" s="1">
-        <v>-1.4385699999999999E-7</v>
-      </c>
-      <c r="W17">
-        <v>3.2690600000000002E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.45">
+        <v>2.6296799999999998E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A18">
-        <v>-1.09946E-3</v>
+        <v>-3.5912599999999998E-4</v>
       </c>
       <c r="B18" s="1">
-        <v>5.3048999999999998E-6</v>
+        <v>4.5154099999999999E-6</v>
       </c>
       <c r="C18">
-        <v>-9.1633600000000002E-4</v>
+        <v>-1.6186E-3</v>
       </c>
       <c r="D18">
-        <v>-1.8180200000000001E-3</v>
+        <v>-6.9701799999999999E-4</v>
       </c>
       <c r="E18">
-        <v>-4.4942599999999999E-3</v>
+        <v>-4.6362199999999999E-3</v>
       </c>
       <c r="F18">
-        <v>-1.25343E-2</v>
+        <v>-9.8442800000000004E-3</v>
       </c>
       <c r="G18" s="1">
-        <v>5.4682100000000003E-6</v>
+        <v>6.25852E-6</v>
       </c>
       <c r="H18">
-        <v>8.4637099999999993E-3</v>
+        <v>5.7528800000000001E-3</v>
       </c>
       <c r="I18">
-        <v>8.8714899999999992E-3</v>
+        <v>7.0664300000000003E-3</v>
       </c>
       <c r="J18">
-        <v>8.5585100000000001E-3</v>
+        <v>6.49265E-3</v>
       </c>
       <c r="K18">
-        <v>7.3670000000000003E-3</v>
+        <v>5.5057700000000001E-3</v>
       </c>
       <c r="L18">
-        <v>1.2345500000000001E-2</v>
+        <v>1.0985E-2</v>
       </c>
       <c r="M18">
-        <v>3.2642199999999999E-4</v>
+        <v>9.9235699999999992E-4</v>
       </c>
       <c r="N18">
-        <v>-3.8310499999999999E-3</v>
+        <v>-2.0286499999999999E-3</v>
       </c>
       <c r="O18">
-        <v>1.7223E-3</v>
+        <v>2.1421600000000002E-3</v>
       </c>
       <c r="P18">
-        <v>-6.5282200000000004E-3</v>
+        <v>-7.5239499999999997E-3</v>
       </c>
       <c r="Q18">
-        <v>-2.8776100000000001E-3</v>
+        <v>-1.23751E-3</v>
       </c>
       <c r="R18">
-        <v>4.8808600000000001E-2</v>
+        <v>4.3670300000000002E-2</v>
       </c>
       <c r="S18">
-        <v>3.9978399999999999E-3</v>
-      </c>
-      <c r="T18">
-        <v>-4.50783E-3</v>
-      </c>
-      <c r="U18">
-        <v>-2.3289999999999999E-3</v>
-      </c>
-      <c r="V18" s="1">
-        <v>-2.79997E-8</v>
-      </c>
-      <c r="W18" s="1">
-        <v>8.3914799999999998E-5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.45">
+        <v>-1.6407500000000001E-3</v>
+      </c>
+      <c r="T18" s="1">
+        <v>1.93974E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A19">
-        <v>4.3912300000000003E-3</v>
+        <v>2.8828999999999999E-3</v>
       </c>
       <c r="B19" s="1">
-        <v>-3.9583900000000002E-6</v>
+        <v>6.2119500000000005E-7</v>
       </c>
       <c r="C19">
-        <v>-2.1844299999999998E-3</v>
+        <v>-2.5910099999999999E-3</v>
       </c>
       <c r="D19" s="1">
-        <v>1.5468199999999999E-5</v>
+        <v>-1.20184E-4</v>
       </c>
       <c r="E19">
-        <v>-9.9219900000000003E-3</v>
+        <v>-1.0531799999999999E-2</v>
       </c>
       <c r="F19">
-        <v>1.8416399999999999E-2</v>
+        <v>2.0129399999999999E-2</v>
       </c>
       <c r="G19" s="1">
-        <v>-4.1830200000000001E-6</v>
+        <v>-3.23864E-6</v>
       </c>
       <c r="H19">
-        <v>2.5066400000000001E-3</v>
+        <v>-2.4381199999999999E-4</v>
       </c>
       <c r="I19">
-        <v>4.0275399999999996E-3</v>
+        <v>1.63762E-3</v>
       </c>
       <c r="J19">
-        <v>4.63956E-3</v>
+        <v>1.5822799999999999E-3</v>
       </c>
       <c r="K19">
-        <v>-1.09256E-3</v>
+        <v>-2.5676900000000001E-3</v>
       </c>
       <c r="L19">
-        <v>2.3257400000000002E-3</v>
+        <v>1.37356E-3</v>
       </c>
       <c r="M19">
-        <v>-3.2250600000000001E-3</v>
+        <v>-1.51155E-3</v>
       </c>
       <c r="N19">
-        <v>6.7383600000000003E-4</v>
+        <v>2.1396900000000001E-3</v>
       </c>
       <c r="O19">
-        <v>-2.6055800000000001E-3</v>
+        <v>-1.54268E-3</v>
       </c>
       <c r="P19">
-        <v>-7.6344500000000001E-3</v>
+        <v>-8.1546499999999994E-3</v>
       </c>
       <c r="Q19">
-        <v>3.8164700000000002E-3</v>
+        <v>6.1293600000000004E-3</v>
       </c>
       <c r="R19">
-        <v>3.9978399999999999E-3</v>
+        <v>-1.6407500000000001E-3</v>
       </c>
       <c r="S19">
-        <v>7.6398599999999997E-2</v>
-      </c>
-      <c r="T19">
-        <v>-1.0229200000000001E-2</v>
-      </c>
-      <c r="U19">
-        <v>-3.2990200000000002E-3</v>
-      </c>
-      <c r="V19" s="1">
-        <v>8.7426599999999995E-7</v>
-      </c>
-      <c r="W19">
-        <v>6.3433399999999996E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>-2.6234400000000002E-4</v>
+        <v>6.2276999999999999E-2</v>
+      </c>
+      <c r="T19" s="1">
+        <v>8.5516300000000004E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <v>1.0225799999999999E-3</v>
       </c>
       <c r="B20" s="1">
-        <v>6.1301700000000004E-7</v>
-      </c>
-      <c r="C20">
-        <v>-2.0514700000000001E-4</v>
-      </c>
-      <c r="D20">
-        <v>1.2141599999999999E-3</v>
-      </c>
-      <c r="E20">
-        <v>-9.6891400000000006E-3</v>
-      </c>
-      <c r="F20">
-        <v>9.9267899999999996E-3</v>
+        <v>-8.9046999999999997E-9</v>
+      </c>
+      <c r="C20" s="1">
+        <v>-1.9774100000000002E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>7.2583100000000002E-4</v>
+      </c>
+      <c r="E20" s="1">
+        <v>-1.4972799999999999E-3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2.09925E-3</v>
       </c>
       <c r="G20" s="1">
-        <v>3.2207100000000002E-6</v>
-      </c>
-      <c r="H20">
-        <v>1.95262E-4</v>
-      </c>
-      <c r="I20">
-        <v>2.95999E-3</v>
-      </c>
-      <c r="J20">
-        <v>1.2307E-4</v>
-      </c>
-      <c r="K20">
-        <v>1.28001E-3</v>
-      </c>
-      <c r="L20">
-        <v>4.2934599999999998E-3</v>
-      </c>
-      <c r="M20">
-        <v>2.1954599999999999E-4</v>
-      </c>
-      <c r="N20">
-        <v>7.3455799999999996E-4</v>
-      </c>
-      <c r="O20">
-        <v>9.0895600000000004E-4</v>
-      </c>
-      <c r="P20">
-        <v>1.6006E-3</v>
+        <v>-6.6985599999999997E-9</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1.46926E-4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4.0435599999999998E-4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5.1580500000000004E-4</v>
+      </c>
+      <c r="K20" s="1">
+        <v>3.06853E-4</v>
+      </c>
+      <c r="L20" s="1">
+        <v>3.7801700000000002E-4</v>
+      </c>
+      <c r="M20" s="1">
+        <v>-4.8963900000000004E-6</v>
+      </c>
+      <c r="N20" s="1">
+        <v>3.1909800000000003E-4</v>
+      </c>
+      <c r="O20" s="1">
+        <v>2.0872299999999999E-4</v>
+      </c>
+      <c r="P20" s="1">
+        <v>-3.3092799999999997E-4</v>
       </c>
       <c r="Q20" s="1">
-        <v>-3.6448200000000001E-5</v>
-      </c>
-      <c r="R20">
-        <v>-4.50783E-3</v>
-      </c>
-      <c r="S20">
-        <v>-1.0229200000000001E-2</v>
-      </c>
-      <c r="T20">
-        <v>3.77136E-2</v>
-      </c>
-      <c r="U20">
-        <v>-2.6675100000000001E-3</v>
-      </c>
-      <c r="V20" s="1">
-        <v>8.5200399999999996E-7</v>
-      </c>
-      <c r="W20" s="1">
-        <v>9.5769599999999999E-5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A21">
-        <v>-6.1052899999999995E-4</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1.2926699999999999E-6</v>
-      </c>
-      <c r="C21" s="1">
-        <v>-9.5658599999999999E-5</v>
-      </c>
-      <c r="D21">
-        <v>-1.3743499999999999E-4</v>
-      </c>
-      <c r="E21">
-        <v>2.1069000000000001E-3</v>
-      </c>
-      <c r="F21">
-        <v>-1.0582300000000001E-4</v>
-      </c>
-      <c r="G21" s="1">
-        <v>-4.3398199999999997E-7</v>
-      </c>
-      <c r="H21">
-        <v>-2.0069799999999998E-3</v>
-      </c>
-      <c r="I21">
-        <v>-2.5064699999999998E-3</v>
-      </c>
-      <c r="J21">
-        <v>-1.9783499999999998E-3</v>
-      </c>
-      <c r="K21">
-        <v>-1.75154E-3</v>
-      </c>
-      <c r="L21">
-        <v>-1.79835E-3</v>
-      </c>
-      <c r="M21">
-        <v>4.7170799999999999E-4</v>
-      </c>
-      <c r="N21">
-        <v>7.3025100000000001E-4</v>
-      </c>
-      <c r="O21">
-        <v>2.0541099999999999E-4</v>
-      </c>
-      <c r="P21">
-        <v>-1.11611E-3</v>
-      </c>
-      <c r="Q21">
-        <v>7.6145499999999997E-4</v>
-      </c>
-      <c r="R21">
-        <v>-2.3289999999999999E-3</v>
-      </c>
-      <c r="S21">
-        <v>-3.2990200000000002E-3</v>
-      </c>
-      <c r="T21">
-        <v>-2.6675100000000001E-3</v>
-      </c>
-      <c r="U21">
-        <v>2.5951099999999999E-3</v>
-      </c>
-      <c r="V21" s="1">
-        <v>-3.05401E-7</v>
-      </c>
-      <c r="W21" s="1">
-        <v>-4.6608499999999996E-6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A22" s="1">
-        <v>4.8051E-6</v>
-      </c>
-      <c r="B22" s="1">
-        <v>-1.25868E-8</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1.1169399999999999E-7</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3.6612000000000002E-6</v>
-      </c>
-      <c r="E22" s="1">
-        <v>7.4168400000000001E-7</v>
-      </c>
-      <c r="F22" s="1">
-        <v>-3.7143100000000001E-7</v>
-      </c>
-      <c r="G22" s="1">
-        <v>7.6958900000000002E-10</v>
-      </c>
-      <c r="H22" s="1">
-        <v>-7.6031400000000001E-7</v>
-      </c>
-      <c r="I22" s="1">
-        <v>-6.5518300000000005E-7</v>
-      </c>
-      <c r="J22" s="1">
-        <v>-5.95843E-7</v>
-      </c>
-      <c r="K22" s="1">
-        <v>-2.8622999999999999E-7</v>
-      </c>
-      <c r="L22" s="1">
-        <v>-2.2047199999999999E-7</v>
-      </c>
-      <c r="M22" s="1">
-        <v>-3.8322999999999998E-8</v>
-      </c>
-      <c r="N22" s="1">
-        <v>4.5989000000000002E-7</v>
-      </c>
-      <c r="O22" s="1">
-        <v>2.5909599999999998E-7</v>
-      </c>
-      <c r="P22" s="1">
-        <v>6.4874099999999995E-8</v>
-      </c>
-      <c r="Q22" s="1">
-        <v>-1.4385699999999999E-7</v>
-      </c>
-      <c r="R22" s="1">
-        <v>-2.79997E-8</v>
-      </c>
-      <c r="S22" s="1">
-        <v>8.7426599999999995E-7</v>
-      </c>
-      <c r="T22" s="1">
-        <v>8.5200399999999996E-7</v>
-      </c>
-      <c r="U22" s="1">
-        <v>-3.05401E-7</v>
-      </c>
-      <c r="V22" s="1">
-        <v>3.9681199999999997E-9</v>
-      </c>
-      <c r="W22" s="1">
-        <v>-9.4601199999999999E-8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>6.4730699999999996E-4</v>
-      </c>
-      <c r="B23" s="1">
-        <v>3.9421300000000001E-7</v>
-      </c>
-      <c r="C23">
-        <v>-2.0273000000000001E-3</v>
-      </c>
-      <c r="D23">
-        <v>5.2591699999999999E-4</v>
-      </c>
-      <c r="E23">
-        <v>-1.4536900000000001E-3</v>
-      </c>
-      <c r="F23">
-        <v>2.2406000000000001E-3</v>
-      </c>
-      <c r="G23" s="1">
-        <v>-4.7963399999999999E-8</v>
-      </c>
-      <c r="H23">
-        <v>1.6361199999999999E-4</v>
-      </c>
-      <c r="I23">
-        <v>3.9951100000000002E-4</v>
-      </c>
-      <c r="J23">
-        <v>4.8923200000000003E-4</v>
-      </c>
-      <c r="K23">
-        <v>3.3266099999999999E-4</v>
-      </c>
-      <c r="L23">
-        <v>3.4214100000000002E-4</v>
-      </c>
-      <c r="M23">
-        <v>-1.3373399999999999E-4</v>
-      </c>
-      <c r="N23">
-        <v>1.9856299999999999E-4</v>
-      </c>
-      <c r="O23" s="1">
-        <v>8.8474500000000001E-5</v>
-      </c>
-      <c r="P23">
-        <v>-2.0999699999999999E-4</v>
-      </c>
-      <c r="Q23">
-        <v>3.2690600000000002E-4</v>
-      </c>
-      <c r="R23" s="1">
-        <v>8.3914799999999998E-5</v>
-      </c>
-      <c r="S23">
-        <v>6.3433399999999996E-4</v>
-      </c>
-      <c r="T23" s="1">
-        <v>9.5769599999999999E-5</v>
-      </c>
-      <c r="U23" s="1">
-        <v>-4.6608499999999996E-6</v>
-      </c>
-      <c r="V23" s="1">
-        <v>-9.4601199999999999E-8</v>
-      </c>
-      <c r="W23">
-        <v>8.0694999999999996E-4</v>
+        <v>2.6296799999999998E-4</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1.93974E-4</v>
+      </c>
+      <c r="S20" s="1">
+        <v>8.5516300000000004E-4</v>
+      </c>
+      <c r="T20" s="1">
+        <v>7.6655799999999997E-4</v>
       </c>
     </row>
   </sheetData>
@@ -8859,913 +8466,812 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A91169AB-CFEB-4A51-9AA7-AB27737F658B}">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O4" sqref="O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>5.7191699999999998E-2</v>
+        <v>5.0102800000000003E-2</v>
       </c>
       <c r="B1" s="1">
-        <v>-4.1184199999999998E-5</v>
+        <v>-2.5432E-5</v>
       </c>
       <c r="C1">
-        <v>-5.3806000000000001E-3</v>
+        <v>-5.8109399999999997E-3</v>
       </c>
       <c r="D1">
-        <v>3.7746199999999998E-3</v>
+        <v>-4.1449999999999999E-4</v>
       </c>
       <c r="E1">
-        <v>5.5466500000000002E-3</v>
+        <v>3.7996699999999998E-3</v>
       </c>
       <c r="F1">
-        <v>-6.2233699999999998E-3</v>
+        <v>-5.79891E-3</v>
       </c>
       <c r="G1" s="1">
-        <v>-3.00756E-6</v>
+        <v>-1.8665E-6</v>
       </c>
       <c r="H1">
-        <v>1.7163500000000001E-4</v>
+        <v>1.4371500000000001E-3</v>
       </c>
       <c r="I1">
-        <v>-2.1787199999999999E-3</v>
+        <v>-1.0789700000000001E-3</v>
       </c>
       <c r="J1">
-        <v>-9.7693499999999996E-4</v>
+        <v>-2.3840999999999999E-4</v>
       </c>
       <c r="K1">
-        <v>-1.5991E-3</v>
+        <v>-1.07058E-3</v>
       </c>
       <c r="L1">
-        <v>-3.5845199999999999E-3</v>
+        <v>-3.8406899999999999E-3</v>
       </c>
       <c r="M1">
-        <v>2.0949200000000001E-3</v>
+        <v>1.5777E-3</v>
       </c>
       <c r="N1">
-        <v>1.4938E-3</v>
+        <v>8.0002000000000003E-4</v>
       </c>
       <c r="O1">
-        <v>2.3985299999999998E-3</v>
-      </c>
-      <c r="P1" s="1">
-        <v>4.9293100000000002E-6</v>
-      </c>
-      <c r="Q1">
-        <v>8.7107999999999999E-4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2.09633E-3</v>
+      </c>
+      <c r="P1">
+        <v>1.10114E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>-4.1184199999999998E-5</v>
+        <v>-2.5432E-5</v>
       </c>
       <c r="B2" s="1">
-        <v>1.09759E-7</v>
+        <v>6.6899900000000005E-8</v>
       </c>
       <c r="C2" s="1">
-        <v>3.7909399999999999E-7</v>
+        <v>1.3250499999999999E-6</v>
       </c>
       <c r="D2" s="1">
-        <v>-2.3485700000000001E-5</v>
+        <v>-1.03803E-5</v>
       </c>
       <c r="E2" s="1">
-        <v>-2.4958200000000001E-5</v>
+        <v>-2.0867900000000001E-5</v>
       </c>
       <c r="F2" s="1">
-        <v>1.77511E-5</v>
+        <v>1.71112E-5</v>
       </c>
       <c r="G2" s="1">
-        <v>1.6909099999999999E-9</v>
+        <v>-8.8062300000000003E-10</v>
       </c>
       <c r="H2" s="1">
-        <v>6.2220699999999997E-6</v>
+        <v>3.1522399999999999E-6</v>
       </c>
       <c r="I2" s="1">
-        <v>6.1653799999999997E-6</v>
+        <v>3.14276E-6</v>
       </c>
       <c r="J2" s="1">
-        <v>3.7392999999999999E-6</v>
+        <v>1.49954E-6</v>
       </c>
       <c r="K2" s="1">
-        <v>5.2810799999999996E-6</v>
+        <v>3.7991199999999999E-6</v>
       </c>
       <c r="L2" s="1">
-        <v>9.4290700000000005E-6</v>
+        <v>9.1982499999999996E-6</v>
       </c>
       <c r="M2" s="1">
-        <v>-9.3846899999999998E-7</v>
+        <v>8.2903500000000004E-7</v>
       </c>
       <c r="N2" s="1">
-        <v>-3.17892E-7</v>
+        <v>1.5432399999999999E-6</v>
       </c>
       <c r="O2" s="1">
-        <v>-4.51673E-7</v>
+        <v>4.2189900000000001E-7</v>
       </c>
       <c r="P2" s="1">
-        <v>-1.3473300000000001E-8</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>3.1074900000000003E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
+        <v>1.01814E-7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>-5.3806000000000001E-3</v>
+        <v>-5.8109399999999997E-3</v>
       </c>
       <c r="B3" s="1">
-        <v>3.7909399999999999E-7</v>
+        <v>1.3250499999999999E-6</v>
       </c>
       <c r="C3">
-        <v>1.6194500000000001E-2</v>
+        <v>1.5633600000000001E-2</v>
       </c>
       <c r="D3">
-        <v>-2.6966199999999998E-3</v>
+        <v>-3.1318100000000001E-3</v>
       </c>
       <c r="E3">
-        <v>2.7335300000000001E-3</v>
+        <v>2.6195300000000001E-3</v>
       </c>
       <c r="F3">
-        <v>-1.1699899999999999E-2</v>
+        <v>-1.17419E-2</v>
       </c>
       <c r="G3" s="1">
-        <v>8.2596600000000003E-7</v>
+        <v>1.13916E-6</v>
       </c>
       <c r="H3">
-        <v>-1.5778599999999999E-3</v>
+        <v>-1.57384E-3</v>
       </c>
       <c r="I3">
-        <v>-1.4921100000000001E-3</v>
+        <v>-1.3930800000000001E-3</v>
       </c>
       <c r="J3">
-        <v>-2.1607100000000001E-3</v>
+        <v>-1.8692699999999999E-3</v>
       </c>
       <c r="K3">
-        <v>-1.82737E-3</v>
+        <v>-1.66453E-3</v>
       </c>
       <c r="L3">
-        <v>-2.57661E-3</v>
-      </c>
-      <c r="M3">
-        <v>1.8764399999999999E-4</v>
-      </c>
-      <c r="N3">
-        <v>1.6256800000000001E-4</v>
+        <v>-2.5810300000000002E-3</v>
+      </c>
+      <c r="M3" s="1">
+        <v>-6.6874900000000006E-5</v>
+      </c>
+      <c r="N3" s="1">
+        <v>6.9795799999999993E-5</v>
       </c>
       <c r="O3">
-        <v>-4.3275799999999999E-4</v>
-      </c>
-      <c r="P3" s="1">
-        <v>2.5671799999999998E-7</v>
-      </c>
-      <c r="Q3">
-        <v>-2.1261100000000001E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
+        <v>-5.44021E-4</v>
+      </c>
+      <c r="P3">
+        <v>-1.9838E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>3.7746199999999998E-3</v>
+        <v>-4.1449999999999999E-4</v>
       </c>
       <c r="B4" s="1">
-        <v>-2.3485700000000001E-5</v>
+        <v>-1.03803E-5</v>
       </c>
       <c r="C4">
-        <v>-2.6966199999999998E-3</v>
+        <v>-3.1318100000000001E-3</v>
       </c>
       <c r="D4">
-        <v>2.1596199999999999E-2</v>
+        <v>1.7015200000000001E-2</v>
       </c>
       <c r="E4">
-        <v>5.4512500000000004E-3</v>
+        <v>3.8890399999999999E-3</v>
       </c>
       <c r="F4">
-        <v>-9.3528499999999994E-3</v>
+        <v>-8.4598799999999995E-3</v>
       </c>
       <c r="G4" s="1">
-        <v>-5.94539E-7</v>
+        <v>1.06495E-7</v>
       </c>
       <c r="H4">
-        <v>-2.4044600000000002E-3</v>
+        <v>-1.2838700000000001E-3</v>
       </c>
       <c r="I4">
-        <v>-1.9669599999999998E-3</v>
+        <v>-9.2535399999999998E-4</v>
       </c>
       <c r="J4">
-        <v>-5.85612E-4</v>
+        <v>1.3882200000000001E-4</v>
       </c>
       <c r="K4">
-        <v>-7.2825799999999997E-4</v>
+        <v>-2.17891E-4</v>
       </c>
       <c r="L4">
-        <v>-2.3968499999999998E-3</v>
+        <v>-2.0746900000000001E-3</v>
       </c>
       <c r="M4">
-        <v>2.41699E-4</v>
+        <v>-2.18688E-4</v>
       </c>
       <c r="N4">
-        <v>9.0763499999999995E-4</v>
+        <v>2.8410499999999999E-4</v>
       </c>
       <c r="O4">
-        <v>-7.7129800000000001E-4</v>
-      </c>
-      <c r="P4" s="1">
-        <v>4.1577799999999997E-6</v>
-      </c>
-      <c r="Q4">
-        <v>6.47874E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
+        <v>-1.0081700000000001E-3</v>
+      </c>
+      <c r="P4">
+        <v>7.2562500000000003E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>5.5466500000000002E-3</v>
+        <v>3.7996699999999998E-3</v>
       </c>
       <c r="B5" s="1">
-        <v>-2.4958200000000001E-5</v>
+        <v>-2.0867900000000001E-5</v>
       </c>
       <c r="C5">
-        <v>2.7335300000000001E-3</v>
+        <v>2.6195300000000001E-3</v>
       </c>
       <c r="D5">
-        <v>5.4512500000000004E-3</v>
+        <v>3.8890399999999999E-3</v>
       </c>
       <c r="E5">
-        <v>0.145708</v>
+        <v>0.142341</v>
       </c>
       <c r="F5">
-        <v>-0.18758900000000001</v>
+        <v>-0.184692</v>
       </c>
       <c r="G5" s="1">
-        <v>-2.0199699999999999E-5</v>
+        <v>-1.8913700000000002E-5</v>
       </c>
       <c r="H5">
-        <v>-2.9384E-2</v>
+        <v>-2.78909E-2</v>
       </c>
       <c r="I5">
-        <v>-3.0917699999999999E-2</v>
+        <v>-2.9527899999999999E-2</v>
       </c>
       <c r="J5">
-        <v>-3.0509600000000001E-2</v>
+        <v>-2.8943199999999999E-2</v>
       </c>
       <c r="K5">
-        <v>-3.2164400000000003E-2</v>
+        <v>-3.0814299999999999E-2</v>
       </c>
       <c r="L5">
-        <v>-2.7552699999999999E-2</v>
+        <v>-2.63649E-2</v>
       </c>
       <c r="M5">
-        <v>-4.3620400000000002E-3</v>
+        <v>-4.5515900000000003E-3</v>
       </c>
       <c r="N5">
-        <v>-1.1147000000000001E-2</v>
+        <v>-1.12689E-2</v>
       </c>
       <c r="O5">
-        <v>-6.8009100000000003E-3</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1.1819000000000001E-6</v>
-      </c>
-      <c r="Q5">
-        <v>-1.3535800000000001E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
+        <v>-7.0545499999999997E-3</v>
+      </c>
+      <c r="P5">
+        <v>-1.26019E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A6">
-        <v>-6.2233699999999998E-3</v>
+        <v>-5.79891E-3</v>
       </c>
       <c r="B6" s="1">
-        <v>1.77511E-5</v>
+        <v>1.71112E-5</v>
       </c>
       <c r="C6">
-        <v>-1.1699899999999999E-2</v>
+        <v>-1.17419E-2</v>
       </c>
       <c r="D6">
-        <v>-9.3528499999999994E-3</v>
+        <v>-8.4598799999999995E-3</v>
       </c>
       <c r="E6">
-        <v>-0.18758900000000001</v>
+        <v>-0.184692</v>
       </c>
       <c r="F6">
-        <v>0.37861299999999998</v>
+        <v>0.37279499999999999</v>
       </c>
       <c r="G6" s="1">
-        <v>-4.5163600000000002E-5</v>
+        <v>-4.4708900000000002E-5</v>
       </c>
       <c r="H6">
-        <v>1.4027E-2</v>
+        <v>1.33574E-2</v>
       </c>
       <c r="I6">
-        <v>1.8047199999999999E-2</v>
+        <v>1.7600500000000002E-2</v>
       </c>
       <c r="J6">
-        <v>1.4648400000000001E-2</v>
+        <v>1.36385E-2</v>
       </c>
       <c r="K6">
-        <v>1.5231400000000001E-2</v>
+        <v>1.4682000000000001E-2</v>
       </c>
       <c r="L6">
-        <v>1.6778999999999999E-2</v>
+        <v>1.64101E-2</v>
       </c>
       <c r="M6">
-        <v>1.10823E-3</v>
+        <v>1.5102399999999999E-3</v>
       </c>
       <c r="N6">
-        <v>-3.4069999999999999E-4</v>
+        <v>1.3786500000000001E-4</v>
       </c>
       <c r="O6">
-        <v>2.40318E-3</v>
-      </c>
-      <c r="P6" s="1">
-        <v>-3.4775800000000002E-8</v>
-      </c>
-      <c r="Q6">
-        <v>2.3142800000000002E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
+        <v>3.1037399999999998E-3</v>
+      </c>
+      <c r="P6">
+        <v>2.1443299999999998E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>-3.00756E-6</v>
+        <v>-1.8665E-6</v>
       </c>
       <c r="B7" s="1">
-        <v>1.6909099999999999E-9</v>
+        <v>-8.8062300000000003E-10</v>
       </c>
       <c r="C7" s="1">
-        <v>8.2596600000000003E-7</v>
+        <v>1.13916E-6</v>
       </c>
       <c r="D7" s="1">
-        <v>-5.94539E-7</v>
+        <v>1.06495E-7</v>
       </c>
       <c r="E7" s="1">
-        <v>-2.0199699999999999E-5</v>
+        <v>-1.8913700000000002E-5</v>
       </c>
       <c r="F7" s="1">
-        <v>-4.5163600000000002E-5</v>
+        <v>-4.4708900000000002E-5</v>
       </c>
       <c r="G7" s="1">
-        <v>9.2726599999999999E-8</v>
+        <v>8.9564299999999997E-8</v>
       </c>
       <c r="H7" s="1">
-        <v>-1.3672800000000001E-6</v>
+        <v>-1.40011E-6</v>
       </c>
       <c r="I7" s="1">
-        <v>-4.4155600000000003E-6</v>
+        <v>-4.4295499999999998E-6</v>
       </c>
       <c r="J7" s="1">
-        <v>-6.9985099999999998E-7</v>
+        <v>-6.4002300000000001E-7</v>
       </c>
       <c r="K7" s="1">
-        <v>1.6317500000000001E-6</v>
+        <v>1.5746600000000001E-6</v>
       </c>
       <c r="L7" s="1">
-        <v>-1.13245E-5</v>
+        <v>-1.1395399999999999E-5</v>
       </c>
       <c r="M7" s="1">
-        <v>-9.4537400000000001E-7</v>
+        <v>-9.7729500000000002E-7</v>
       </c>
       <c r="N7" s="1">
-        <v>1.1644E-6</v>
+        <v>1.2557900000000001E-6</v>
       </c>
       <c r="O7" s="1">
-        <v>1.3126599999999999E-6</v>
+        <v>1.2296499999999999E-6</v>
       </c>
       <c r="P7" s="1">
-        <v>-7.4711200000000004E-10</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>-2.7621899999999999E-7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
+        <v>-2.66026E-7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A8">
-        <v>1.7163500000000001E-4</v>
+        <v>1.4371500000000001E-3</v>
       </c>
       <c r="B8" s="1">
-        <v>6.2220699999999997E-6</v>
+        <v>3.1522399999999999E-6</v>
       </c>
       <c r="C8">
-        <v>-1.5778599999999999E-3</v>
+        <v>-1.57384E-3</v>
       </c>
       <c r="D8">
-        <v>-2.4044600000000002E-3</v>
+        <v>-1.2838700000000001E-3</v>
       </c>
       <c r="E8">
-        <v>-2.9384E-2</v>
+        <v>-2.78909E-2</v>
       </c>
       <c r="F8">
-        <v>1.4027E-2</v>
+        <v>1.33574E-2</v>
       </c>
       <c r="G8" s="1">
-        <v>-1.3672800000000001E-6</v>
+        <v>-1.40011E-6</v>
       </c>
       <c r="H8">
-        <v>2.9408E-2</v>
+        <v>2.81281E-2</v>
       </c>
       <c r="I8">
-        <v>2.3229300000000001E-2</v>
+        <v>2.19793E-2</v>
       </c>
       <c r="J8">
-        <v>2.2803299999999999E-2</v>
+        <v>2.1592699999999999E-2</v>
       </c>
       <c r="K8">
-        <v>2.2604599999999999E-2</v>
+        <v>2.1505E-2</v>
       </c>
       <c r="L8">
-        <v>2.33545E-2</v>
-      </c>
-      <c r="M8" s="1">
-        <v>7.7152800000000008E-6</v>
+        <v>2.2298999999999999E-2</v>
+      </c>
+      <c r="M8">
+        <v>1.3207400000000001E-4</v>
       </c>
       <c r="N8">
-        <v>2.9549200000000002E-3</v>
-      </c>
-      <c r="O8" s="1">
-        <v>6.9305800000000003E-5</v>
-      </c>
-      <c r="P8" s="1">
-        <v>-1.0660099999999999E-6</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>9.4128299999999998E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
+        <v>2.9723900000000001E-3</v>
+      </c>
+      <c r="O8">
+        <v>1.17545E-4</v>
+      </c>
+      <c r="P8">
+        <v>1.3260400000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A9">
-        <v>-2.1787199999999999E-3</v>
+        <v>-1.0789700000000001E-3</v>
       </c>
       <c r="B9" s="1">
-        <v>6.1653799999999997E-6</v>
+        <v>3.14276E-6</v>
       </c>
       <c r="C9">
-        <v>-1.4921100000000001E-3</v>
+        <v>-1.3930800000000001E-3</v>
       </c>
       <c r="D9">
-        <v>-1.9669599999999998E-3</v>
+        <v>-9.2535399999999998E-4</v>
       </c>
       <c r="E9">
-        <v>-3.0917699999999999E-2</v>
+        <v>-2.9527899999999999E-2</v>
       </c>
       <c r="F9">
-        <v>1.8047199999999999E-2</v>
+        <v>1.7600500000000002E-2</v>
       </c>
       <c r="G9" s="1">
-        <v>-4.4155600000000003E-6</v>
+        <v>-4.4295499999999998E-6</v>
       </c>
       <c r="H9">
-        <v>2.3229300000000001E-2</v>
+        <v>2.19793E-2</v>
       </c>
       <c r="I9">
-        <v>2.8941100000000001E-2</v>
+        <v>2.7545099999999999E-2</v>
       </c>
       <c r="J9">
-        <v>2.5136200000000001E-2</v>
+        <v>2.3860300000000001E-2</v>
       </c>
       <c r="K9">
-        <v>2.4383999999999999E-2</v>
+        <v>2.3240799999999999E-2</v>
       </c>
       <c r="L9">
-        <v>2.6233300000000001E-2</v>
+        <v>2.5082799999999999E-2</v>
       </c>
       <c r="M9">
-        <v>-3.6547200000000002E-3</v>
+        <v>-3.38733E-3</v>
       </c>
       <c r="N9">
-        <v>5.71624E-3</v>
+        <v>5.7285499999999998E-3</v>
       </c>
       <c r="O9">
-        <v>-1.85921E-3</v>
-      </c>
-      <c r="P9" s="1">
-        <v>-9.6218300000000003E-7</v>
-      </c>
-      <c r="Q9">
-        <v>3.3626000000000001E-4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.45">
+        <v>-1.7032600000000001E-3</v>
+      </c>
+      <c r="P9">
+        <v>3.1881699999999999E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A10">
-        <v>-9.7693499999999996E-4</v>
+        <v>-2.3840999999999999E-4</v>
       </c>
       <c r="B10" s="1">
-        <v>3.7392999999999999E-6</v>
+        <v>1.49954E-6</v>
       </c>
       <c r="C10">
-        <v>-2.1607100000000001E-3</v>
+        <v>-1.8692699999999999E-3</v>
       </c>
       <c r="D10">
-        <v>-5.85612E-4</v>
+        <v>1.3882200000000001E-4</v>
       </c>
       <c r="E10">
-        <v>-3.0509600000000001E-2</v>
+        <v>-2.8943199999999999E-2</v>
       </c>
       <c r="F10">
-        <v>1.4648400000000001E-2</v>
+        <v>1.36385E-2</v>
       </c>
       <c r="G10" s="1">
-        <v>-6.9985099999999998E-7</v>
+        <v>-6.4002300000000001E-7</v>
       </c>
       <c r="H10">
-        <v>2.2803299999999999E-2</v>
+        <v>2.1592699999999999E-2</v>
       </c>
       <c r="I10">
-        <v>2.5136200000000001E-2</v>
+        <v>2.3860300000000001E-2</v>
       </c>
       <c r="J10">
-        <v>3.0046799999999999E-2</v>
+        <v>2.8683199999999999E-2</v>
       </c>
       <c r="K10">
-        <v>2.3834500000000002E-2</v>
+        <v>2.27084E-2</v>
       </c>
       <c r="L10">
-        <v>2.4916799999999999E-2</v>
+        <v>2.3747999999999998E-2</v>
       </c>
       <c r="M10">
-        <v>-2.2604399999999998E-3</v>
+        <v>-2.0675300000000001E-3</v>
       </c>
       <c r="N10">
-        <v>5.20843E-3</v>
+        <v>5.2286399999999997E-3</v>
       </c>
       <c r="O10">
-        <v>-1.09563E-3</v>
-      </c>
-      <c r="P10" s="1">
-        <v>-7.2849700000000001E-7</v>
-      </c>
-      <c r="Q10">
-        <v>5.1318399999999997E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
+        <v>-9.8357200000000005E-4</v>
+      </c>
+      <c r="P10">
+        <v>4.5578399999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A11">
-        <v>-1.5991E-3</v>
+        <v>-1.07058E-3</v>
       </c>
       <c r="B11" s="1">
-        <v>5.2810799999999996E-6</v>
+        <v>3.7991199999999999E-6</v>
       </c>
       <c r="C11">
-        <v>-1.82737E-3</v>
+        <v>-1.66453E-3</v>
       </c>
       <c r="D11">
-        <v>-7.2825799999999997E-4</v>
+        <v>-2.17891E-4</v>
       </c>
       <c r="E11">
-        <v>-3.2164400000000003E-2</v>
+        <v>-3.0814299999999999E-2</v>
       </c>
       <c r="F11">
-        <v>1.5231400000000001E-2</v>
+        <v>1.4682000000000001E-2</v>
       </c>
       <c r="G11" s="1">
-        <v>1.6317500000000001E-6</v>
+        <v>1.5746600000000001E-6</v>
       </c>
       <c r="H11">
-        <v>2.2604599999999999E-2</v>
+        <v>2.1505E-2</v>
       </c>
       <c r="I11">
-        <v>2.4383999999999999E-2</v>
+        <v>2.3240799999999999E-2</v>
       </c>
       <c r="J11">
-        <v>2.3834500000000002E-2</v>
+        <v>2.27084E-2</v>
       </c>
       <c r="K11">
-        <v>3.22384E-2</v>
+        <v>3.0991899999999999E-2</v>
       </c>
       <c r="L11">
-        <v>2.4220700000000001E-2</v>
+        <v>2.31437E-2</v>
       </c>
       <c r="M11">
-        <v>-1.21637E-3</v>
+        <v>-1.1362200000000001E-3</v>
       </c>
       <c r="N11">
-        <v>4.6169100000000001E-3</v>
+        <v>4.5483700000000004E-3</v>
       </c>
       <c r="O11">
-        <v>-9.0277E-4</v>
-      </c>
-      <c r="P11" s="1">
-        <v>-4.7997500000000001E-7</v>
-      </c>
-      <c r="Q11">
-        <v>3.6717899999999998E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
+        <v>-8.5525599999999998E-4</v>
+      </c>
+      <c r="P11">
+        <v>3.4800199999999998E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A12">
-        <v>-3.5845199999999999E-3</v>
+        <v>-3.8406899999999999E-3</v>
       </c>
       <c r="B12" s="1">
-        <v>9.4290700000000005E-6</v>
+        <v>9.1982499999999996E-6</v>
       </c>
       <c r="C12">
-        <v>-2.57661E-3</v>
+        <v>-2.5810300000000002E-3</v>
       </c>
       <c r="D12">
-        <v>-2.3968499999999998E-3</v>
+        <v>-2.0746900000000001E-3</v>
       </c>
       <c r="E12">
-        <v>-2.7552699999999999E-2</v>
+        <v>-2.63649E-2</v>
       </c>
       <c r="F12">
-        <v>1.6778999999999999E-2</v>
+        <v>1.64101E-2</v>
       </c>
       <c r="G12" s="1">
-        <v>-1.13245E-5</v>
+        <v>-1.1395399999999999E-5</v>
       </c>
       <c r="H12">
-        <v>2.33545E-2</v>
+        <v>2.2298999999999999E-2</v>
       </c>
       <c r="I12">
-        <v>2.6233300000000001E-2</v>
+        <v>2.5082799999999999E-2</v>
       </c>
       <c r="J12">
-        <v>2.4916799999999999E-2</v>
+        <v>2.3747999999999998E-2</v>
       </c>
       <c r="K12">
-        <v>2.4220700000000001E-2</v>
+        <v>2.31437E-2</v>
       </c>
       <c r="L12">
-        <v>0.115316</v>
+        <v>0.113453</v>
       </c>
       <c r="M12">
-        <v>-1.61925E-3</v>
+        <v>-1.5044800000000001E-3</v>
       </c>
       <c r="N12">
-        <v>6.4622400000000002E-3</v>
+        <v>6.3344300000000003E-3</v>
       </c>
       <c r="O12">
-        <v>-1.1280699999999999E-3</v>
-      </c>
-      <c r="P12" s="1">
-        <v>-9.6084800000000006E-8</v>
-      </c>
-      <c r="Q12">
-        <v>3.9796999999999999E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
+        <v>-9.3996900000000003E-4</v>
+      </c>
+      <c r="P12">
+        <v>3.9857800000000002E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A13">
-        <v>2.0949200000000001E-3</v>
+        <v>1.5777E-3</v>
       </c>
       <c r="B13" s="1">
-        <v>-9.3846899999999998E-7</v>
-      </c>
-      <c r="C13">
-        <v>1.8764399999999999E-4</v>
+        <v>8.2903500000000004E-7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>-6.6874900000000006E-5</v>
       </c>
       <c r="D13">
-        <v>2.41699E-4</v>
+        <v>-2.18688E-4</v>
       </c>
       <c r="E13">
-        <v>-4.3620400000000002E-3</v>
+        <v>-4.5515900000000003E-3</v>
       </c>
       <c r="F13">
-        <v>1.10823E-3</v>
+        <v>1.5102399999999999E-3</v>
       </c>
       <c r="G13" s="1">
-        <v>-9.4537400000000001E-7</v>
-      </c>
-      <c r="H13" s="1">
-        <v>7.7152800000000008E-6</v>
+        <v>-9.7729500000000002E-7</v>
+      </c>
+      <c r="H13">
+        <v>1.3207400000000001E-4</v>
       </c>
       <c r="I13">
-        <v>-3.6547200000000002E-3</v>
+        <v>-3.38733E-3</v>
       </c>
       <c r="J13">
-        <v>-2.2604399999999998E-3</v>
+        <v>-2.0675300000000001E-3</v>
       </c>
       <c r="K13">
-        <v>-1.21637E-3</v>
+        <v>-1.1362200000000001E-3</v>
       </c>
       <c r="L13">
-        <v>-1.61925E-3</v>
+        <v>-1.5044800000000001E-3</v>
       </c>
       <c r="M13">
-        <v>1.5174099999999999E-2</v>
+        <v>1.4841200000000001E-2</v>
       </c>
       <c r="N13">
-        <v>4.5818400000000002E-3</v>
+        <v>4.3908000000000003E-3</v>
       </c>
       <c r="O13">
-        <v>6.4175600000000001E-3</v>
+        <v>6.2009300000000003E-3</v>
       </c>
       <c r="P13" s="1">
-        <v>5.4362999999999995E-7</v>
-      </c>
-      <c r="Q13">
-        <v>-1.37558E-4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
+        <v>-4.2766299999999997E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A14">
-        <v>1.4938E-3</v>
+        <v>8.0002000000000003E-4</v>
       </c>
       <c r="B14" s="1">
-        <v>-3.17892E-7</v>
-      </c>
-      <c r="C14">
-        <v>1.6256800000000001E-4</v>
+        <v>1.5432399999999999E-6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.9795799999999993E-5</v>
       </c>
       <c r="D14">
-        <v>9.0763499999999995E-4</v>
+        <v>2.8410499999999999E-4</v>
       </c>
       <c r="E14">
-        <v>-1.1147000000000001E-2</v>
+        <v>-1.12689E-2</v>
       </c>
       <c r="F14">
-        <v>-3.4069999999999999E-4</v>
+        <v>1.3786500000000001E-4</v>
       </c>
       <c r="G14" s="1">
-        <v>1.1644E-6</v>
+        <v>1.2557900000000001E-6</v>
       </c>
       <c r="H14">
-        <v>2.9549200000000002E-3</v>
+        <v>2.9723900000000001E-3</v>
       </c>
       <c r="I14">
-        <v>5.71624E-3</v>
+        <v>5.7285499999999998E-3</v>
       </c>
       <c r="J14">
-        <v>5.20843E-3</v>
+        <v>5.2286399999999997E-3</v>
       </c>
       <c r="K14">
-        <v>4.6169100000000001E-3</v>
+        <v>4.5483700000000004E-3</v>
       </c>
       <c r="L14">
-        <v>6.4622400000000002E-3</v>
+        <v>6.3344300000000003E-3</v>
       </c>
       <c r="M14">
-        <v>4.5818400000000002E-3</v>
+        <v>4.3908000000000003E-3</v>
       </c>
       <c r="N14">
-        <v>1.8064299999999998E-2</v>
+        <v>1.7766799999999999E-2</v>
       </c>
       <c r="O14">
-        <v>5.1433199999999998E-3</v>
-      </c>
-      <c r="P14" s="1">
-        <v>7.1862900000000005E-7</v>
-      </c>
-      <c r="Q14">
-        <v>2.02466E-4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
+        <v>4.9852100000000003E-3</v>
+      </c>
+      <c r="P14">
+        <v>2.2514400000000001E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.45">
       <c r="A15">
-        <v>2.3985299999999998E-3</v>
+        <v>2.09633E-3</v>
       </c>
       <c r="B15" s="1">
-        <v>-4.51673E-7</v>
+        <v>4.2189900000000001E-7</v>
       </c>
       <c r="C15">
-        <v>-4.3275799999999999E-4</v>
+        <v>-5.44021E-4</v>
       </c>
       <c r="D15">
-        <v>-7.7129800000000001E-4</v>
+        <v>-1.0081700000000001E-3</v>
       </c>
       <c r="E15">
-        <v>-6.8009100000000003E-3</v>
+        <v>-7.0545499999999997E-3</v>
       </c>
       <c r="F15">
-        <v>2.40318E-3</v>
+        <v>3.1037399999999998E-3</v>
       </c>
       <c r="G15" s="1">
-        <v>1.3126599999999999E-6</v>
-      </c>
-      <c r="H15" s="1">
-        <v>6.9305800000000003E-5</v>
+        <v>1.2296499999999999E-6</v>
+      </c>
+      <c r="H15">
+        <v>1.17545E-4</v>
       </c>
       <c r="I15">
-        <v>-1.85921E-3</v>
+        <v>-1.7032600000000001E-3</v>
       </c>
       <c r="J15">
-        <v>-1.09563E-3</v>
+        <v>-9.8357200000000005E-4</v>
       </c>
       <c r="K15">
-        <v>-9.0277E-4</v>
+        <v>-8.5525599999999998E-4</v>
       </c>
       <c r="L15">
-        <v>-1.1280699999999999E-3</v>
+        <v>-9.3996900000000003E-4</v>
       </c>
       <c r="M15">
-        <v>6.4175600000000001E-3</v>
+        <v>6.2009300000000003E-3</v>
       </c>
       <c r="N15">
-        <v>5.1433199999999998E-3</v>
+        <v>4.9852100000000003E-3</v>
       </c>
       <c r="O15">
-        <v>8.2889899999999996E-3</v>
-      </c>
-      <c r="P15" s="1">
-        <v>3.1045100000000001E-7</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>8.7447499999999999E-5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A16" s="1">
-        <v>4.9293100000000002E-6</v>
+        <v>8.0716799999999995E-3</v>
+      </c>
+      <c r="P15">
+        <v>1.24342E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1.10114E-3</v>
       </c>
       <c r="B16" s="1">
-        <v>-1.3473300000000001E-8</v>
-      </c>
-      <c r="C16" s="1">
-        <v>2.5671799999999998E-7</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4.1577799999999997E-6</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.1819000000000001E-6</v>
-      </c>
-      <c r="F16" s="1">
-        <v>-3.4775800000000002E-8</v>
+        <v>1.01814E-7</v>
+      </c>
+      <c r="C16">
+        <v>-1.9838E-3</v>
+      </c>
+      <c r="D16">
+        <v>7.2562500000000003E-4</v>
+      </c>
+      <c r="E16">
+        <v>-1.26019E-3</v>
+      </c>
+      <c r="F16">
+        <v>2.1443299999999998E-3</v>
       </c>
       <c r="G16" s="1">
-        <v>-7.4711200000000004E-10</v>
-      </c>
-      <c r="H16" s="1">
-        <v>-1.0660099999999999E-6</v>
-      </c>
-      <c r="I16" s="1">
-        <v>-9.6218300000000003E-7</v>
-      </c>
-      <c r="J16" s="1">
-        <v>-7.2849700000000001E-7</v>
-      </c>
-      <c r="K16" s="1">
-        <v>-4.7997500000000001E-7</v>
-      </c>
-      <c r="L16" s="1">
-        <v>-9.6084800000000006E-8</v>
+        <v>-2.66026E-7</v>
+      </c>
+      <c r="H16">
+        <v>1.3260400000000001E-4</v>
+      </c>
+      <c r="I16">
+        <v>3.1881699999999999E-4</v>
+      </c>
+      <c r="J16">
+        <v>4.5578399999999999E-4</v>
+      </c>
+      <c r="K16">
+        <v>3.4800199999999998E-4</v>
+      </c>
+      <c r="L16">
+        <v>3.9857800000000002E-4</v>
       </c>
       <c r="M16" s="1">
-        <v>5.4362999999999995E-7</v>
-      </c>
-      <c r="N16" s="1">
-        <v>7.1862900000000005E-7</v>
-      </c>
-      <c r="O16" s="1">
-        <v>3.1045100000000001E-7</v>
-      </c>
-      <c r="P16" s="1">
-        <v>4.30257E-9</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>-5.1174900000000001E-8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>8.7107999999999999E-4</v>
-      </c>
-      <c r="B17" s="1">
-        <v>3.1074900000000003E-7</v>
-      </c>
-      <c r="C17">
-        <v>-2.1261100000000001E-3</v>
-      </c>
-      <c r="D17">
-        <v>6.47874E-4</v>
-      </c>
-      <c r="E17">
-        <v>-1.3535800000000001E-3</v>
-      </c>
-      <c r="F17">
-        <v>2.3142800000000002E-3</v>
-      </c>
-      <c r="G17" s="1">
-        <v>-2.7621899999999999E-7</v>
-      </c>
-      <c r="H17" s="1">
-        <v>9.4128299999999998E-5</v>
-      </c>
-      <c r="I17">
-        <v>3.3626000000000001E-4</v>
-      </c>
-      <c r="J17">
-        <v>5.1318399999999997E-4</v>
-      </c>
-      <c r="K17">
-        <v>3.6717899999999998E-4</v>
-      </c>
-      <c r="L17">
-        <v>3.9796999999999999E-4</v>
-      </c>
-      <c r="M17">
-        <v>-1.37558E-4</v>
-      </c>
-      <c r="N17">
-        <v>2.02466E-4</v>
-      </c>
-      <c r="O17" s="1">
-        <v>8.7447499999999999E-5</v>
-      </c>
-      <c r="P17" s="1">
-        <v>-5.1174900000000001E-8</v>
-      </c>
-      <c r="Q17">
-        <v>8.0968900000000005E-4</v>
+        <v>-4.2766299999999997E-5</v>
+      </c>
+      <c r="N16">
+        <v>2.2514400000000001E-4</v>
+      </c>
+      <c r="O16">
+        <v>1.24342E-4</v>
+      </c>
+      <c r="P16">
+        <v>7.0892800000000005E-4</v>
       </c>
     </row>
   </sheetData>
@@ -11155,173 +10661,132 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E16C6AB-562A-4168-A1EF-F74B095FA44C}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G7"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1">
-        <v>5.5446200000000001E-2</v>
+        <v>4.8335999999999997E-2</v>
       </c>
       <c r="B1" s="1">
-        <v>-4.1239699999999998E-5</v>
+        <v>-2.5265E-5</v>
       </c>
       <c r="C1">
-        <v>-5.6307299999999996E-3</v>
+        <v>-5.8638199999999996E-3</v>
       </c>
       <c r="D1">
-        <v>3.48059E-3</v>
+        <v>-6.7024999999999995E-4</v>
       </c>
       <c r="E1">
-        <v>1.4972799999999999E-3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>5.0560399999999998E-6</v>
-      </c>
-      <c r="G1">
-        <v>9.2539300000000005E-4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+        <v>9.8222700000000001E-4</v>
+      </c>
+      <c r="F1">
+        <v>1.1374099999999999E-3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>-4.1239699999999998E-5</v>
+        <v>-2.5265E-5</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0926599999999999E-7</v>
+        <v>6.5621800000000006E-8</v>
       </c>
       <c r="C2" s="1">
-        <v>1.2841900000000001E-6</v>
+        <v>1.72981E-6</v>
       </c>
       <c r="D2" s="1">
-        <v>-2.3042200000000001E-5</v>
+        <v>-1.0187099999999999E-5</v>
       </c>
       <c r="E2" s="1">
-        <v>-9.9210399999999998E-6</v>
+        <v>-8.6219499999999997E-6</v>
       </c>
       <c r="F2" s="1">
-        <v>-1.3736999999999999E-8</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1.4617199999999999E-7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-1.25861E-8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3">
-        <v>-5.6307299999999996E-3</v>
+        <v>-5.8638199999999996E-3</v>
       </c>
       <c r="B3" s="1">
-        <v>1.2841900000000001E-6</v>
+        <v>1.72981E-6</v>
       </c>
       <c r="C3">
-        <v>1.6688000000000001E-2</v>
+        <v>1.6163299999999999E-2</v>
       </c>
       <c r="D3">
-        <v>-3.5547700000000001E-3</v>
+        <v>-3.8731400000000002E-3</v>
       </c>
       <c r="E3">
-        <v>-4.88128E-3</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.0624299999999999E-7</v>
-      </c>
-      <c r="G3">
-        <v>-2.1824399999999999E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-4.8025400000000001E-3</v>
+      </c>
+      <c r="F3">
+        <v>-2.0556200000000002E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4">
-        <v>3.48059E-3</v>
+        <v>-6.7024999999999995E-4</v>
       </c>
       <c r="B4" s="1">
-        <v>-2.3042200000000001E-5</v>
+        <v>-1.0187099999999999E-5</v>
       </c>
       <c r="C4">
-        <v>-3.5547700000000001E-3</v>
+        <v>-3.8731400000000002E-3</v>
       </c>
       <c r="D4">
-        <v>2.0985699999999999E-2</v>
+        <v>1.6799100000000001E-2</v>
       </c>
       <c r="E4">
-        <v>-1.15347E-3</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4.0716299999999997E-6</v>
-      </c>
-      <c r="G4">
-        <v>7.7072399999999998E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+        <v>-1.4300599999999999E-3</v>
+      </c>
+      <c r="F4">
+        <v>8.3734399999999996E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5">
-        <v>1.4972799999999999E-3</v>
+        <v>9.8222700000000001E-4</v>
       </c>
       <c r="B5" s="1">
-        <v>-9.9210399999999998E-6</v>
+        <v>-8.6219499999999997E-6</v>
       </c>
       <c r="C5">
-        <v>-4.88128E-3</v>
+        <v>-4.8025400000000001E-3</v>
       </c>
       <c r="D5">
-        <v>-1.15347E-3</v>
+        <v>-1.4300599999999999E-3</v>
       </c>
       <c r="E5">
-        <v>5.8846200000000001E-3</v>
-      </c>
-      <c r="F5" s="1">
-        <v>4.2801100000000001E-7</v>
-      </c>
-      <c r="G5" s="1">
-        <v>9.2458200000000002E-5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6" s="1">
-        <v>5.0560399999999998E-6</v>
+        <v>5.7922499999999997E-3</v>
+      </c>
+      <c r="F5">
+        <v>1.2534499999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1.1374099999999999E-3</v>
       </c>
       <c r="B6" s="1">
-        <v>-1.3736999999999999E-8</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1.0624299999999999E-7</v>
-      </c>
-      <c r="D6" s="1">
-        <v>4.0716299999999997E-6</v>
-      </c>
-      <c r="E6" s="1">
-        <v>4.2801100000000001E-7</v>
-      </c>
-      <c r="F6" s="1">
-        <v>4.38268E-9</v>
-      </c>
-      <c r="G6" s="1">
-        <v>-4.2456300000000003E-8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>9.2539300000000005E-4</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1.4617199999999999E-7</v>
-      </c>
-      <c r="C7">
-        <v>-2.1824399999999999E-3</v>
-      </c>
-      <c r="D7">
-        <v>7.7072399999999998E-4</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9.2458200000000002E-5</v>
-      </c>
-      <c r="F7" s="1">
-        <v>-4.2456300000000003E-8</v>
-      </c>
-      <c r="G7">
-        <v>8.1592199999999996E-4</v>
+        <v>-1.25861E-8</v>
+      </c>
+      <c r="C6">
+        <v>-2.0556200000000002E-3</v>
+      </c>
+      <c r="D6">
+        <v>8.3734399999999996E-4</v>
+      </c>
+      <c r="E6">
+        <v>1.2534499999999999E-4</v>
+      </c>
+      <c r="F6">
+        <v>7.1131000000000005E-4</v>
       </c>
     </row>
   </sheetData>
